--- a/calc de fechas y tiempo.xlsx
+++ b/calc de fechas y tiempo.xlsx
@@ -11,15 +11,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="94">
   <si>
     <t>Soles por dia</t>
-  </si>
-  <si>
-    <t>fi ¿ADC?</t>
-  </si>
-  <si>
-    <t>ff ¿ADC?</t>
   </si>
   <si>
     <t>Edad</t>
@@ -82,7 +76,7 @@
     <t>min en 1 hora</t>
   </si>
   <si>
-    <t>error</t>
+    <t>error en dias</t>
   </si>
   <si>
     <t>sec en 1 min</t>
@@ -152,6 +146,12 @@
   </si>
   <si>
     <t>% al finalizar</t>
+  </si>
+  <si>
+    <t>fi ¿ADC?</t>
+  </si>
+  <si>
+    <t>ff ¿ADC?</t>
   </si>
   <si>
     <t>comprobació</t>
@@ -265,6 +265,9 @@
     <t>diferencia con 1 o dia</t>
   </si>
   <si>
+    <t>error</t>
+  </si>
+  <si>
     <t>error abs</t>
   </si>
   <si>
@@ -331,7 +334,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +367,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF999999"/>
+        <bgColor rgb="FF999999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
@@ -387,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -398,9 +407,6 @@
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -415,6 +421,9 @@
     <xf borderId="0" fillId="4" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -427,7 +436,7 @@
     <xf borderId="0" fillId="3" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -454,19 +463,22 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -699,20 +711,14 @@
         <v>16.0</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>2</v>
-      </c>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3">
         <f>F16+10*E16 +1</f>
-        <v>42</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>3</v>
+        <v>43</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -730,51 +736,43 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
+      <c r="AS1" s="5"/>
+      <c r="AT1" s="5"/>
+      <c r="AU1" s="5"/>
+      <c r="AV1" s="5"/>
+      <c r="AW1" s="5"/>
+      <c r="AX1" s="5"/>
+      <c r="AY1" s="5"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>25.0</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="4">
-        <f>T105</f>
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <f>T111</f>
-        <v>1</v>
-      </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -785,8 +783,8 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -795,54 +793,54 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="8">
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="7">
         <f t="shared" ref="AA2:AE2" si="1">U3</f>
         <v>0</v>
       </c>
-      <c r="AB2" s="8">
+      <c r="AB2" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AC2" s="8">
+      <c r="AC2" s="7">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AD2" s="8">
+      <c r="AD2" s="7">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="AE2" s="8">
+      <c r="AE2" s="7">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AF2" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="AF2" s="5"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
       <c r="AJ2" s="3">
         <f>AA2*100000 +AB2*1000 +AC2*100 +AD2*10 +AE2*1</f>
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
+      <c r="AT2" s="5"/>
+      <c r="AU2" s="5"/>
+      <c r="AV2" s="5"/>
+      <c r="AW2" s="5"/>
+      <c r="AX2" s="5"/>
+      <c r="AY2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
+      <c r="A3" s="8" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -852,10 +850,10 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H20" si="3">A77</f>
-        <v>15236</v>
+        <v>15601</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
@@ -863,11 +861,11 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T3" s="3" t="str">
         <f t="shared" ref="T3:Y3" si="2">A16</f>
@@ -891,15 +889,15 @@
       </c>
       <c r="Y3" s="9">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5">
         <f>IF(AE2=3,25,0)</f>
         <v>0</v>
       </c>
@@ -907,34 +905,34 @@
       <c r="AH3" s="3"/>
       <c r="AI3" s="3">
         <f>AJ2/4</f>
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="5"/>
+      <c r="AT3" s="5"/>
+      <c r="AU3" s="5"/>
+      <c r="AV3" s="5"/>
+      <c r="AW3" s="5"/>
+      <c r="AX3" s="5"/>
+      <c r="AY3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -945,7 +943,7 @@
         <v>16</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="3"/>
@@ -953,16 +951,16 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="W4" s="3">
         <v>3.0</v>
@@ -973,30 +971,30 @@
       <c r="Y4" s="3">
         <v>5.0</v>
       </c>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6">
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5">
         <f t="shared" ref="AA4:AE4" si="4">ROUNDDOWN(AA2/2,0)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="6">
+      <c r="AB4" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="6">
+      <c r="AC4" s="5">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="6">
+      <c r="AD4" s="5">
         <f t="shared" si="4"/>
         <v>2</v>
       </c>
-      <c r="AE4" s="6">
+      <c r="AE4" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AF4" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="5">
         <f>IF(AE2=2,25,0)</f>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
@@ -1004,19 +1002,19 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5"/>
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5"/>
+      <c r="AV4" s="5"/>
+      <c r="AW4" s="5"/>
+      <c r="AX4" s="5"/>
+      <c r="AY4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="2">
@@ -1043,8 +1041,8 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1066,32 +1064,32 @@
       </c>
       <c r="Y5" s="10">
         <f>Y4*Y3</f>
-        <v>5</v>
-      </c>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6">
+        <v>10</v>
+      </c>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5">
         <f t="shared" ref="AA5:AE5" si="5">AA2-AA4*2</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="6">
+      <c r="AB5" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="6">
+      <c r="AC5" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="6">
+      <c r="AD5" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="6">
+      <c r="AE5" s="5">
         <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="AF5" s="6">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(AE4=1,-25,0)"),0.0)</f>
         <v>0</v>
+      </c>
+      <c r="AF5" s="5">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(AE4=1,-25,0)"),-25.0)</f>
+        <v>-25</v>
       </c>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
@@ -1099,19 +1097,19 @@
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
-      <c r="AM5" s="6"/>
-      <c r="AN5" s="6"/>
-      <c r="AO5" s="6"/>
-      <c r="AP5" s="6"/>
-      <c r="AQ5" s="6"/>
-      <c r="AR5" s="6"/>
-      <c r="AS5" s="6"/>
-      <c r="AT5" s="6"/>
-      <c r="AU5" s="6"/>
-      <c r="AV5" s="6"/>
-      <c r="AW5" s="6"/>
-      <c r="AX5" s="6"/>
-      <c r="AY5" s="6"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="5"/>
+      <c r="AT5" s="5"/>
+      <c r="AU5" s="5"/>
+      <c r="AV5" s="5"/>
+      <c r="AW5" s="5"/>
+      <c r="AX5" s="5"/>
+      <c r="AY5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="11">
@@ -1132,21 +1130,21 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3">
         <f t="shared" si="3"/>
-        <v>243776</v>
+        <v>249616</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="10">
@@ -1167,30 +1165,30 @@
       </c>
       <c r="X6" s="10">
         <f>X4*Y3</f>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6">
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5">
         <f t="shared" ref="AB6:AE6" si="7">IF(AA5=1,5,0)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="6">
+      <c r="AC6" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="6">
+      <c r="AD6" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="6">
+      <c r="AE6" s="5">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="6">
+      <c r="AF6" s="5">
         <f>IF(AE5=1,25,0)</f>
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
@@ -1198,23 +1196,23 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
-      <c r="AM6" s="6"/>
-      <c r="AN6" s="6"/>
-      <c r="AO6" s="6"/>
-      <c r="AP6" s="6"/>
-      <c r="AQ6" s="6"/>
-      <c r="AR6" s="6"/>
-      <c r="AS6" s="6"/>
-      <c r="AT6" s="6"/>
-      <c r="AU6" s="6"/>
-      <c r="AV6" s="6"/>
-      <c r="AW6" s="6"/>
-      <c r="AX6" s="6"/>
-      <c r="AY6" s="6"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
+      <c r="A7" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1235,8 +1233,8 @@
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
       <c r="R7" s="3"/>
       <c r="S7" s="10">
         <f>W4*U3</f>
@@ -1256,65 +1254,65 @@
       </c>
       <c r="W7" s="10">
         <f>W4*Y3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6">
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5">
         <f t="shared" ref="AA7:AE7" si="8">AA4+AA6</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="6">
+      <c r="AB7" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="6">
+      <c r="AC7" s="5">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="6">
+      <c r="AD7" s="5">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AE7" s="6">
+      <c r="AE7" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="AF7" s="5"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
-      <c r="AM7" s="6"/>
-      <c r="AN7" s="6"/>
-      <c r="AO7" s="6"/>
-      <c r="AP7" s="6"/>
-      <c r="AQ7" s="6"/>
-      <c r="AR7" s="6"/>
-      <c r="AS7" s="6"/>
-      <c r="AT7" s="6"/>
-      <c r="AU7" s="6"/>
-      <c r="AV7" s="6"/>
-      <c r="AW7" s="6"/>
-      <c r="AX7" s="6"/>
-      <c r="AY7" s="6"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+      <c r="AT7" s="5"/>
+      <c r="AU7" s="5"/>
+      <c r="AV7" s="5"/>
+      <c r="AW7" s="5"/>
+      <c r="AX7" s="5"/>
+      <c r="AY7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1323,78 +1321,78 @@
         <v>24</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3">
         <f t="shared" ref="K8:K17" si="10">A102</f>
-        <v>15236</v>
+        <v>15601</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
       <c r="R8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="S8" s="4">
+        <v>19</v>
+      </c>
+      <c r="S8" s="8">
         <f t="shared" ref="S8:Y8" si="9">SUM(S5:S7)</f>
         <v>0</v>
       </c>
-      <c r="T8" s="4">
+      <c r="T8" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="U8" s="4">
+      <c r="U8" s="8">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="V8" s="4">
+      <c r="V8" s="8">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="W8" s="4">
+      <c r="W8" s="8">
         <f t="shared" si="9"/>
-        <v>27</v>
-      </c>
-      <c r="X8" s="4">
+        <v>30</v>
+      </c>
+      <c r="X8" s="8">
         <f t="shared" si="9"/>
-        <v>26</v>
-      </c>
-      <c r="Y8" s="4">
+        <v>32</v>
+      </c>
+      <c r="Y8" s="8">
         <f t="shared" si="9"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="6"/>
-      <c r="AP8" s="6"/>
-      <c r="AQ8" s="6"/>
-      <c r="AR8" s="6"/>
-      <c r="AS8" s="6"/>
-      <c r="AT8" s="6"/>
-      <c r="AU8" s="6"/>
-      <c r="AV8" s="6"/>
-      <c r="AW8" s="6"/>
-      <c r="AX8" s="6"/>
-      <c r="AY8" s="6"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5"/>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5"/>
+      <c r="AY8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="12"/>
@@ -1402,7 +1400,7 @@
       <c r="C9" s="12"/>
       <c r="D9" s="3"/>
       <c r="E9" s="1">
-        <v>15561.0</v>
+        <v>15598.0</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1411,7 +1409,7 @@
         <v>60</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="13">
@@ -1419,69 +1417,69 @@
         <v>25</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M9" s="3">
         <f t="shared" ref="M9:M10" si="14">C103</f>
-        <v>325</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
       <c r="R9" s="3"/>
-      <c r="S9" s="4">
+      <c r="S9" s="8">
         <f t="shared" ref="S9:X9" si="11">IF(S8&gt;9,RIGHT(S8),S8) +T10</f>
         <v>0</v>
       </c>
-      <c r="T9" s="4">
+      <c r="T9" s="8">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="U9" s="4">
+      <c r="U9" s="8">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
-      <c r="V9" s="4">
+      <c r="V9" s="8">
         <f t="shared" si="11"/>
-        <v>4</v>
-      </c>
-      <c r="W9" s="4">
+        <v>5</v>
+      </c>
+      <c r="W9" s="8">
         <f t="shared" si="11"/>
-        <v>9</v>
-      </c>
-      <c r="X9" s="4">
+        <v>3</v>
+      </c>
+      <c r="X9" s="8">
         <f t="shared" si="11"/>
-        <v>6</v>
-      </c>
-      <c r="Y9" s="4">
+        <v>3</v>
+      </c>
+      <c r="Y9" s="8" t="str">
         <f>IF(Y8&gt;9,RIGHT(Y8),Y8)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="6">
+      <c r="AA9" s="5">
         <f t="shared" ref="AA9:AE9" si="12">ROUNDDOWN(AA7/2,0)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="6">
+      <c r="AB9" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="6">
+      <c r="AC9" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="6">
+      <c r="AD9" s="5">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="AE9" s="6">
+      <c r="AE9" s="5">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="6"/>
+      <c r="AF9" s="5"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
@@ -1524,7 +1522,7 @@
         <v>60</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3">
@@ -1532,18 +1530,18 @@
         <v>250000</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M10" s="3">
         <f t="shared" si="14"/>
-        <v>2.08855472</v>
+        <v>0.01922583953</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3">
@@ -1560,50 +1558,50 @@
       </c>
       <c r="W10" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X10" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="Y10" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="3" t="str">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="6">
+      <c r="AA10" s="5">
         <f t="shared" ref="AA10:AE10" si="16">AA7-AA9*2</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="6">
+      <c r="AB10" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="6">
+      <c r="AC10" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="6">
+      <c r="AD10" s="5">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="6">
+      <c r="AE10" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="AF10" s="6">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="5">
         <f>IF(AE10=1,50,0)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="6"/>
-      <c r="AK10" s="6"/>
-      <c r="AL10" s="6"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="6"/>
-      <c r="AO10" s="6"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
@@ -1616,8 +1614,8 @@
       <c r="AY10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -1631,16 +1629,16 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3">
         <f t="shared" si="10"/>
-        <v>234764</v>
+        <v>234399</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3">
@@ -1668,33 +1666,33 @@
         <v>0</v>
       </c>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="6"/>
-      <c r="AB11" s="6">
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5">
         <f t="shared" ref="AB11:AE11" si="18">IF(AA10=1,5,0)</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="6">
+      <c r="AC11" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="6">
+      <c r="AD11" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="6">
+      <c r="AE11" s="5">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="6"/>
+      <c r="AF11" s="5"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
-      <c r="AJ11" s="6"/>
-      <c r="AK11" s="6"/>
-      <c r="AL11" s="6"/>
-      <c r="AM11" s="6"/>
-      <c r="AN11" s="6"/>
-      <c r="AO11" s="6"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="5"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
@@ -1708,10 +1706,10 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="3">
-        <f>D2+E2</f>
+        <f>C19+D19</f>
         <v>2</v>
       </c>
       <c r="C12" s="3"/>
@@ -1721,24 +1719,24 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3">
         <f t="shared" si="3"/>
-        <v>365664</v>
+        <v>374424</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3">
         <f t="shared" si="10"/>
-        <v>16.40850617</v>
+        <v>16.02461381</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M12" s="3"/>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3">
         <f t="shared" ref="S12:X12" si="19">RIGHT(S9)+T11</f>
@@ -1754,53 +1752,53 @@
       </c>
       <c r="V12" s="3">
         <f t="shared" si="19"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W12" s="3">
         <f t="shared" si="19"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X12" s="3">
         <f t="shared" si="19"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y12" s="3" t="str">
         <f>RIGHT(Y9)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="6">
+      <c r="AA12" s="5">
         <f t="shared" ref="AA12:AE12" si="20">AA9+AA11</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="6">
+      <c r="AB12" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="6">
+      <c r="AC12" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="5">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AE12" s="6">
+      <c r="AE12" s="5">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="6" t="s">
-        <v>31</v>
+      <c r="AF12" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="6"/>
-      <c r="AK12" s="6"/>
-      <c r="AL12" s="6"/>
-      <c r="AM12" s="6"/>
-      <c r="AN12" s="6"/>
-      <c r="AO12" s="6"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="5"/>
+      <c r="AM12" s="5"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
@@ -1822,24 +1820,24 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3">
         <f t="shared" si="3"/>
-        <v>21939840</v>
+        <v>22465440</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3">
         <f t="shared" si="10"/>
-        <v>6.0944</v>
+        <v>6.2404</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M13" s="3"/>
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3">
@@ -1867,23 +1865,23 @@
         <v>0</v>
       </c>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6" t="s">
-        <v>34</v>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="6"/>
-      <c r="AK13" s="6"/>
-      <c r="AL13" s="6"/>
-      <c r="AM13" s="6"/>
-      <c r="AN13" s="6"/>
-      <c r="AO13" s="6"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="5"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
@@ -1902,23 +1900,23 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
         <f t="shared" si="3"/>
-        <v>1316390400</v>
+        <v>1347926400</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3">
         <f t="shared" si="10"/>
-        <v>93.9056</v>
+        <v>93.7596</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M14" s="3"/>
       <c r="N14" s="3" t="str">
@@ -1926,8 +1924,8 @@
         <v/>
       </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3">
         <f t="shared" ref="S14:Y14" si="22">RIGHT(S12)+T15</f>
@@ -1943,41 +1941,41 @@
       </c>
       <c r="V14" s="3">
         <f t="shared" si="22"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W14" s="3">
         <f t="shared" si="22"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X14" s="3">
         <f t="shared" si="22"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y14" s="3">
         <f t="shared" si="22"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
       <c r="AE14" s="15">
         <f>AI3</f>
-        <v>10.25</v>
-      </c>
-      <c r="AF14" s="6"/>
+        <v>10.5</v>
+      </c>
+      <c r="AF14" s="5"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AI14" s="3"/>
-      <c r="AJ14" s="6"/>
-      <c r="AK14" s="6"/>
-      <c r="AL14" s="6"/>
-      <c r="AM14" s="6"/>
-      <c r="AN14" s="6"/>
-      <c r="AO14" s="6"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="5"/>
+      <c r="AM14" s="5"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
@@ -1991,7 +1989,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2010,13 +2008,13 @@
         <v>75</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M15" s="3"/>
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3">
@@ -2044,16 +2042,16 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
       <c r="AE15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF15" s="6">
+        <v>39</v>
+      </c>
+      <c r="AF15" s="5">
         <f>SUM(AF2:AF13)</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3">
@@ -2061,7 +2059,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="6"/>
+      <c r="AJ15" s="5"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
@@ -2072,11 +2070,11 @@
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
-      <c r="AU15" s="6"/>
-      <c r="AV15" s="6"/>
-      <c r="AW15" s="6"/>
-      <c r="AX15" s="6"/>
-      <c r="AY15" s="6"/>
+      <c r="AU15" s="5"/>
+      <c r="AV15" s="5"/>
+      <c r="AW15" s="5"/>
+      <c r="AX15" s="5"/>
+      <c r="AY15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="3"/>
@@ -2098,15 +2096,15 @@
       </c>
       <c r="F16" s="3">
         <f>IF(B12=0,F27,IF(B12=1,F38,IF(B12=2,F49))) -1</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
         <f t="shared" si="3"/>
-        <v>15236</v>
+        <v>15601</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3">
@@ -2114,13 +2112,13 @@
         <v>750000</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3">
         <f t="shared" ref="S16:Y16" si="24">RIGHT(S14)+T17</f>
@@ -2136,19 +2134,19 @@
       </c>
       <c r="V16" s="3">
         <f t="shared" si="24"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W16" s="3">
         <f t="shared" si="24"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X16" s="3">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y16" s="3">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
@@ -2160,7 +2158,7 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="6"/>
+      <c r="AJ16" s="5"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
@@ -2171,11 +2169,11 @@
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
-      <c r="AU16" s="6"/>
-      <c r="AV16" s="6"/>
-      <c r="AW16" s="6"/>
-      <c r="AX16" s="6"/>
-      <c r="AY16" s="6"/>
+      <c r="AU16" s="5"/>
+      <c r="AV16" s="5"/>
+      <c r="AW16" s="5"/>
+      <c r="AX16" s="5"/>
+      <c r="AY16" s="5"/>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
@@ -2184,29 +2182,29 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
         <f t="shared" si="3"/>
-        <v>304720</v>
+        <v>312020</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3">
         <f t="shared" si="10"/>
-        <v>76.5236</v>
+        <v>76.5601</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3">
@@ -2254,17 +2252,21 @@
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
-      <c r="AU17" s="6"/>
-      <c r="AV17" s="6"/>
-      <c r="AW17" s="6"/>
-      <c r="AX17" s="6"/>
-      <c r="AY17" s="6"/>
+      <c r="AU17" s="5"/>
+      <c r="AV17" s="5"/>
+      <c r="AW17" s="5"/>
+      <c r="AX17" s="5"/>
+      <c r="AY17" s="5"/>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
+      <c r="C18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
         <v>47</v>
@@ -2272,7 +2274,7 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3">
         <f t="shared" si="3"/>
-        <v>30472000</v>
+        <v>31202000</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>48</v>
@@ -2283,8 +2285,8 @@
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3">
         <f t="shared" ref="S18:Y18" si="26">RIGHT(S16)+T19</f>
@@ -2300,19 +2302,19 @@
       </c>
       <c r="V18" s="3">
         <f t="shared" si="26"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W18" s="3">
         <f t="shared" si="26"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X18" s="3">
         <f t="shared" si="26"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y18" s="3">
         <f t="shared" si="26"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="3"/>
       <c r="AA18" s="3"/>
@@ -2324,7 +2326,7 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="6"/>
+      <c r="AJ18" s="5"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
@@ -2335,23 +2337,29 @@
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
-      <c r="AU18" s="6"/>
-      <c r="AV18" s="6"/>
-      <c r="AW18" s="6"/>
-      <c r="AX18" s="6"/>
-      <c r="AY18" s="6"/>
+      <c r="AU18" s="5"/>
+      <c r="AV18" s="5"/>
+      <c r="AW18" s="5"/>
+      <c r="AX18" s="5"/>
+      <c r="AY18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
+      <c r="C19" s="8">
+        <f>T105</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="8">
+        <f>T111</f>
+        <v>1</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
         <f t="shared" si="3"/>
-        <v>3047200000</v>
+        <v>3120200000</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>49</v>
@@ -2362,8 +2370,8 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3">
@@ -2400,22 +2408,22 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="6"/>
+      <c r="AJ19" s="5"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-      <c r="AT19" s="6"/>
-      <c r="AU19" s="6"/>
-      <c r="AV19" s="6"/>
-      <c r="AW19" s="6"/>
-      <c r="AX19" s="6"/>
-      <c r="AY19" s="6"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
+      <c r="AS19" s="5"/>
+      <c r="AT19" s="5"/>
+      <c r="AU19" s="5"/>
+      <c r="AV19" s="5"/>
+      <c r="AW19" s="5"/>
+      <c r="AX19" s="5"/>
+      <c r="AY19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
@@ -2429,7 +2437,7 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3">
         <f t="shared" si="3"/>
-        <v>774347294.1</v>
+        <v>792897882.4</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>51</v>
@@ -2437,7 +2445,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="3">
         <f>D111</f>
-        <v>78.61215472</v>
+        <v>76.57932584</v>
       </c>
       <c r="L20" s="3" t="s">
         <v>52</v>
@@ -2445,10 +2453,10 @@
       <c r="M20" s="3"/>
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
       <c r="R20" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="S20" s="9">
         <f t="shared" ref="S20:Y20" si="28">RIGHT(S18)+T21</f>
@@ -2464,19 +2472,19 @@
       </c>
       <c r="V20" s="9">
         <f t="shared" si="28"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W20" s="9">
         <f t="shared" si="28"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="X20" s="9">
         <f t="shared" si="28"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Y20" s="9">
         <f t="shared" si="28"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="3"/>
       <c r="AA20" s="3"/>
@@ -2643,11 +2651,11 @@
       <c r="AO22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AP22" s="6">
+      <c r="AP22" s="5">
         <f>Q113</f>
         <v>7</v>
       </c>
-      <c r="AQ22" s="6">
+      <c r="AQ22" s="5">
         <f>P113</f>
         <v>25</v>
       </c>
@@ -2960,7 +2968,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" ref="B26:F26" si="42">B24-B22</f>
@@ -3007,19 +3015,19 @@
       </c>
       <c r="U26" s="3">
         <f t="shared" si="43"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V26" s="3">
         <f t="shared" si="43"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="W26" s="3">
         <f t="shared" si="43"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X26" s="3">
         <f t="shared" si="43"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3"/>
       <c r="Z26" s="3"/>
@@ -3097,26 +3105,26 @@
       <c r="AY26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="8">
         <f t="shared" ref="B27:F27" si="44">abs(B26)</f>
         <v>0</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="8">
         <f t="shared" si="44"/>
         <v>1</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="8">
         <f t="shared" si="44"/>
         <v>9</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="8">
         <f t="shared" si="44"/>
         <v>6</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="8">
         <f t="shared" si="44"/>
         <v>3</v>
       </c>
@@ -3132,7 +3140,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="17">
@@ -3270,25 +3278,25 @@
         <f t="shared" ref="S28:W28" si="47">IF((S27+S26+S29)&gt;9,RIGHT(S26+S27+S29),S26+S27+S29)</f>
         <v>0</v>
       </c>
-      <c r="T28" s="8">
+      <c r="T28" s="7">
         <f t="shared" si="47"/>
         <v>1</v>
       </c>
-      <c r="U28" s="8">
+      <c r="U28" s="7">
+        <f t="shared" si="47"/>
+        <v>5</v>
+      </c>
+      <c r="V28" s="7">
+        <f t="shared" si="47"/>
+        <v>3</v>
+      </c>
+      <c r="W28" s="7">
         <f t="shared" si="47"/>
         <v>4</v>
       </c>
-      <c r="V28" s="8">
-        <f t="shared" si="47"/>
-        <v>9</v>
-      </c>
-      <c r="W28" s="8">
-        <f t="shared" si="47"/>
-        <v>7</v>
-      </c>
-      <c r="X28" s="8">
+      <c r="X28" s="7">
         <f>IF((X27+X26)&gt;9,RIGHT(X26+X27),X26+X27)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="3"/>
       <c r="Z28" s="3"/>
@@ -3790,7 +3798,7 @@
     <row r="33">
       <c r="A33" s="3"/>
       <c r="B33" s="3">
-        <f t="shared" ref="B33:E33" si="49">W106</f>
+        <f t="shared" ref="B33:F33" si="49">W106</f>
         <v>0</v>
       </c>
       <c r="C33" s="3" t="str">
@@ -3805,9 +3813,9 @@
         <f t="shared" si="49"/>
         <v>8</v>
       </c>
-      <c r="F33" s="3">
-        <f>AA106 -1</f>
-        <v>1</v>
+      <c r="F33" s="3" t="str">
+        <f t="shared" si="49"/>
+        <v>2</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -4051,7 +4059,7 @@
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
       <c r="AD35" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
@@ -4131,7 +4139,7 @@
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
       <c r="AE36" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF36" s="3"/>
       <c r="AG36" s="19">
@@ -4154,7 +4162,7 @@
       </c>
       <c r="AN36" s="3"/>
       <c r="AO36" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
@@ -4169,7 +4177,7 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B37" s="3">
         <f t="shared" ref="B37:E37" si="53">B33+B35</f>
@@ -4189,7 +4197,7 @@
       </c>
       <c r="F37" s="3">
         <f>F33+F35-1</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -4217,11 +4225,11 @@
       <c r="AD37" s="3"/>
       <c r="AE37" s="3"/>
       <c r="AF37" s="3"/>
-      <c r="AG37" s="4" t="str">
+      <c r="AG37" s="8" t="str">
         <f>IF(AH36&gt;9,LEFT(AH36),0)</f>
         <v>1</v>
       </c>
-      <c r="AH37" s="4" t="str">
+      <c r="AH37" s="8" t="str">
         <f t="shared" ref="AH37:AI37" si="54">IF(AH36&gt;9,RIGHT(AH36),AH36)</f>
         <v>4</v>
       </c>
@@ -4230,18 +4238,18 @@
         <v/>
       </c>
       <c r="AJ37" s="3"/>
-      <c r="AK37" s="4">
+      <c r="AK37" s="8">
         <f>IF(AL36&gt;9,LEFT(AL36),0)</f>
         <v>0</v>
       </c>
-      <c r="AL37" s="4">
+      <c r="AL37" s="8">
         <f>IF(AL36&gt;9,RIGHT(AL36),AL36)</f>
         <v>0</v>
       </c>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
       <c r="AP37" s="18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ37" s="3"/>
       <c r="AR37" s="19">
@@ -4266,28 +4274,28 @@
       <c r="AY37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B38" s="4">
+      <c r="B38" s="8">
         <f t="shared" ref="B38:E38" si="57">IF(B37&gt;9,RIGHT(B37),B37) +C39</f>
         <v>0</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="8">
         <f t="shared" si="57"/>
         <v>3</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="8">
         <f t="shared" si="57"/>
         <v>10</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="8">
         <f t="shared" si="57"/>
         <v>0</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="8">
         <f>IF(F37&gt;9,RIGHT(F37),F37)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -4314,21 +4322,21 @@
       <c r="AC38" s="3"/>
       <c r="AD38" s="3"/>
       <c r="AE38" s="3"/>
-      <c r="AF38" s="4" t="str">
+      <c r="AF38" s="8" t="str">
         <f>IF(AG36&gt;9,LEFT(AG36),0)</f>
         <v>3</v>
       </c>
-      <c r="AG38" s="4" t="str">
+      <c r="AG38" s="8" t="str">
         <f>IF(AG36&gt;9,RIGHT(AG36),AG36)</f>
         <v>2</v>
       </c>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
-      <c r="AJ38" s="4">
+      <c r="AJ38" s="8">
         <f>IF(AK36&gt;9,LEFT(AK36),0)</f>
         <v>0</v>
       </c>
-      <c r="AK38" s="4">
+      <c r="AK38" s="8">
         <f>IF(AK36&gt;9,RIGHT(AK36),AK36)</f>
         <v>3</v>
       </c>
@@ -4337,21 +4345,21 @@
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
       <c r="AQ38" s="3"/>
-      <c r="AR38" s="4" t="str">
+      <c r="AR38" s="8" t="str">
         <f>IF(AS37&gt;9,LEFT(AS37),0)</f>
         <v>1</v>
       </c>
-      <c r="AS38" s="4" t="str">
+      <c r="AS38" s="8" t="str">
         <f>IF(AS37&gt;9,RIGHT(AS37),AS37)</f>
         <v>2</v>
       </c>
       <c r="AT38" s="3"/>
       <c r="AU38" s="3"/>
-      <c r="AV38" s="4">
+      <c r="AV38" s="8">
         <f>IF(AW37&gt;9,LEFT(AW37),0)</f>
         <v>0</v>
       </c>
-      <c r="AW38" s="4">
+      <c r="AW38" s="8">
         <f>IF(AW37&gt;9,RIGHT(AW37),AW37)</f>
         <v>1</v>
       </c>
@@ -4417,21 +4425,21 @@
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
-      <c r="AQ39" s="4" t="str">
+      <c r="AQ39" s="8" t="str">
         <f>IF(AR37&gt;9,LEFT(AR37),0)</f>
         <v>2</v>
       </c>
-      <c r="AR39" s="4" t="str">
+      <c r="AR39" s="8" t="str">
         <f>IF(AR37&gt;9,RIGHT(AR37),AR37)</f>
         <v>0</v>
       </c>
       <c r="AS39" s="3"/>
       <c r="AT39" s="3"/>
-      <c r="AU39" s="4">
+      <c r="AU39" s="8">
         <f>IF(AV37&gt;9,LEFT(AV37),0)</f>
         <v>0</v>
       </c>
-      <c r="AV39" s="4">
+      <c r="AV39" s="8">
         <f>IF(AV37&gt;9,RIGHT(AV37),AV37)</f>
         <v>3</v>
       </c>
@@ -4541,21 +4549,21 @@
       <c r="AC41" s="3"/>
       <c r="AD41" s="3"/>
       <c r="AE41" s="3"/>
-      <c r="AF41" s="4">
+      <c r="AF41" s="8">
         <f>IF(AG40&gt;9,LEFT(AG40),0)</f>
         <v>0</v>
       </c>
-      <c r="AG41" s="4">
+      <c r="AG41" s="8">
         <f>IF(AG40&gt;9,RIGHT(AG40),AG40)</f>
         <v>3</v>
       </c>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
-      <c r="AJ41" s="4">
+      <c r="AJ41" s="8">
         <f>IF(AK40&gt;9,LEFT(AK40),0)</f>
         <v>0</v>
       </c>
-      <c r="AK41" s="4">
+      <c r="AK41" s="8">
         <f>IF(AK40&gt;9,RIGHT(AK40),AK40)</f>
         <v>3</v>
       </c>
@@ -4635,21 +4643,21 @@
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
-      <c r="AQ42" s="4">
+      <c r="AQ42" s="8">
         <f>IF(AR41&gt;9,LEFT(AR41),0)</f>
         <v>0</v>
       </c>
-      <c r="AR42" s="4">
+      <c r="AR42" s="8">
         <f>IF(AR41&gt;9,RIGHT(AR41),AR41)</f>
         <v>1</v>
       </c>
       <c r="AS42" s="3"/>
       <c r="AT42" s="3"/>
-      <c r="AU42" s="4">
+      <c r="AU42" s="8">
         <f>IF(AV41&gt;9,LEFT(AV41),0)</f>
         <v>0</v>
       </c>
-      <c r="AV42" s="4">
+      <c r="AV42" s="8">
         <f>IF(AV41&gt;9,RIGHT(AV41),AV41)</f>
         <v>3</v>
       </c>
@@ -4732,7 +4740,7 @@
     <row r="44">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
-        <f t="shared" ref="B44:E44" si="63">W106</f>
+        <f t="shared" ref="B44:F44" si="63">W106</f>
         <v>0</v>
       </c>
       <c r="C44" s="3" t="str">
@@ -4747,9 +4755,9 @@
         <f t="shared" si="63"/>
         <v>8</v>
       </c>
-      <c r="F44" s="3">
-        <f>AA106 +1</f>
-        <v>3</v>
+      <c r="F44" s="3" t="str">
+        <f t="shared" si="63"/>
+        <v>2</v>
       </c>
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
@@ -4848,20 +4856,20 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="6"/>
-      <c r="AG45" s="6" t="s">
+      <c r="AF45" s="5"/>
+      <c r="AG45" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="AH45" s="6">
+      <c r="AH45" s="5">
         <f>SUM(AE23:AE29)</f>
         <v>12</v>
       </c>
-      <c r="AI45" s="6"/>
+      <c r="AI45" s="5"/>
       <c r="AJ45" s="3" t="s">
         <v>62</v>
       </c>
       <c r="AK45" s="3"/>
-      <c r="AL45" s="6">
+      <c r="AL45" s="5">
         <f>AF21</f>
         <v>6</v>
       </c>
@@ -4925,13 +4933,13 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
-      <c r="AF46" s="6"/>
-      <c r="AG46" s="6">
+      <c r="AF46" s="5"/>
+      <c r="AG46" s="5">
         <f>SUM(AD23:AD29)</f>
         <v>20</v>
       </c>
-      <c r="AH46" s="6"/>
-      <c r="AI46" s="6"/>
+      <c r="AH46" s="5"/>
+      <c r="AI46" s="5"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3">
         <f>IF(LEN(AL45)&gt;1,LEFT(AL45),0)</f>
@@ -4957,7 +4965,7 @@
         <v>62</v>
       </c>
       <c r="AV46" s="3"/>
-      <c r="AW46" s="6">
+      <c r="AW46" s="5">
         <f>AQ22</f>
         <v>25</v>
       </c>
@@ -4996,10 +5004,10 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
-      <c r="AF47" s="6"/>
-      <c r="AG47" s="6"/>
-      <c r="AH47" s="6"/>
-      <c r="AI47" s="6"/>
+      <c r="AF47" s="5"/>
+      <c r="AG47" s="5"/>
+      <c r="AH47" s="5"/>
+      <c r="AI47" s="5"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
@@ -5027,7 +5035,7 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B48" s="3">
         <f t="shared" ref="B48:F48" si="65">B46-B44</f>
@@ -5047,7 +5055,7 @@
       </c>
       <c r="F48" s="3">
         <f t="shared" si="65"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
@@ -5076,7 +5084,7 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
-      <c r="AF48" s="6"/>
+      <c r="AF48" s="5"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3">
         <f>IF(AL46&gt;AL43,1,0)</f>
@@ -5102,28 +5110,28 @@
       <c r="AY48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B49" s="4">
+      <c r="B49" s="8">
         <f t="shared" ref="B49:F49" si="66">IF(B50&lt;0,RIGHT(B48),B50)</f>
         <v>0</v>
       </c>
-      <c r="C49" s="4">
+      <c r="C49" s="8">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="D49" s="4">
+      <c r="D49" s="8">
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E49" s="8">
         <f t="shared" si="66"/>
         <v>4</v>
       </c>
-      <c r="F49" s="4">
+      <c r="F49" s="8">
         <f t="shared" si="66"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
@@ -5147,28 +5155,28 @@
         <f t="shared" ref="Y49:AD49" si="67">S28</f>
         <v>0</v>
       </c>
-      <c r="Z49" s="6">
+      <c r="Z49" s="5">
         <f t="shared" si="67"/>
         <v>1</v>
       </c>
-      <c r="AA49" s="6">
+      <c r="AA49" s="5">
+        <f t="shared" si="67"/>
+        <v>5</v>
+      </c>
+      <c r="AB49" s="5">
+        <f t="shared" si="67"/>
+        <v>3</v>
+      </c>
+      <c r="AC49" s="5">
         <f t="shared" si="67"/>
         <v>4</v>
       </c>
-      <c r="AB49" s="6">
+      <c r="AD49" s="5">
         <f t="shared" si="67"/>
-        <v>9</v>
-      </c>
-      <c r="AC49" s="6">
-        <f t="shared" si="67"/>
-        <v>7</v>
-      </c>
-      <c r="AD49" s="6">
-        <f t="shared" si="67"/>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="3"/>
-      <c r="AF49" s="6"/>
+      <c r="AF49" s="5"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
@@ -5220,7 +5228,7 @@
       </c>
       <c r="F50" s="3">
         <f>IF(F48&lt;0,10+F48,F48)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
@@ -5240,7 +5248,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y50" s="3">
         <v>0.0</v>
@@ -5264,13 +5272,13 @@
         <v>1</v>
       </c>
       <c r="AE50" s="3"/>
-      <c r="AF50" s="6"/>
+      <c r="AF50" s="5"/>
       <c r="AJ50" s="3"/>
-      <c r="AK50" s="4">
+      <c r="AK50" s="8">
         <f>AK43-AK46-AK48</f>
         <v>2</v>
       </c>
-      <c r="AL50" s="4">
+      <c r="AL50" s="8">
         <f>AL48</f>
         <v>4</v>
       </c>
@@ -5339,28 +5347,28 @@
         <f t="shared" ref="Y51:AC51" si="73">IF((Y50+Y49+Y52)&gt;9,RIGHT(Y49+Y50+Y52),Y49+Y50+Y52)</f>
         <v>0</v>
       </c>
-      <c r="Z51" s="8">
+      <c r="Z51" s="7">
         <f t="shared" si="73"/>
         <v>1</v>
       </c>
-      <c r="AA51" s="8">
+      <c r="AA51" s="7">
         <f t="shared" si="73"/>
         <v>5</v>
       </c>
-      <c r="AB51" s="8" t="str">
+      <c r="AB51" s="7">
         <f t="shared" si="73"/>
-        <v>2</v>
-      </c>
-      <c r="AC51" s="8" t="str">
+        <v>6</v>
+      </c>
+      <c r="AC51" s="7" t="str">
         <f t="shared" si="73"/>
-        <v>3</v>
-      </c>
-      <c r="AD51" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="7">
         <f>IF((AD50+AD49)&gt;9,RIGHT(AD49+AD50),AD49+AD50)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="6"/>
+      <c r="AF51" s="5"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
@@ -5369,11 +5377,11 @@
       <c r="AS51" s="3"/>
       <c r="AT51" s="3"/>
       <c r="AU51" s="3"/>
-      <c r="AV51" s="4">
+      <c r="AV51" s="8">
         <f>AV44-AV47-AV49</f>
         <v>0</v>
       </c>
-      <c r="AW51" s="4">
+      <c r="AW51" s="8">
         <f>AW49</f>
         <v>6</v>
       </c>
@@ -5415,7 +5423,7 @@
       </c>
       <c r="AA52" s="3">
         <f t="shared" si="74"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB52" s="3">
         <f t="shared" si="74"/>
@@ -5430,7 +5438,7 @@
         <v>0</v>
       </c>
       <c r="AE52" s="3"/>
-      <c r="AF52" s="6"/>
+      <c r="AF52" s="5"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
@@ -5479,7 +5487,7 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="6"/>
+      <c r="AF53" s="5"/>
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="3"/>
@@ -5529,14 +5537,14 @@
       <c r="AB54" s="3"/>
       <c r="AC54" s="3">
         <f>AD51*1 +AC51*10 + AB51*100 + AA51*1000 +Z51*10000 +Y51*100000</f>
-        <v>15236</v>
+        <v>15601</v>
       </c>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
-      <c r="AF54" s="6"/>
-      <c r="AG54" s="6"/>
-      <c r="AH54" s="6"/>
-      <c r="AI54" s="6"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
       <c r="AP54" s="3"/>
@@ -5584,7 +5592,7 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-      <c r="AF55" s="6"/>
+      <c r="AF55" s="5"/>
       <c r="AN55" s="3"/>
       <c r="AO55" s="3"/>
       <c r="AP55" s="3"/>
@@ -5639,7 +5647,7 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-      <c r="AF56" s="6"/>
+      <c r="AF56" s="5"/>
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
       <c r="AP56" s="3"/>
@@ -5685,7 +5693,7 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="6"/>
+      <c r="AF57" s="5"/>
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
       <c r="AP57" s="3"/>
@@ -5731,12 +5739,12 @@
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
-      <c r="AF58" s="6"/>
-      <c r="AG58" s="6"/>
-      <c r="AH58" s="6" t="s">
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="AI58" s="6"/>
+      <c r="AI58" s="5"/>
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
       <c r="AP58" s="3"/>
@@ -5782,13 +5790,13 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
-      <c r="AH59" s="6">
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5">
         <f t="shared" ref="AH59:AI59" si="75">AK50</f>
         <v>2</v>
       </c>
-      <c r="AI59" s="6">
+      <c r="AI59" s="5">
         <f t="shared" si="75"/>
         <v>4</v>
       </c>
@@ -5837,16 +5845,16 @@
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
-      <c r="AF60" s="6"/>
-      <c r="AG60" s="6">
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5">
         <f t="shared" ref="AG60:AI60" si="76">AF43</f>
         <v>3</v>
       </c>
-      <c r="AH60" s="6">
+      <c r="AH60" s="5">
         <f t="shared" si="76"/>
         <v>3</v>
       </c>
-      <c r="AI60" s="6">
+      <c r="AI60" s="5">
         <f t="shared" si="76"/>
         <v>4</v>
       </c>
@@ -5895,10 +5903,10 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
-      <c r="AF61" s="6"/>
-      <c r="AG61" s="6"/>
-      <c r="AH61" s="6"/>
-      <c r="AI61" s="6">
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5">
         <f>IF(AI60&gt;AI59,10-AI60+AI59,AI59-AI60)</f>
         <v>0</v>
       </c>
@@ -5950,24 +5958,24 @@
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
-      <c r="AG62" s="6"/>
-      <c r="AH62" s="6">
+      <c r="AG62" s="5"/>
+      <c r="AH62" s="5">
         <f>IF(AI60&gt;AI59,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AI62" s="6"/>
+      <c r="AI62" s="5"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="3"/>
       <c r="AP62" s="3"/>
-      <c r="AQ62" s="6">
+      <c r="AQ62" s="5">
         <f t="shared" ref="AQ62:AS62" si="77">AG86</f>
         <v>0</v>
       </c>
-      <c r="AR62" s="6">
+      <c r="AR62" s="5">
         <f t="shared" si="77"/>
         <v>5</v>
       </c>
-      <c r="AS62" s="6">
+      <c r="AS62" s="5">
         <f t="shared" si="77"/>
         <v>5</v>
       </c>
@@ -6011,9 +6019,9 @@
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
-      <c r="AG63" s="6"/>
-      <c r="AH63" s="6"/>
-      <c r="AI63" s="6"/>
+      <c r="AG63" s="5"/>
+      <c r="AH63" s="5"/>
+      <c r="AI63" s="5"/>
       <c r="AN63" s="3"/>
       <c r="AO63" s="3"/>
       <c r="AP63" s="3"/>
@@ -6069,12 +6077,12 @@
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
-      <c r="AG64" s="6"/>
-      <c r="AH64" s="6">
+      <c r="AG64" s="5"/>
+      <c r="AH64" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(AH60&gt;AH59,-AH59+AH60,10+AH60-AH59) + AH62"),1.0)</f>
         <v>1</v>
       </c>
-      <c r="AI64" s="6"/>
+      <c r="AI64" s="5"/>
       <c r="AN64" s="3"/>
       <c r="AO64" s="3"/>
       <c r="AP64" s="3"/>
@@ -6121,24 +6129,24 @@
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
-      <c r="AG65" s="6">
+      <c r="AG65" s="5">
         <f>IF(AH60&gt;AH59,0,1)</f>
         <v>0</v>
       </c>
-      <c r="AH65" s="6"/>
-      <c r="AI65" s="6"/>
+      <c r="AH65" s="5"/>
+      <c r="AI65" s="5"/>
       <c r="AN65" s="3"/>
       <c r="AO65" s="3"/>
       <c r="AP65" s="3"/>
-      <c r="AQ65" s="6">
+      <c r="AQ65" s="5">
         <f t="shared" ref="AQ65:AR65" si="79">AQ63+AQ62</f>
         <v>2</v>
       </c>
-      <c r="AR65" s="6">
+      <c r="AR65" s="5">
         <f t="shared" si="79"/>
         <v>5</v>
       </c>
-      <c r="AS65" s="6" t="str">
+      <c r="AS65" s="5" t="str">
         <f>IF((AS63+AS62)&gt;9,RIGHT(AS63+AS62),AS63+AS62)</f>
         <v>1</v>
       </c>
@@ -6182,9 +6190,9 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
-      <c r="AG66" s="6"/>
-      <c r="AH66" s="6"/>
-      <c r="AI66" s="6"/>
+      <c r="AG66" s="5"/>
+      <c r="AH66" s="5"/>
+      <c r="AI66" s="5"/>
       <c r="AN66" s="3"/>
       <c r="AO66" s="3"/>
       <c r="AP66" s="3"/>
@@ -6234,9 +6242,9 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-      <c r="AG67" s="6"/>
-      <c r="AH67" s="6"/>
-      <c r="AI67" s="6"/>
+      <c r="AG67" s="5"/>
+      <c r="AH67" s="5"/>
+      <c r="AI67" s="5"/>
       <c r="AN67" s="3"/>
       <c r="AO67" s="3"/>
       <c r="AP67" s="3"/>
@@ -6283,17 +6291,17 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
-      <c r="AG68" s="6">
+      <c r="AG68" s="5">
         <f>AG59+AG60 +AG65</f>
         <v>3</v>
       </c>
-      <c r="AH68" s="6"/>
-      <c r="AI68" s="6"/>
+      <c r="AH68" s="5"/>
+      <c r="AI68" s="5"/>
       <c r="AN68" s="3"/>
       <c r="AO68" s="3"/>
       <c r="AP68" s="3"/>
       <c r="AQ68" s="3"/>
-      <c r="AR68" s="6">
+      <c r="AR68" s="5">
         <f>IF((AR65+AR66)&gt;9,RIGHT(AR65+AR66),AR65+AR66)</f>
         <v>6</v>
       </c>
@@ -6338,11 +6346,11 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
-      <c r="AG69" s="6"/>
+      <c r="AG69" s="5"/>
       <c r="AH69" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AI69" s="6"/>
+      <c r="AI69" s="5"/>
       <c r="AN69" s="3"/>
       <c r="AO69" s="3"/>
       <c r="AP69" s="3"/>
@@ -6392,9 +6400,9 @@
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
-      <c r="AG70" s="6"/>
-      <c r="AH70" s="6"/>
-      <c r="AI70" s="6"/>
+      <c r="AG70" s="5"/>
+      <c r="AH70" s="5"/>
+      <c r="AI70" s="5"/>
       <c r="AN70" s="3"/>
       <c r="AO70" s="3"/>
       <c r="AP70" s="3"/>
@@ -6441,30 +6449,30 @@
       <c r="AD71" s="3"/>
       <c r="AE71" s="3"/>
       <c r="AF71" s="3"/>
-      <c r="AG71" s="8">
+      <c r="AG71" s="7">
         <f>AG68</f>
         <v>3</v>
       </c>
-      <c r="AH71" s="8">
+      <c r="AH71" s="7">
         <f>AH64</f>
         <v>1</v>
       </c>
-      <c r="AI71" s="8">
+      <c r="AI71" s="7">
         <f>AI61</f>
         <v>0</v>
       </c>
       <c r="AN71" s="3"/>
       <c r="AO71" s="3"/>
       <c r="AP71" s="3"/>
-      <c r="AQ71" s="8">
+      <c r="AQ71" s="7">
         <f>AQ69+AQ65</f>
         <v>2</v>
       </c>
-      <c r="AR71" s="8">
+      <c r="AR71" s="7">
         <f>AR68</f>
         <v>6</v>
       </c>
-      <c r="AS71" s="8" t="str">
+      <c r="AS71" s="7" t="str">
         <f>AS65</f>
         <v>1</v>
       </c>
@@ -6616,15 +6624,15 @@
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
-      <c r="AG74" s="6">
+      <c r="AG74" s="5">
         <f t="shared" ref="AG74:AI74" si="81">AG71</f>
         <v>3</v>
       </c>
-      <c r="AH74" s="6">
+      <c r="AH74" s="5">
         <f t="shared" si="81"/>
         <v>1</v>
       </c>
-      <c r="AI74" s="6">
+      <c r="AI74" s="5">
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
@@ -6678,7 +6686,7 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
-      <c r="AG75" s="6">
+      <c r="AG75" s="5">
         <f>AG60</f>
         <v>3</v>
       </c>
@@ -6735,9 +6743,9 @@
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
-      <c r="AG76" s="6"/>
-      <c r="AH76" s="6"/>
-      <c r="AI76" s="6">
+      <c r="AG76" s="5"/>
+      <c r="AH76" s="5"/>
+      <c r="AI76" s="5">
         <f>IF(AI75&gt;AI74,AI75-AI74,10+AI74-AI75)</f>
         <v>5</v>
       </c>
@@ -6759,10 +6767,10 @@
     <row r="77">
       <c r="A77" s="3">
         <f>AC54</f>
-        <v>15236</v>
+        <v>15601</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
@@ -6784,10 +6792,10 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3">
         <f>A77</f>
-        <v>15236</v>
+        <v>15601</v>
       </c>
       <c r="R77" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S77" s="3"/>
       <c r="T77" s="3" t="s">
@@ -6807,12 +6815,12 @@
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
       <c r="AF77" s="3"/>
-      <c r="AG77" s="6"/>
-      <c r="AH77" s="6">
+      <c r="AG77" s="5"/>
+      <c r="AH77" s="5">
         <f>IF(AI75&gt;AI74,0,1)</f>
         <v>0</v>
       </c>
-      <c r="AI77" s="6"/>
+      <c r="AI77" s="5"/>
       <c r="AJ77" s="3"/>
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
@@ -6836,7 +6844,7 @@
         <v>16</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
@@ -6860,7 +6868,7 @@
         <v>16.0</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S78" s="3"/>
       <c r="T78" s="3">
@@ -6880,9 +6888,9 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
       <c r="AF78" s="3"/>
-      <c r="AG78" s="6"/>
-      <c r="AH78" s="6"/>
-      <c r="AI78" s="6"/>
+      <c r="AG78" s="5"/>
+      <c r="AH78" s="5"/>
+      <c r="AI78" s="5"/>
       <c r="AJ78" s="3"/>
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
@@ -6943,12 +6951,12 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
       <c r="AF79" s="3"/>
-      <c r="AG79" s="6"/>
-      <c r="AH79" s="6">
+      <c r="AG79" s="5"/>
+      <c r="AH79" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(AH75&gt;AH74,-AH74+AH75,10-AH75+AH74) + AH77"),5.0)</f>
         <v>5</v>
       </c>
-      <c r="AI79" s="6"/>
+      <c r="AI79" s="5"/>
       <c r="AJ79" s="3"/>
       <c r="AK79" s="3"/>
       <c r="AL79" s="3" t="s">
@@ -6971,10 +6979,10 @@
     <row r="80">
       <c r="A80" s="3">
         <f>A77*A78</f>
-        <v>243776</v>
+        <v>249616</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
@@ -6997,10 +7005,10 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3">
         <f>Q77*Q78</f>
-        <v>243776</v>
+        <v>249616</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3">
@@ -7021,12 +7029,12 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
-      <c r="AG80" s="6">
+      <c r="AG80" s="5">
         <f>IF(AH75&gt;AH74,0,1)</f>
         <v>0</v>
       </c>
-      <c r="AH80" s="6"/>
-      <c r="AI80" s="6"/>
+      <c r="AH80" s="5"/>
+      <c r="AI80" s="5"/>
       <c r="AK80" s="3"/>
       <c r="AN80" s="3"/>
       <c r="AO80" s="3"/>
@@ -7074,19 +7082,19 @@
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
-      <c r="AG81" s="6"/>
-      <c r="AH81" s="6"/>
-      <c r="AI81" s="6"/>
+      <c r="AG81" s="5"/>
+      <c r="AH81" s="5"/>
+      <c r="AI81" s="5"/>
       <c r="AJ81" s="3"/>
-      <c r="AK81" s="6">
+      <c r="AK81" s="5">
         <f t="shared" ref="AK81:AM81" si="82">AQ71</f>
         <v>2</v>
       </c>
-      <c r="AL81" s="6">
+      <c r="AL81" s="5">
         <f t="shared" si="82"/>
         <v>6</v>
       </c>
-      <c r="AM81" s="6" t="str">
+      <c r="AM81" s="5" t="str">
         <f t="shared" si="82"/>
         <v>1</v>
       </c>
@@ -7108,7 +7116,7 @@
         <v>24.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
@@ -7136,7 +7144,7 @@
         <v>24.0</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="S82" s="3"/>
       <c r="T82" s="3" t="s">
@@ -7160,9 +7168,9 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-      <c r="AG82" s="6"/>
-      <c r="AH82" s="6"/>
-      <c r="AI82" s="6"/>
+      <c r="AG82" s="5"/>
+      <c r="AH82" s="5"/>
+      <c r="AI82" s="5"/>
       <c r="AJ82" s="3"/>
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
@@ -7185,7 +7193,7 @@
         <v>60.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
@@ -7213,7 +7221,7 @@
         <v>60.0</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="S83" s="3"/>
       <c r="T83" s="3" t="s">
@@ -7237,12 +7245,12 @@
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
-      <c r="AG83" s="6">
+      <c r="AG83" s="5">
         <f>IFERROR(__xludf.DUMMYFUNCTION("-AG74+AG75 +AG80"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="AH83" s="6"/>
-      <c r="AI83" s="6"/>
+      <c r="AH83" s="5"/>
+      <c r="AI83" s="5"/>
       <c r="AJ83" s="3"/>
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
@@ -7265,7 +7273,7 @@
         <v>60.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
@@ -7293,7 +7301,7 @@
         <v>60.0</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="S84" s="3"/>
       <c r="T84" s="3" t="s">
@@ -7317,11 +7325,11 @@
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
-      <c r="AG84" s="6"/>
+      <c r="AG84" s="5"/>
       <c r="AH84" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="AI84" s="6"/>
+      <c r="AI84" s="5"/>
       <c r="AJ84" s="3"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
@@ -7376,9 +7384,9 @@
       <c r="AD85" s="3"/>
       <c r="AE85" s="3"/>
       <c r="AF85" s="3"/>
-      <c r="AG85" s="6"/>
-      <c r="AH85" s="6"/>
-      <c r="AI85" s="6"/>
+      <c r="AG85" s="5"/>
+      <c r="AH85" s="5"/>
+      <c r="AI85" s="5"/>
       <c r="AJ85" s="3"/>
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
@@ -7399,10 +7407,10 @@
     <row r="86">
       <c r="A86" s="3">
         <f>A77*A82</f>
-        <v>365664</v>
+        <v>374424</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
@@ -7428,14 +7436,14 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3">
         <f>Q80*Q82</f>
-        <v>5850624</v>
+        <v>5990784</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S86" s="3">
         <f t="shared" ref="S86:S88" si="83">Q86-A86</f>
-        <v>5484960</v>
+        <v>5616360</v>
       </c>
       <c r="T86" s="3" t="s">
         <v>54</v>
@@ -7458,15 +7466,15 @@
       <c r="AD86" s="3"/>
       <c r="AE86" s="3"/>
       <c r="AF86" s="3"/>
-      <c r="AG86" s="8">
+      <c r="AG86" s="7">
         <f>AG83</f>
         <v>0</v>
       </c>
-      <c r="AH86" s="8">
+      <c r="AH86" s="7">
         <f>AH79</f>
         <v>5</v>
       </c>
-      <c r="AI86" s="8">
+      <c r="AI86" s="7">
         <f>AI76</f>
         <v>5</v>
       </c>
@@ -7490,10 +7498,10 @@
     <row r="87">
       <c r="A87" s="3">
         <f t="shared" ref="A87:A88" si="84">A86*A83</f>
-        <v>21939840</v>
+        <v>22465440</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -7519,14 +7527,14 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="3">
         <f t="shared" ref="Q87:Q88" si="85">Q86*Q83</f>
-        <v>351037440</v>
+        <v>359447040</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="S87" s="3">
         <f t="shared" si="83"/>
-        <v>329097600</v>
+        <v>336981600</v>
       </c>
       <c r="T87" s="3" t="s">
         <v>80</v>
@@ -7572,10 +7580,10 @@
     <row r="88">
       <c r="A88" s="3">
         <f t="shared" si="84"/>
-        <v>1316390400</v>
+        <v>1347926400</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
@@ -7601,14 +7609,14 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3">
         <f t="shared" si="85"/>
-        <v>21062246400</v>
+        <v>21566822400</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="S88" s="3">
         <f t="shared" si="83"/>
-        <v>19745856000</v>
+        <v>20218896000</v>
       </c>
       <c r="T88" s="3" t="s">
         <v>81</v>
@@ -7707,10 +7715,10 @@
     <row r="90">
       <c r="A90" s="3">
         <f t="shared" ref="A90:A92" si="86">A91/G82</f>
-        <v>15236</v>
+        <v>15601</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
@@ -7737,14 +7745,14 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3">
         <f t="shared" ref="Q90:Q92" si="87">Q91/W82</f>
-        <v>243776</v>
+        <v>249616</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="S90" s="3">
         <f t="shared" ref="S90:S94" si="88">Q90-A90</f>
-        <v>228540</v>
+        <v>234015</v>
       </c>
       <c r="T90" s="3" t="s">
         <v>54</v>
@@ -7791,10 +7799,10 @@
     <row r="91">
       <c r="A91" s="3">
         <f t="shared" si="86"/>
-        <v>304720</v>
+        <v>312020</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
@@ -7821,14 +7829,14 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="3">
         <f t="shared" si="87"/>
-        <v>4875520</v>
+        <v>4992320</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="S91" s="3">
         <f t="shared" si="88"/>
-        <v>4570800</v>
+        <v>4680300</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>74</v>
@@ -7875,7 +7883,7 @@
     <row r="92">
       <c r="A92" s="3">
         <f t="shared" si="86"/>
-        <v>30472000</v>
+        <v>31202000</v>
       </c>
       <c r="B92" s="3" t="s">
         <v>48</v>
@@ -7896,14 +7904,14 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3">
         <f t="shared" si="87"/>
-        <v>487552000</v>
+        <v>499232000</v>
       </c>
       <c r="R92" s="3" t="s">
         <v>48</v>
       </c>
       <c r="S92" s="3">
         <f t="shared" si="88"/>
-        <v>457080000</v>
+        <v>468030000</v>
       </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
@@ -7941,7 +7949,7 @@
     <row r="93">
       <c r="A93" s="3">
         <f>E93*A88</f>
-        <v>3047200000</v>
+        <v>3120200000</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>49</v>
@@ -7971,14 +7979,14 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3">
         <f>U93*Q88</f>
-        <v>48755200000</v>
+        <v>49923200000</v>
       </c>
       <c r="R93" s="3" t="s">
         <v>49</v>
       </c>
       <c r="S93" s="3">
         <f t="shared" si="88"/>
-        <v>45708000000</v>
+        <v>46803000000</v>
       </c>
       <c r="T93" s="3" t="s">
         <v>77</v>
@@ -8025,7 +8033,7 @@
     <row r="94">
       <c r="A94" s="3">
         <f>A88*E94</f>
-        <v>774347294.1</v>
+        <v>792897882.4</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>51</v>
@@ -8055,14 +8063,14 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3">
         <f>Q88*U94</f>
-        <v>12389556706</v>
+        <v>12686366118</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>51</v>
       </c>
       <c r="S94" s="3">
         <f t="shared" si="88"/>
-        <v>11615209412</v>
+        <v>11893468235</v>
       </c>
       <c r="T94" s="3" t="s">
         <v>71</v>
@@ -8412,7 +8420,7 @@
     <row r="100">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -8428,9 +8436,9 @@
       <c r="N100" s="3"/>
       <c r="O100" s="3"/>
       <c r="P100" s="3"/>
-      <c r="Q100" s="4">
+      <c r="Q100" s="8">
         <f>E9</f>
-        <v>15561</v>
+        <v>15598</v>
       </c>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
@@ -8499,15 +8507,15 @@
       </c>
       <c r="S101" s="3" t="str">
         <f>RIGHT(LEFT(Q100,4))</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T101" s="3" t="str">
         <f>RIGHT(LEFT(Q100,5))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="U101" s="3" t="str">
         <f>RIGHT(LEFT(Q100,6))</f>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
@@ -8543,10 +8551,10 @@
     <row r="102">
       <c r="A102" s="3">
         <f>A90</f>
-        <v>15236</v>
+        <v>15601</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -8599,23 +8607,23 @@
       <c r="AY102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="13">
+      <c r="A103" s="27">
         <f>B2</f>
         <v>25</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C103" s="3">
         <f>Q103</f>
-        <v>325</v>
+        <v>3</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="E103" s="3"/>
-      <c r="F103" s="7"/>
-      <c r="G103" s="7"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -8625,11 +8633,11 @@
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="Q103" s="3">
         <f>abs(A102-Q100)</f>
-        <v>325</v>
+        <v>3</v>
       </c>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
@@ -8637,7 +8645,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
@@ -8674,26 +8682,26 @@
         <v>250000</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C104" s="3">
         <f>abs(C103)*100/(A102+C103)</f>
-        <v>2.08855472</v>
+        <v>0.01922583953</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E104" s="3"/>
-      <c r="F104" s="7"/>
-      <c r="G104" s="7"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
       <c r="K104" s="3"/>
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
-      <c r="N104" s="4" t="s">
-        <v>86</v>
+      <c r="N104" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="O104" s="3">
         <f>IF(P105="",0,1)</f>
@@ -8706,11 +8714,11 @@
         <v>53</v>
       </c>
       <c r="R104" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S104" s="3"/>
       <c r="T104" s="3" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
@@ -8750,16 +8758,16 @@
     <row r="105">
       <c r="A105" s="3">
         <f>A104-A102</f>
-        <v>234764</v>
+        <v>234399</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="7"/>
-      <c r="G105" s="7"/>
+      <c r="F105" s="6"/>
+      <c r="G105" s="6"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -8767,20 +8775,20 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O105" s="26">
         <v>30291.0</v>
       </c>
-      <c r="P105" s="13">
+      <c r="P105" s="27">
         <f t="shared" ref="P105:R105" si="89">A5</f>
         <v>6</v>
       </c>
-      <c r="Q105" s="13">
+      <c r="Q105" s="27">
         <f t="shared" si="89"/>
         <v>11</v>
       </c>
-      <c r="R105" s="13">
+      <c r="R105" s="27">
         <f t="shared" si="89"/>
         <v>1982</v>
       </c>
@@ -8791,7 +8799,7 @@
       </c>
       <c r="U105" s="3"/>
       <c r="V105" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
@@ -8826,16 +8834,16 @@
     <row r="106">
       <c r="A106" s="3">
         <f>A104/A102</f>
-        <v>16.40850617</v>
+        <v>16.02461381</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="7"/>
-      <c r="G106" s="7"/>
+      <c r="F106" s="6"/>
+      <c r="G106" s="6"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -8851,7 +8859,7 @@
         <v>53</v>
       </c>
       <c r="R106" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
@@ -8905,16 +8913,16 @@
     <row r="107">
       <c r="A107" s="3">
         <f>A102*100/A104</f>
-        <v>6.0944</v>
+        <v>6.2404</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
+      <c r="F107" s="6"/>
+      <c r="G107" s="6"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -8972,10 +8980,10 @@
     <row r="108">
       <c r="A108" s="3">
         <f>100-A107</f>
-        <v>93.9056</v>
+        <v>93.7596</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="str">
@@ -8983,8 +8991,8 @@
         <v/>
       </c>
       <c r="E108" s="3"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
+      <c r="F108" s="6"/>
+      <c r="G108" s="6"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -9036,13 +9044,13 @@
         <v>75</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="7"/>
+      <c r="F109" s="6"/>
+      <c r="G109" s="6"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -9059,7 +9067,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
@@ -9096,13 +9104,13 @@
         <v>750000</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="7"/>
-      <c r="G110" s="7"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -9110,7 +9118,7 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O110" s="3">
         <f>IF(P111="",0,1)</f>
@@ -9123,11 +9131,11 @@
         <v>53</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S110" s="3"/>
       <c r="T110" s="3" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
@@ -9167,29 +9175,29 @@
     <row r="111">
       <c r="A111" s="3">
         <f>(A110 + A102 )*100/B101</f>
-        <v>76.5236</v>
+        <v>76.5601</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3">
         <f>A111+C104</f>
-        <v>78.61215472</v>
+        <v>76.57932584</v>
       </c>
       <c r="E111" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F111" s="7"/>
-      <c r="G111" s="7"/>
-      <c r="H111" s="6"/>
-      <c r="I111" s="6"/>
-      <c r="J111" s="6"/>
-      <c r="K111" s="6"/>
-      <c r="L111" s="6"/>
-      <c r="M111" s="6"/>
+      <c r="F111" s="6"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="5"/>
+      <c r="L111" s="5"/>
+      <c r="M111" s="5"/>
       <c r="N111" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O111" s="26">
         <f>TODAY()</f>
@@ -9214,7 +9222,7 @@
       </c>
       <c r="U111" s="3"/>
       <c r="V111" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
@@ -9252,16 +9260,16 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="7"/>
-      <c r="G112" s="7"/>
+      <c r="F112" s="6"/>
+      <c r="G112" s="6"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
-      <c r="N112" s="4" t="s">
-        <v>92</v>
+      <c r="N112" s="8" t="s">
+        <v>93</v>
       </c>
       <c r="O112" s="26"/>
       <c r="P112" s="3" t="s">
@@ -9271,7 +9279,7 @@
         <v>53</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -9328,25 +9336,25 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="7"/>
-      <c r="G113" s="7"/>
-      <c r="H113" s="6"/>
-      <c r="I113" s="6"/>
-      <c r="J113" s="6"/>
-      <c r="K113" s="6"/>
-      <c r="L113" s="6"/>
-      <c r="M113" s="6"/>
+      <c r="F113" s="6"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="5"/>
+      <c r="L113" s="5"/>
+      <c r="M113" s="5"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
-      <c r="P113" s="6">
+      <c r="P113" s="5">
         <f>IF(O110=1,P111, DAY(O111))</f>
         <v>25</v>
       </c>
-      <c r="Q113" s="6">
+      <c r="Q113" s="5">
         <f>IF(O110=1,Q111, MONTH(O111))</f>
         <v>7</v>
       </c>
-      <c r="R113" s="6">
+      <c r="R113" s="5">
         <f>IF(O110=1,R111, YEAR(O111))</f>
         <v>2025</v>
       </c>
@@ -9390,8 +9398,8 @@
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="7"/>
-      <c r="G114" s="7"/>
+      <c r="F114" s="6"/>
+      <c r="G114" s="6"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -9443,8 +9451,8 @@
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="7"/>
-      <c r="G115" s="7"/>
+      <c r="F115" s="6"/>
+      <c r="G115" s="6"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>

--- a/calc de fechas y tiempo.xlsx
+++ b/calc de fechas y tiempo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="96">
   <si>
     <t>Soles por dia</t>
   </si>
@@ -31,6 +31,9 @@
     <t>dias calculados</t>
   </si>
   <si>
+    <t>error en dias</t>
+  </si>
+  <si>
     <t>años</t>
   </si>
   <si>
@@ -44,6 +47,9 @@
   </si>
   <si>
     <t>soles por dia</t>
+  </si>
+  <si>
+    <t>% error</t>
   </si>
   <si>
     <t>dias</t>
@@ -76,16 +82,16 @@
     <t>min en 1 hora</t>
   </si>
   <si>
-    <t>error en dias</t>
-  </si>
-  <si>
     <t>sec en 1 min</t>
   </si>
   <si>
     <t>debería haber vivido</t>
   </si>
   <si>
-    <t>% error</t>
+    <t>Debiere</t>
+  </si>
+  <si>
+    <t>Faltan</t>
   </si>
   <si>
     <t>o Debe</t>
@@ -302,7 +308,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/MM/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -319,17 +325,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color theme="1"/>
       <name val="Comic Sans MS"/>
     </font>
     <font>
       <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
@@ -396,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -409,14 +421,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="4" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
@@ -433,6 +445,9 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
@@ -442,19 +457,25 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -472,7 +493,7 @@
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -700,7 +721,8 @@
     <col customWidth="1" min="1" max="1" width="15.13"/>
     <col customWidth="1" min="2" max="2" width="19.5"/>
     <col customWidth="1" min="12" max="12" width="20.88"/>
-    <col customWidth="1" min="14" max="14" width="19.88"/>
+    <col customWidth="1" min="13" max="13" width="14.75"/>
+    <col customWidth="1" min="14" max="14" width="16.5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -711,13 +733,15 @@
         <v>16.0</v>
       </c>
       <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="3">
-        <f>F16+10*E16 +1</f>
-        <v>43</v>
-      </c>
-      <c r="I1" s="4" t="s">
+        <f>F16+10*E16 </f>
+        <v>42</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="3"/>
@@ -736,34 +760,34 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5" t="s">
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
       <c r="AG1" s="3"/>
       <c r="AH1" s="3"/>
       <c r="AI1" s="3"/>
       <c r="AJ1" s="3"/>
       <c r="AK1" s="3"/>
       <c r="AL1" s="3"/>
-      <c r="AM1" s="5"/>
-      <c r="AN1" s="5"/>
-      <c r="AO1" s="5"/>
-      <c r="AP1" s="5"/>
-      <c r="AQ1" s="5"/>
-      <c r="AR1" s="5"/>
-      <c r="AS1" s="5"/>
-      <c r="AT1" s="5"/>
-      <c r="AU1" s="5"/>
-      <c r="AV1" s="5"/>
-      <c r="AW1" s="5"/>
-      <c r="AX1" s="5"/>
-      <c r="AY1" s="5"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
@@ -773,18 +797,23 @@
         <v>25.0</v>
       </c>
       <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="H2" s="3">
+        <f>H3/365.25</f>
+        <v>42.63107461</v>
+      </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
@@ -793,7 +822,7 @@
       <c r="W2" s="3"/>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
-      <c r="Z2" s="5"/>
+      <c r="Z2" s="6"/>
       <c r="AA2" s="7">
         <f t="shared" ref="AA2:AE2" si="1">U3</f>
         <v>0</v>
@@ -814,7 +843,7 @@
         <f t="shared" si="1"/>
         <v>2</v>
       </c>
-      <c r="AF2" s="5"/>
+      <c r="AF2" s="6"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
       <c r="AI2" s="3"/>
@@ -824,19 +853,19 @@
       </c>
       <c r="AK2" s="3"/>
       <c r="AL2" s="3"/>
-      <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="5"/>
-      <c r="AT2" s="5"/>
-      <c r="AU2" s="5"/>
-      <c r="AV2" s="5"/>
-      <c r="AW2" s="5"/>
-      <c r="AX2" s="5"/>
-      <c r="AY2" s="5"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
     </row>
     <row r="3">
       <c r="A3" s="8" t="s">
@@ -849,23 +878,28 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H20" si="3">A77</f>
-        <v>15601</v>
+        <f>A77</f>
+        <v>15571</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
+      <c r="L3" s="3">
+        <f>C103</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="4"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
       <c r="R3" s="3"/>
       <c r="S3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T3" s="3" t="str">
         <f t="shared" ref="T3:Y3" si="2">A16</f>
@@ -891,13 +925,13 @@
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="Z3" s="5"/>
-      <c r="AA3" s="5"/>
-      <c r="AB3" s="5"/>
-      <c r="AC3" s="5"/>
-      <c r="AD3" s="5"/>
-      <c r="AE3" s="5"/>
-      <c r="AF3" s="5">
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6">
         <f>IF(AE2=3,25,0)</f>
         <v>0</v>
       </c>
@@ -910,57 +944,67 @@
       <c r="AJ3" s="3"/>
       <c r="AK3" s="3"/>
       <c r="AL3" s="3"/>
-      <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-      <c r="AW3" s="5"/>
-      <c r="AX3" s="5"/>
-      <c r="AY3" s="5"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
     </row>
     <row r="4">
       <c r="A4" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="3">
-        <f t="shared" si="3"/>
+      <c r="H4" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="5">
+        <f>B1</f>
         <v>16</v>
       </c>
-      <c r="I4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3"/>
       <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
+      <c r="L4" s="4">
+        <f>abs(L3)*100/(L8)</f>
+        <v>0.006422195106</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3">
+        <f>C104</f>
+        <v>0.006422195106</v>
+      </c>
       <c r="O4" s="3"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
       <c r="R4" s="3"/>
       <c r="S4" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="T4" s="3"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="W4" s="3">
         <v>3.0</v>
@@ -971,28 +1015,28 @@
       <c r="Y4" s="3">
         <v>5.0</v>
       </c>
-      <c r="Z4" s="5"/>
-      <c r="AA4" s="5">
-        <f t="shared" ref="AA4:AE4" si="4">ROUNDDOWN(AA2/2,0)</f>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6">
+        <f t="shared" ref="AA4:AE4" si="3">ROUNDDOWN(AA2/2,0)</f>
         <v>0</v>
       </c>
-      <c r="AB4" s="5">
-        <f t="shared" si="4"/>
+      <c r="AB4" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AC4" s="5">
-        <f t="shared" si="4"/>
+      <c r="AC4" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="5">
-        <f t="shared" si="4"/>
+      <c r="AD4" s="6">
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
-      <c r="AE4" s="5">
-        <f t="shared" si="4"/>
+      <c r="AE4" s="6">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="AF4" s="5">
+      <c r="AF4" s="6">
         <f>IF(AE2=2,25,0)</f>
         <v>25</v>
       </c>
@@ -1002,36 +1046,30 @@
       <c r="AJ4" s="3"/>
       <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
-      <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="5"/>
-      <c r="AT4" s="5"/>
-      <c r="AU4" s="5"/>
-      <c r="AV4" s="5"/>
-      <c r="AW4" s="5"/>
-      <c r="AX4" s="5"/>
-      <c r="AY4" s="5"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
     </row>
     <row r="5">
-      <c r="A5" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="B5" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1982.0</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="H5:H20" si="6">A79</f>
         <v/>
       </c>
       <c r="I5" s="3"/>
@@ -1041,8 +1079,8 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
       <c r="R5" s="3"/>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
@@ -1066,28 +1104,28 @@
         <f>Y4*Y3</f>
         <v>10</v>
       </c>
-      <c r="Z5" s="5"/>
-      <c r="AA5" s="5">
-        <f t="shared" ref="AA5:AE5" si="5">AA2-AA4*2</f>
+      <c r="Z5" s="6"/>
+      <c r="AA5" s="6">
+        <f t="shared" ref="AA5:AE5" si="4">AA2-AA4*2</f>
         <v>0</v>
       </c>
-      <c r="AB5" s="5">
-        <f t="shared" si="5"/>
+      <c r="AB5" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AC5" s="5">
-        <f t="shared" si="5"/>
+      <c r="AC5" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="5"/>
+      <c r="AD5" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AE5" s="5">
-        <f t="shared" si="5"/>
+      <c r="AE5" s="6">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="AF5" s="5">
+      <c r="AF5" s="6">
         <f>IFERROR(__xludf.DUMMYFUNCTION("IF(AE4=1,-25,0)"),-25.0)</f>
         <v>-25</v>
       </c>
@@ -1097,31 +1135,31 @@
       <c r="AJ5" s="3"/>
       <c r="AK5" s="3"/>
       <c r="AL5" s="3"/>
-      <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="5"/>
-      <c r="AT5" s="5"/>
-      <c r="AU5" s="5"/>
-      <c r="AV5" s="5"/>
-      <c r="AW5" s="5"/>
-      <c r="AX5" s="5"/>
-      <c r="AY5" s="5"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="6"/>
+      <c r="AO5" s="6"/>
+      <c r="AP5" s="6"/>
+      <c r="AQ5" s="6"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="6"/>
+      <c r="AT5" s="6"/>
+      <c r="AU5" s="6"/>
+      <c r="AV5" s="6"/>
+      <c r="AW5" s="6"/>
+      <c r="AX5" s="6"/>
+      <c r="AY5" s="6"/>
     </row>
     <row r="6">
       <c r="A6" s="11">
-        <f t="shared" ref="A6:C6" si="6">P107</f>
+        <f t="shared" ref="A6:C6" si="5">P107</f>
         <v>6</v>
       </c>
       <c r="B6" s="11">
-        <f t="shared" si="6"/>
-        <v>11</v>
+        <f t="shared" si="5"/>
+        <v>12</v>
       </c>
       <c r="C6" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>1982</v>
       </c>
       <c r="D6" s="3"/>
@@ -1129,22 +1167,25 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3">
-        <f t="shared" si="3"/>
-        <v>249616</v>
+        <f t="shared" si="6"/>
+        <v>249136</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="J6" s="3">
+        <f>J4*H3</f>
+        <v>249136</v>
+      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="10">
@@ -1168,25 +1209,25 @@
         <v>12</v>
       </c>
       <c r="Y6" s="3"/>
-      <c r="Z6" s="5"/>
-      <c r="AA6" s="5"/>
-      <c r="AB6" s="5">
+      <c r="Z6" s="6"/>
+      <c r="AA6" s="6"/>
+      <c r="AB6" s="6">
         <f t="shared" ref="AB6:AE6" si="7">IF(AA5=1,5,0)</f>
         <v>0</v>
       </c>
-      <c r="AC6" s="5">
+      <c r="AC6" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AD6" s="5">
+      <c r="AD6" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AE6" s="5">
+      <c r="AE6" s="6">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AF6" s="5">
+      <c r="AF6" s="6">
         <f>IF(AE5=1,25,0)</f>
         <v>0</v>
       </c>
@@ -1196,23 +1237,23 @@
       <c r="AJ6" s="3"/>
       <c r="AK6" s="3"/>
       <c r="AL6" s="3"/>
-      <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="5"/>
-      <c r="AT6" s="5"/>
-      <c r="AU6" s="5"/>
-      <c r="AV6" s="5"/>
-      <c r="AW6" s="5"/>
-      <c r="AX6" s="5"/>
-      <c r="AY6" s="5"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="6"/>
+      <c r="AO6" s="6"/>
+      <c r="AP6" s="6"/>
+      <c r="AQ6" s="6"/>
+      <c r="AR6" s="6"/>
+      <c r="AS6" s="6"/>
+      <c r="AT6" s="6"/>
+      <c r="AU6" s="6"/>
+      <c r="AV6" s="6"/>
+      <c r="AW6" s="6"/>
+      <c r="AX6" s="6"/>
+      <c r="AY6" s="6"/>
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1221,20 +1262,23 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
+      <c r="K7" s="4"/>
       <c r="L7" s="3">
+        <f>H3*100/H2</f>
+        <v>36525</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="3">
         <v>1000000.0</v>
       </c>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
       <c r="O7" s="3"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
       <c r="R7" s="3"/>
       <c r="S7" s="10">
         <f>W4*U3</f>
@@ -1258,86 +1302,92 @@
       </c>
       <c r="X7" s="3"/>
       <c r="Y7" s="3"/>
-      <c r="Z7" s="5"/>
-      <c r="AA7" s="5">
+      <c r="Z7" s="6"/>
+      <c r="AA7" s="6">
         <f t="shared" ref="AA7:AE7" si="8">AA4+AA6</f>
         <v>0</v>
       </c>
-      <c r="AB7" s="5">
+      <c r="AB7" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AC7" s="5">
+      <c r="AC7" s="6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="5">
+      <c r="AD7" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="AE7" s="5">
+      <c r="AE7" s="6">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AF7" s="5"/>
+      <c r="AF7" s="6"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
       <c r="AI7" s="3"/>
       <c r="AJ7" s="3"/>
       <c r="AK7" s="3"/>
       <c r="AL7" s="3"/>
-      <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
-      <c r="AT7" s="5"/>
-      <c r="AU7" s="5"/>
-      <c r="AV7" s="5"/>
-      <c r="AW7" s="5"/>
-      <c r="AX7" s="5"/>
-      <c r="AY7" s="5"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="6"/>
+      <c r="AO7" s="6"/>
+      <c r="AP7" s="6"/>
+      <c r="AQ7" s="6"/>
+      <c r="AR7" s="6"/>
+      <c r="AS7" s="6"/>
+      <c r="AT7" s="6"/>
+      <c r="AU7" s="6"/>
+      <c r="AV7" s="6"/>
+      <c r="AW7" s="6"/>
+      <c r="AX7" s="6"/>
+      <c r="AY7" s="6"/>
     </row>
     <row r="8">
       <c r="A8" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>24</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3">
-        <f t="shared" ref="K8:K17" si="10">A102</f>
-        <v>15601</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" ref="J8:J10" si="10">H8</f>
+        <v>24</v>
+      </c>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4">
+        <f>H3</f>
+        <v>15571</v>
+      </c>
+      <c r="M8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="3">
+        <f t="shared" ref="N8:N17" si="11">A102</f>
+        <v>15571</v>
+      </c>
       <c r="O8" s="3"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
       <c r="R8" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" ref="S8:Y8" si="9">SUM(S5:S7)</f>
@@ -1372,86 +1422,87 @@
       <c r="AB8" s="3"/>
       <c r="AC8" s="3"/>
       <c r="AD8" s="3"/>
-      <c r="AE8" s="5"/>
-      <c r="AF8" s="5"/>
+      <c r="AE8" s="6"/>
+      <c r="AF8" s="6"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
       <c r="AI8" s="3"/>
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="5"/>
-      <c r="AT8" s="5"/>
-      <c r="AU8" s="5"/>
-      <c r="AV8" s="5"/>
-      <c r="AW8" s="5"/>
-      <c r="AX8" s="5"/>
-      <c r="AY8" s="5"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="6"/>
+      <c r="AO8" s="6"/>
+      <c r="AP8" s="6"/>
+      <c r="AQ8" s="6"/>
+      <c r="AR8" s="6"/>
+      <c r="AS8" s="6"/>
+      <c r="AT8" s="6"/>
+      <c r="AU8" s="6"/>
+      <c r="AV8" s="6"/>
+      <c r="AW8" s="6"/>
+      <c r="AX8" s="6"/>
+      <c r="AY8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
       <c r="D9" s="3"/>
       <c r="E9" s="1">
-        <v>15598.0</v>
+        <v>15572.0</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="13">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3">
         <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4">
+        <f>H2</f>
+        <v>42.63107461</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="14">
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M9" s="3">
-        <f t="shared" ref="M9:M10" si="14">C103</f>
-        <v>3</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="O9" s="3"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
       <c r="R9" s="3"/>
       <c r="S9" s="8">
-        <f t="shared" ref="S9:X9" si="11">IF(S8&gt;9,RIGHT(S8),S8) +T10</f>
+        <f t="shared" ref="S9:X9" si="12">IF(S8&gt;9,RIGHT(S8),S8) +T10</f>
         <v>0</v>
       </c>
       <c r="T9" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U9" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="V9" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5</v>
       </c>
       <c r="W9" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="X9" s="8">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3</v>
       </c>
       <c r="Y9" s="8" t="str">
@@ -1459,27 +1510,27 @@
         <v>0</v>
       </c>
       <c r="Z9" s="3"/>
-      <c r="AA9" s="5">
-        <f t="shared" ref="AA9:AE9" si="12">ROUNDDOWN(AA7/2,0)</f>
+      <c r="AA9" s="6">
+        <f t="shared" ref="AA9:AE9" si="13">ROUNDDOWN(AA7/2,0)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="5">
-        <f t="shared" si="12"/>
+      <c r="AB9" s="6">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AC9" s="5">
-        <f t="shared" si="12"/>
+      <c r="AC9" s="6">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AD9" s="5">
-        <f t="shared" si="12"/>
+      <c r="AD9" s="6">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="AE9" s="5">
-        <f t="shared" si="12"/>
+      <c r="AE9" s="6">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="AF9" s="5"/>
+      <c r="AF9" s="6"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
       <c r="AI9" s="3"/>
@@ -1501,16 +1552,16 @@
       <c r="AY9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="14">
-        <f t="shared" ref="A10:C10" si="13">P113</f>
+      <c r="A10" s="15">
+        <f t="shared" ref="A10:C10" si="14">P113</f>
         <v>25</v>
       </c>
-      <c r="B10" s="14">
-        <f t="shared" si="13"/>
+      <c r="B10" s="15">
+        <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="C10" s="14">
-        <f t="shared" si="13"/>
+      <c r="C10" s="15">
+        <f t="shared" si="14"/>
         <v>2025</v>
       </c>
       <c r="D10" s="3"/>
@@ -1518,30 +1569,31 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>60</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3">
         <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4">
+        <f>L8</f>
+        <v>15571</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="3">
+        <f t="shared" si="11"/>
         <v>250000</v>
       </c>
-      <c r="L10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="M10" s="3">
-        <f t="shared" si="14"/>
-        <v>0.01922583953</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="O10" s="3"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
       <c r="R10" s="3"/>
       <c r="S10" s="3"/>
       <c r="T10" s="3">
@@ -1569,39 +1621,39 @@
         <v>1</v>
       </c>
       <c r="Z10" s="3"/>
-      <c r="AA10" s="5">
+      <c r="AA10" s="6">
         <f t="shared" ref="AA10:AE10" si="16">AA7-AA9*2</f>
         <v>0</v>
       </c>
-      <c r="AB10" s="5">
+      <c r="AB10" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AC10" s="5">
+      <c r="AC10" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="5">
+      <c r="AD10" s="6">
         <f t="shared" si="16"/>
         <v>0</v>
       </c>
-      <c r="AE10" s="5">
+      <c r="AE10" s="6">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="AF10" s="5">
+      <c r="AF10" s="6">
         <f>IF(AE10=1,50,0)</f>
         <v>50</v>
       </c>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="5"/>
-      <c r="AL10" s="5"/>
-      <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
+      <c r="AJ10" s="6"/>
+      <c r="AK10" s="6"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="6"/>
+      <c r="AO10" s="6"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
@@ -1614,31 +1666,38 @@
       <c r="AY10" s="3"/>
     </row>
     <row r="11">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="3" t="str">
-        <f t="shared" si="3"/>
+      <c r="H11" s="12" t="str">
+        <f t="shared" si="6"/>
         <v>Haber</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3">
-        <f t="shared" si="10"/>
-        <v>234399</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="J11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="K11" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L11" s="3">
+        <f>L10-L8</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="3">
+        <f t="shared" si="11"/>
+        <v>234429</v>
+      </c>
       <c r="O11" s="3"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3">
@@ -1666,33 +1725,33 @@
         <v>0</v>
       </c>
       <c r="Z11" s="3"/>
-      <c r="AA11" s="5"/>
-      <c r="AB11" s="5">
+      <c r="AA11" s="6"/>
+      <c r="AB11" s="6">
         <f t="shared" ref="AB11:AE11" si="18">IF(AA10=1,5,0)</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="5">
+      <c r="AC11" s="6">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AD11" s="5">
+      <c r="AD11" s="6">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AE11" s="5">
+      <c r="AE11" s="6">
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="AF11" s="5"/>
+      <c r="AF11" s="6"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
       <c r="AI11" s="3"/>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="5"/>
-      <c r="AL11" s="5"/>
-      <c r="AM11" s="5"/>
-      <c r="AN11" s="5"/>
-      <c r="AO11" s="5"/>
+      <c r="AJ11" s="6"/>
+      <c r="AK11" s="6"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="6"/>
+      <c r="AN11" s="6"/>
+      <c r="AO11" s="6"/>
       <c r="AP11" s="3"/>
       <c r="AQ11" s="3"/>
       <c r="AR11" s="3"/>
@@ -1706,7 +1765,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B12" s="3">
         <f>C19+D19</f>
@@ -1718,25 +1777,34 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3">
-        <f t="shared" si="3"/>
-        <v>374424</v>
+        <f t="shared" si="6"/>
+        <v>373704</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3">
-        <f t="shared" si="10"/>
-        <v>16.02461381</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+        <v>29</v>
+      </c>
+      <c r="J12" s="3">
+        <f>J8*J6</f>
+        <v>5979264</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" ref="K12:K14" si="21">J12-H12</f>
+        <v>5605560</v>
+      </c>
+      <c r="L12" s="3">
+        <f>L10/L8</f>
+        <v>1</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="11"/>
+        <v>16.05548777</v>
+      </c>
       <c r="O12" s="3"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
       <c r="R12" s="3"/>
       <c r="S12" s="3">
         <f t="shared" ref="S12:X12" si="19">RIGHT(S9)+T11</f>
@@ -1767,38 +1835,38 @@
         <v>0</v>
       </c>
       <c r="Z12" s="3"/>
-      <c r="AA12" s="5">
+      <c r="AA12" s="6">
         <f t="shared" ref="AA12:AE12" si="20">AA9+AA11</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB12" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="5">
+      <c r="AC12" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="5">
+      <c r="AD12" s="6">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AE12" s="5">
+      <c r="AE12" s="6">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="AF12" s="5" t="s">
-        <v>29</v>
+      <c r="AF12" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
       <c r="AI12" s="3"/>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="5"/>
-      <c r="AL12" s="5"/>
-      <c r="AM12" s="5"/>
-      <c r="AN12" s="5"/>
-      <c r="AO12" s="5"/>
+      <c r="AJ12" s="6"/>
+      <c r="AK12" s="6"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="6"/>
+      <c r="AO12" s="6"/>
       <c r="AP12" s="3"/>
       <c r="AQ12" s="3"/>
       <c r="AR12" s="3"/>
@@ -1819,45 +1887,54 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3">
-        <f t="shared" si="3"/>
-        <v>22465440</v>
+        <f t="shared" si="6"/>
+        <v>22422240</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3">
-        <f t="shared" si="10"/>
-        <v>6.2404</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" ref="J13:J14" si="23">J12*J9</f>
+        <v>358755840</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="21"/>
+        <v>336333600</v>
+      </c>
+      <c r="L13" s="3">
+        <f>L8*100/L10</f>
+        <v>100</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="3">
+        <f t="shared" si="11"/>
+        <v>6.2284</v>
+      </c>
       <c r="O13" s="3"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
       <c r="T13" s="3">
-        <f t="shared" ref="T13:X13" si="21">IF(T12&gt;9,LEFT(T12),0)</f>
+        <f t="shared" ref="T13:X13" si="22">IF(T12&gt;9,LEFT(T12),0)</f>
         <v>0</v>
       </c>
       <c r="U13" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="V13" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="W13" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="X13" s="3">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y13" s="3">
@@ -1865,23 +1942,23 @@
         <v>0</v>
       </c>
       <c r="Z13" s="3"/>
-      <c r="AA13" s="5"/>
-      <c r="AB13" s="5"/>
-      <c r="AC13" s="5"/>
-      <c r="AD13" s="5"/>
-      <c r="AE13" s="5"/>
-      <c r="AF13" s="5" t="s">
-        <v>32</v>
+      <c r="AA13" s="6"/>
+      <c r="AB13" s="6"/>
+      <c r="AC13" s="6"/>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
       <c r="AI13" s="3"/>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="5"/>
-      <c r="AL13" s="5"/>
-      <c r="AM13" s="5"/>
-      <c r="AN13" s="5"/>
-      <c r="AO13" s="5"/>
+      <c r="AJ13" s="6"/>
+      <c r="AK13" s="6"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="6"/>
+      <c r="AN13" s="6"/>
+      <c r="AO13" s="6"/>
       <c r="AP13" s="3"/>
       <c r="AQ13" s="3"/>
       <c r="AR13" s="3"/>
@@ -1900,82 +1977,88 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
-        <f t="shared" si="3"/>
-        <v>1347926400</v>
+        <f t="shared" si="6"/>
+        <v>1345334400</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3">
-        <f t="shared" si="10"/>
-        <v>93.7596</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3" t="str">
-        <f>O14</f>
-        <v/>
+        <v>36</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="23"/>
+        <v>21525350400</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="21"/>
+        <v>20180016000</v>
+      </c>
+      <c r="L14" s="3">
+        <f>100-L13</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N14" s="3">
+        <f t="shared" si="11"/>
+        <v>93.7716</v>
       </c>
       <c r="O14" s="3"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
       <c r="R14" s="3"/>
       <c r="S14" s="3">
-        <f t="shared" ref="S14:Y14" si="22">RIGHT(S12)+T15</f>
+        <f t="shared" ref="S14:Y14" si="24">RIGHT(S12)+T15</f>
         <v>0</v>
       </c>
       <c r="T14" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="U14" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
       <c r="V14" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="W14" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="X14" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="Y14" s="3">
-        <f t="shared" si="22"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Z14" s="3"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="5"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="5"/>
-      <c r="AE14" s="15">
+      <c r="AA14" s="6"/>
+      <c r="AB14" s="6"/>
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="18">
         <f>AI3</f>
         <v>10.5</v>
       </c>
-      <c r="AF14" s="5"/>
+      <c r="AF14" s="6"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI14" s="3"/>
-      <c r="AJ14" s="5"/>
-      <c r="AK14" s="5"/>
-      <c r="AL14" s="5"/>
-      <c r="AM14" s="5"/>
-      <c r="AN14" s="5"/>
-      <c r="AO14" s="5"/>
+      <c r="AJ14" s="6"/>
+      <c r="AK14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
       <c r="AP14" s="3"/>
       <c r="AQ14" s="3"/>
       <c r="AR14" s="3"/>
@@ -1989,7 +2072,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1998,43 +2081,46 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
-      <c r="K15" s="3">
-        <f t="shared" si="10"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="3">
+        <f>100-L9</f>
+        <v>57.36892539</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="3">
+        <f t="shared" si="11"/>
         <v>75</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
       <c r="O15" s="3"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
       <c r="T15" s="3">
-        <f t="shared" ref="T15:X15" si="23">IF(T14&gt;9,LEFT(T14),0)</f>
+        <f t="shared" ref="T15:X15" si="25">IF(T14&gt;9,LEFT(T14),0)</f>
         <v>0</v>
       </c>
       <c r="U15" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V15" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W15" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X15" s="3">
-        <f t="shared" si="23"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y15" s="3">
@@ -2042,14 +2128,14 @@
         <v>0</v>
       </c>
       <c r="Z15" s="3"/>
-      <c r="AA15" s="5"/>
-      <c r="AB15" s="5"/>
-      <c r="AC15" s="5"/>
-      <c r="AD15" s="5"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
+      <c r="AD15" s="6"/>
       <c r="AE15" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF15" s="5">
+        <v>41</v>
+      </c>
+      <c r="AF15" s="6">
         <f>SUM(AF2:AF13)</f>
         <v>50</v>
       </c>
@@ -2059,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="3"/>
-      <c r="AJ15" s="5"/>
+      <c r="AJ15" s="6"/>
       <c r="AK15" s="3"/>
       <c r="AL15" s="3"/>
       <c r="AM15" s="3"/>
@@ -2070,11 +2156,11 @@
       <c r="AR15" s="3"/>
       <c r="AS15" s="3"/>
       <c r="AT15" s="3"/>
-      <c r="AU15" s="5"/>
-      <c r="AV15" s="5"/>
-      <c r="AW15" s="5"/>
-      <c r="AX15" s="5"/>
-      <c r="AY15" s="5"/>
+      <c r="AU15" s="6"/>
+      <c r="AV15" s="6"/>
+      <c r="AW15" s="6"/>
+      <c r="AX15" s="6"/>
+      <c r="AY15" s="6"/>
     </row>
     <row r="16">
       <c r="A16" s="3"/>
@@ -2100,52 +2186,61 @@
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3">
-        <f t="shared" si="3"/>
-        <v>15601</v>
+        <f t="shared" si="6"/>
+        <v>15571</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3">
-        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="J16" s="3">
+        <f>J6</f>
+        <v>249136</v>
+      </c>
+      <c r="K16" s="4">
+        <f t="shared" ref="K16:K20" si="27">J16-H16</f>
+        <v>233565</v>
+      </c>
+      <c r="L16" s="3">
+        <f>L7-L8</f>
+        <v>20954</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="11"/>
         <v>750000</v>
       </c>
-      <c r="L16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3">
-        <f t="shared" ref="S16:Y16" si="24">RIGHT(S14)+T17</f>
+        <f t="shared" ref="S16:Y16" si="26">RIGHT(S14)+T17</f>
         <v>0</v>
       </c>
       <c r="T16" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="U16" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
       <c r="V16" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>5</v>
       </c>
       <c r="W16" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="X16" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>3</v>
       </c>
       <c r="Y16" s="3">
-        <f t="shared" si="24"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Z16" s="3"/>
@@ -2158,7 +2253,7 @@
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
       <c r="AI16" s="3"/>
-      <c r="AJ16" s="5"/>
+      <c r="AJ16" s="6"/>
       <c r="AK16" s="3"/>
       <c r="AL16" s="3"/>
       <c r="AM16" s="3"/>
@@ -2169,11 +2264,11 @@
       <c r="AR16" s="3"/>
       <c r="AS16" s="3"/>
       <c r="AT16" s="3"/>
-      <c r="AU16" s="5"/>
-      <c r="AV16" s="5"/>
-      <c r="AW16" s="5"/>
-      <c r="AX16" s="5"/>
-      <c r="AY16" s="5"/>
+      <c r="AU16" s="6"/>
+      <c r="AV16" s="6"/>
+      <c r="AW16" s="6"/>
+      <c r="AX16" s="6"/>
+      <c r="AY16" s="6"/>
     </row>
     <row r="17">
       <c r="A17" s="3"/>
@@ -2182,49 +2277,58 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
-        <f t="shared" si="3"/>
-        <v>312020</v>
+        <f t="shared" si="6"/>
+        <v>311420</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3">
-        <f t="shared" si="10"/>
-        <v>76.5601</v>
-      </c>
-      <c r="L17" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M17" s="3"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="J17" s="3">
+        <f>J16*20</f>
+        <v>4982720</v>
+      </c>
+      <c r="K17" s="4">
+        <f t="shared" si="27"/>
+        <v>4671300</v>
+      </c>
+      <c r="L17" s="3">
+        <f>(L16 + L8 )*100/L7</f>
+        <v>100</v>
+      </c>
+      <c r="M17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17" s="3">
+        <f t="shared" si="11"/>
+        <v>76.5571</v>
+      </c>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
       <c r="R17" s="3"/>
       <c r="S17" s="3"/>
       <c r="T17" s="3">
-        <f t="shared" ref="T17:X17" si="25">IF(T16&gt;9,LEFT(T16),0)</f>
+        <f t="shared" ref="T17:X17" si="28">IF(T16&gt;9,LEFT(T16),0)</f>
         <v>0</v>
       </c>
       <c r="U17" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="V17" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="W17" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y17" s="3">
@@ -2252,68 +2356,74 @@
       <c r="AR17" s="3"/>
       <c r="AS17" s="3"/>
       <c r="AT17" s="3"/>
-      <c r="AU17" s="5"/>
-      <c r="AV17" s="5"/>
-      <c r="AW17" s="5"/>
-      <c r="AX17" s="5"/>
-      <c r="AY17" s="5"/>
+      <c r="AU17" s="6"/>
+      <c r="AV17" s="6"/>
+      <c r="AW17" s="6"/>
+      <c r="AX17" s="6"/>
+      <c r="AY17" s="6"/>
     </row>
     <row r="18">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
-        <f t="shared" si="3"/>
-        <v>31202000</v>
+        <f t="shared" si="6"/>
+        <v>31142000</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="J18" s="3">
+        <f t="shared" ref="J18:J19" si="30">J17*100</f>
+        <v>498272000</v>
+      </c>
+      <c r="K18" s="4">
+        <f t="shared" si="27"/>
+        <v>467130000</v>
+      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="3"/>
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
       <c r="R18" s="3"/>
       <c r="S18" s="3">
-        <f t="shared" ref="S18:Y18" si="26">RIGHT(S16)+T19</f>
+        <f t="shared" ref="S18:Y18" si="29">RIGHT(S16)+T19</f>
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="U18" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
       <c r="V18" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>5</v>
       </c>
       <c r="W18" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="X18" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>3</v>
       </c>
       <c r="Y18" s="3">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z18" s="3"/>
@@ -2326,7 +2436,7 @@
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
       <c r="AI18" s="3"/>
-      <c r="AJ18" s="5"/>
+      <c r="AJ18" s="6"/>
       <c r="AK18" s="3"/>
       <c r="AL18" s="3"/>
       <c r="AM18" s="3"/>
@@ -2337,11 +2447,11 @@
       <c r="AR18" s="3"/>
       <c r="AS18" s="3"/>
       <c r="AT18" s="3"/>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="5"/>
-      <c r="AY18" s="5"/>
+      <c r="AU18" s="6"/>
+      <c r="AV18" s="6"/>
+      <c r="AW18" s="6"/>
+      <c r="AX18" s="6"/>
+      <c r="AY18" s="6"/>
     </row>
     <row r="19">
       <c r="A19" s="3"/>
@@ -2358,40 +2468,46 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3">
-        <f t="shared" si="3"/>
-        <v>3120200000</v>
+        <f t="shared" si="6"/>
+        <v>3114200000</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="30"/>
+        <v>49827200000</v>
+      </c>
+      <c r="K19" s="4">
+        <f t="shared" si="27"/>
+        <v>46713000000</v>
+      </c>
+      <c r="L19" s="4"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3">
-        <f t="shared" ref="T19:X19" si="27">IF(T18&gt;9,LEFT(T18),0)</f>
+        <f t="shared" ref="T19:X19" si="31">IF(T18&gt;9,LEFT(T18),0)</f>
         <v>0</v>
       </c>
       <c r="U19" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V19" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="W19" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="X19" s="3">
-        <f t="shared" si="27"/>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="Y19" s="3">
@@ -2408,26 +2524,26 @@
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
       <c r="AI19" s="3"/>
-      <c r="AJ19" s="5"/>
+      <c r="AJ19" s="6"/>
       <c r="AK19" s="3"/>
       <c r="AL19" s="3"/>
       <c r="AM19" s="3"/>
       <c r="AN19" s="3"/>
       <c r="AO19" s="3"/>
-      <c r="AP19" s="5"/>
-      <c r="AQ19" s="5"/>
-      <c r="AR19" s="5"/>
-      <c r="AS19" s="5"/>
-      <c r="AT19" s="5"/>
-      <c r="AU19" s="5"/>
-      <c r="AV19" s="5"/>
-      <c r="AW19" s="5"/>
-      <c r="AX19" s="5"/>
-      <c r="AY19" s="5"/>
+      <c r="AP19" s="6"/>
+      <c r="AQ19" s="6"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="6"/>
+      <c r="AT19" s="6"/>
+      <c r="AU19" s="6"/>
+      <c r="AV19" s="6"/>
+      <c r="AW19" s="6"/>
+      <c r="AX19" s="6"/>
+      <c r="AY19" s="6"/>
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2436,54 +2552,63 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3">
-        <f t="shared" si="3"/>
-        <v>792897882.4</v>
+        <f t="shared" si="6"/>
+        <v>791373176.5</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3">
+        <v>53</v>
+      </c>
+      <c r="J20" s="5">
+        <f>J14*E94</f>
+        <v>12661970824</v>
+      </c>
+      <c r="K20" s="4">
+        <f t="shared" si="27"/>
+        <v>11870597647</v>
+      </c>
+      <c r="L20" s="4">
+        <f>L17+L4</f>
+        <v>100.0064222</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="N20" s="3">
         <f>D111</f>
-        <v>76.57932584</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+        <v>76.5635222</v>
+      </c>
       <c r="O20" s="3"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
       <c r="R20" s="3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="S20" s="9">
-        <f t="shared" ref="S20:Y20" si="28">RIGHT(S18)+T21</f>
+        <f t="shared" ref="S20:Y20" si="32">RIGHT(S18)+T21</f>
         <v>0</v>
       </c>
       <c r="T20" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="U20" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="V20" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>5</v>
       </c>
       <c r="W20" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="X20" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>3</v>
       </c>
       <c r="Y20" s="9">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="Z20" s="3"/>
@@ -2492,14 +2617,18 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
       <c r="AI20" s="3"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
       <c r="AP20" s="3"/>
@@ -2515,7 +2644,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2536,23 +2665,23 @@
       <c r="R21" s="3"/>
       <c r="S21" s="3"/>
       <c r="T21" s="3">
-        <f t="shared" ref="T21:X21" si="29">IF(T20&gt;9,LEFT(T20),0)</f>
+        <f t="shared" ref="T21:X21" si="33">IF(T20&gt;9,LEFT(T20),0)</f>
         <v>0</v>
       </c>
       <c r="U21" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="V21" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W21" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X21" s="3">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Y21" s="3">
@@ -2564,11 +2693,11 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AE21" s="3">
         <f>Q107</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF21" s="3">
         <f>P107</f>
@@ -2577,13 +2706,17 @@
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
       <c r="AI21" s="3"/>
+      <c r="AJ21" s="4"/>
+      <c r="AK21" s="4"/>
+      <c r="AL21" s="4"/>
+      <c r="AM21" s="4"/>
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="AQ21" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
@@ -2597,23 +2730,23 @@
     <row r="22">
       <c r="A22" s="3"/>
       <c r="B22" s="3">
-        <f t="shared" ref="B22:F22" si="30">W106</f>
+        <f t="shared" ref="B22:F22" si="34">W106</f>
         <v>0</v>
       </c>
       <c r="C22" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="E22" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>8</v>
       </c>
       <c r="F22" s="3" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="34"/>
         <v>2</v>
       </c>
       <c r="G22" s="3"/>
@@ -2639,7 +2772,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
@@ -2647,15 +2780,19 @@
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
       <c r="AI22" s="3"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AP22" s="5">
+        <v>59</v>
+      </c>
+      <c r="AP22" s="6">
         <f>Q113</f>
         <v>7</v>
       </c>
-      <c r="AQ22" s="5">
+      <c r="AQ22" s="6">
         <f>P113</f>
         <v>25</v>
       </c>
@@ -2670,7 +2807,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2705,7 +2842,7 @@
       <c r="AD23" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE23" s="16">
+      <c r="AE23" s="19">
         <v>1.0</v>
       </c>
       <c r="AF23" s="3">
@@ -2713,29 +2850,30 @@
         <v>1</v>
       </c>
       <c r="AG23" s="10">
-        <f t="shared" ref="AG23:AG34" si="32">AD23*AF23</f>
+        <f t="shared" ref="AG23:AG34" si="36">AD23*AF23</f>
         <v>3</v>
       </c>
       <c r="AH23" s="10">
-        <f t="shared" ref="AH23:AH34" si="33">AE23*AF23</f>
+        <f t="shared" ref="AH23:AH34" si="37">AE23*AF23</f>
         <v>1</v>
       </c>
       <c r="AI23" s="3"/>
       <c r="AJ23" s="3">
-        <f t="shared" ref="AJ23:AJ33" si="34">IF(AND(AF24=0, AF23=1), 1, 0)
+        <f t="shared" ref="AJ23:AJ33" si="38">IF(AND(AF24=0, AF23=1), 1, 0)
 </f>
         <v>0</v>
       </c>
       <c r="AK23" s="3">
-        <f t="shared" ref="AK23:AK34" si="35">IF(AJ23=1,AG23,0)</f>
+        <f t="shared" ref="AK23:AK34" si="39">IF(AJ23=1,AG23,0)</f>
         <v>0</v>
       </c>
       <c r="AL23" s="3">
-        <f t="shared" ref="AL23:AL34" si="36">IF(AJ23=1,AH23,0)</f>
+        <f t="shared" ref="AL23:AL34" si="40">IF(AJ23=1,AH23,0)</f>
         <v>0</v>
       </c>
+      <c r="AM23" s="4"/>
       <c r="AN23" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
@@ -2752,23 +2890,23 @@
     <row r="24">
       <c r="A24" s="3"/>
       <c r="B24" s="3">
-        <f t="shared" ref="B24:F24" si="31">W112</f>
+        <f t="shared" ref="B24:F24" si="35">W112</f>
         <v>0</v>
       </c>
       <c r="C24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="E24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>2</v>
       </c>
       <c r="F24" s="3" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="35"/>
         <v>5</v>
       </c>
       <c r="G24" s="3"/>
@@ -2799,7 +2937,7 @@
       <c r="AD24" s="10">
         <v>2.0</v>
       </c>
-      <c r="AE24" s="16">
+      <c r="AE24" s="19">
         <v>8.0</v>
       </c>
       <c r="AF24" s="3">
@@ -2807,33 +2945,34 @@
         <v>1</v>
       </c>
       <c r="AG24" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="AH24" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>8</v>
       </c>
       <c r="AI24" s="3"/>
       <c r="AJ24" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK24" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AL24" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
+      <c r="AM24" s="4"/>
       <c r="AN24" s="3">
         <v>1.0</v>
       </c>
       <c r="AO24" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP24" s="16">
+      <c r="AP24" s="19">
         <v>1.0</v>
       </c>
       <c r="AQ24" s="3">
@@ -2841,25 +2980,25 @@
         <v>1</v>
       </c>
       <c r="AR24" s="10">
-        <f t="shared" ref="AR24:AR35" si="37">AO24*AQ24</f>
+        <f t="shared" ref="AR24:AR35" si="41">AO24*AQ24</f>
         <v>3</v>
       </c>
       <c r="AS24" s="10">
-        <f t="shared" ref="AS24:AS35" si="38">AP24*AQ24</f>
+        <f t="shared" ref="AS24:AS35" si="42">AP24*AQ24</f>
         <v>1</v>
       </c>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3">
-        <f t="shared" ref="AU24:AU34" si="39">IF(AND(AQ25=0, AQ24=1), 1, 0)
+        <f t="shared" ref="AU24:AU34" si="43">IF(AND(AQ25=0, AQ24=1), 1, 0)
 </f>
         <v>0</v>
       </c>
       <c r="AV24" s="3">
-        <f t="shared" ref="AV24:AV35" si="40">IF(AU24=1,AR24,0)</f>
+        <f t="shared" ref="AV24:AV35" si="44">IF(AU24=1,AR24,0)</f>
         <v>0</v>
       </c>
       <c r="AW24" s="3">
-        <f t="shared" ref="AW24:AW35" si="41">IF(AU24=1,AS24,0)</f>
+        <f t="shared" ref="AW24:AW35" si="45">IF(AU24=1,AS24,0)</f>
         <v>0</v>
       </c>
       <c r="AX24" s="3"/>
@@ -2900,7 +3039,7 @@
       <c r="AD25" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE25" s="16">
+      <c r="AE25" s="19">
         <v>1.0</v>
       </c>
       <c r="AF25" s="3">
@@ -2908,33 +3047,34 @@
         <v>1</v>
       </c>
       <c r="AG25" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AH25" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AI25" s="3"/>
       <c r="AJ25" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK25" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AL25" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
+      <c r="AM25" s="4"/>
       <c r="AN25" s="3">
         <v>2.0</v>
       </c>
       <c r="AO25" s="10">
         <v>2.0</v>
       </c>
-      <c r="AP25" s="16">
+      <c r="AP25" s="19">
         <f>IF(AH15=1,9,8)</f>
         <v>8</v>
       </c>
@@ -2943,24 +3083,24 @@
         <v>1</v>
       </c>
       <c r="AR25" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>2</v>
       </c>
       <c r="AS25" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>8</v>
       </c>
       <c r="AT25" s="3"/>
       <c r="AU25" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AV25" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW25" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX25" s="3"/>
@@ -2968,26 +3108,26 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B26" s="3">
-        <f t="shared" ref="B26:F26" si="42">B24-B22</f>
+        <f t="shared" ref="B26:F26" si="46">B24-B22</f>
         <v>0</v>
       </c>
       <c r="C26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>1</v>
       </c>
       <c r="D26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-9</v>
       </c>
       <c r="E26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>-6</v>
       </c>
       <c r="F26" s="3">
-        <f t="shared" si="42"/>
+        <f t="shared" si="46"/>
         <v>3</v>
       </c>
       <c r="G26" s="3"/>
@@ -3002,31 +3142,31 @@
       <c r="P26" s="3"/>
       <c r="Q26" s="3"/>
       <c r="R26" s="3">
-        <f t="shared" ref="R26:X26" si="43">S20</f>
+        <f t="shared" ref="R26:X26" si="47">S20</f>
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>1</v>
       </c>
       <c r="U26" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="V26" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="W26" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>3</v>
       </c>
       <c r="X26" s="3">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y26" s="3"/>
@@ -3039,7 +3179,7 @@
       <c r="AD26" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE26" s="16">
+      <c r="AE26" s="19">
         <v>0.0</v>
       </c>
       <c r="AF26" s="3">
@@ -3047,33 +3187,34 @@
         <v>1</v>
       </c>
       <c r="AG26" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AH26" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AI26" s="3"/>
       <c r="AJ26" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK26" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AL26" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
+      <c r="AM26" s="4"/>
       <c r="AN26" s="3">
         <v>3.0</v>
       </c>
       <c r="AO26" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP26" s="16">
+      <c r="AP26" s="19">
         <v>1.0</v>
       </c>
       <c r="AQ26" s="3">
@@ -3081,24 +3222,24 @@
         <v>1</v>
       </c>
       <c r="AR26" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="AS26" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AV26" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW26" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX26" s="3"/>
@@ -3106,26 +3247,26 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B27" s="8">
-        <f t="shared" ref="B27:F27" si="44">abs(B26)</f>
+        <f t="shared" ref="B27:F27" si="48">abs(B26)</f>
         <v>0</v>
       </c>
       <c r="C27" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>1</v>
       </c>
       <c r="D27" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>9</v>
       </c>
       <c r="E27" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>6</v>
       </c>
       <c r="F27" s="8">
-        <f t="shared" si="44"/>
+        <f t="shared" si="48"/>
         <v>3</v>
       </c>
       <c r="G27" s="3"/>
@@ -3140,27 +3281,27 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="S27" s="3"/>
-      <c r="T27" s="17">
-        <f t="shared" ref="T27:X27" si="45">AA12</f>
+      <c r="T27" s="20">
+        <f t="shared" ref="T27:X27" si="49">AA12</f>
         <v>0</v>
       </c>
-      <c r="U27" s="17">
-        <f t="shared" si="45"/>
+      <c r="U27" s="20">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="V27" s="17">
-        <f t="shared" si="45"/>
+      <c r="V27" s="20">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="W27" s="17">
-        <f t="shared" si="45"/>
+      <c r="W27" s="20">
+        <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="X27" s="17">
-        <f t="shared" si="45"/>
+      <c r="X27" s="20">
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y27" s="3"/>
@@ -3173,7 +3314,7 @@
       <c r="AD27" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE27" s="16">
+      <c r="AE27" s="19">
         <v>1.0</v>
       </c>
       <c r="AF27" s="3">
@@ -3181,33 +3322,34 @@
         <v>1</v>
       </c>
       <c r="AG27" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AH27" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AI27" s="3"/>
       <c r="AJ27" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK27" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AL27" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
+      <c r="AM27" s="4"/>
       <c r="AN27" s="3">
         <v>4.0</v>
       </c>
       <c r="AO27" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP27" s="16">
+      <c r="AP27" s="19">
         <v>0.0</v>
       </c>
       <c r="AQ27" s="3">
@@ -3215,24 +3357,24 @@
         <v>1</v>
       </c>
       <c r="AR27" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="AS27" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AT27" s="3"/>
       <c r="AU27" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AV27" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW27" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX27" s="3"/>
@@ -3240,26 +3382,26 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="3">
-        <f t="shared" ref="B28:F28" si="46">IF(B26&gt;9,LEFT(B26),0)</f>
+        <f t="shared" ref="B28:F28" si="50">IF(B26&gt;9,LEFT(B26),0)</f>
         <v>0</v>
       </c>
       <c r="C28" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="D28" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="E28" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="G28" s="3"/>
@@ -3275,23 +3417,23 @@
       <c r="Q28" s="3"/>
       <c r="R28" s="3"/>
       <c r="S28" s="9">
-        <f t="shared" ref="S28:W28" si="47">IF((S27+S26+S29)&gt;9,RIGHT(S26+S27+S29),S26+S27+S29)</f>
+        <f t="shared" ref="S28:W28" si="51">IF((S27+S26+S29)&gt;9,RIGHT(S26+S27+S29),S26+S27+S29)</f>
         <v>0</v>
       </c>
       <c r="T28" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="U28" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>5</v>
       </c>
       <c r="V28" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>3</v>
       </c>
       <c r="W28" s="7">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>4</v>
       </c>
       <c r="X28" s="7">
@@ -3308,7 +3450,7 @@
       <c r="AD28" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE28" s="16">
+      <c r="AE28" s="19">
         <v>0.0</v>
       </c>
       <c r="AF28" s="3">
@@ -3316,33 +3458,34 @@
         <v>1</v>
       </c>
       <c r="AG28" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AH28" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AI28" s="3"/>
       <c r="AJ28" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK28" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AL28" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
+      <c r="AM28" s="4"/>
       <c r="AN28" s="3">
         <v>5.0</v>
       </c>
       <c r="AO28" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP28" s="16">
+      <c r="AP28" s="19">
         <v>1.0</v>
       </c>
       <c r="AQ28" s="3">
@@ -3350,24 +3493,24 @@
         <v>1</v>
       </c>
       <c r="AR28" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="AS28" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AT28" s="3"/>
       <c r="AU28" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AV28" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW28" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX28" s="3"/>
@@ -3393,23 +3536,23 @@
       <c r="Q29" s="3"/>
       <c r="R29" s="3"/>
       <c r="S29" s="3">
-        <f t="shared" ref="S29:W29" si="48">IF((T27+T26)&gt;9,1,0)</f>
+        <f t="shared" ref="S29:W29" si="52">IF((T27+T26)&gt;9,1,0)</f>
         <v>0</v>
       </c>
       <c r="T29" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="U29" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="V29" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="W29" s="3">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X29" s="3">
@@ -3426,7 +3569,7 @@
       <c r="AD29" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE29" s="16">
+      <c r="AE29" s="19">
         <v>1.0</v>
       </c>
       <c r="AF29" s="3">
@@ -3434,33 +3577,34 @@
         <v>1</v>
       </c>
       <c r="AG29" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AH29" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AI29" s="3"/>
       <c r="AJ29" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK29" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AL29" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
+      <c r="AM29" s="4"/>
       <c r="AN29" s="3">
         <v>6.0</v>
       </c>
       <c r="AO29" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP29" s="16">
+      <c r="AP29" s="19">
         <v>0.0</v>
       </c>
       <c r="AQ29" s="3">
@@ -3468,24 +3612,24 @@
         <v>1</v>
       </c>
       <c r="AR29" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="AS29" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AT29" s="3"/>
       <c r="AU29" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AV29" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW29" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX29" s="3"/>
@@ -3534,33 +3678,34 @@
         <v>1</v>
       </c>
       <c r="AG30" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AH30" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AI30" s="3"/>
       <c r="AJ30" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK30" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AL30" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
+      <c r="AM30" s="4"/>
       <c r="AN30" s="3">
         <v>7.0</v>
       </c>
       <c r="AO30" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP30" s="16">
+      <c r="AP30" s="19">
         <v>1.0</v>
       </c>
       <c r="AQ30" s="3">
@@ -3568,24 +3713,24 @@
         <v>1</v>
       </c>
       <c r="AR30" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>3</v>
       </c>
       <c r="AS30" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>1</v>
       </c>
       <c r="AT30" s="3"/>
       <c r="AU30" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>1</v>
       </c>
       <c r="AV30" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3</v>
       </c>
       <c r="AW30" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>1</v>
       </c>
       <c r="AX30" s="3"/>
@@ -3593,7 +3738,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3636,26 +3781,27 @@
         <v>1</v>
       </c>
       <c r="AG31" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AH31" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AI31" s="3"/>
       <c r="AJ31" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK31" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AL31" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
+      <c r="AM31" s="4"/>
       <c r="AN31" s="3">
         <v>8.0</v>
       </c>
@@ -3670,24 +3816,24 @@
         <v>0</v>
       </c>
       <c r="AR31" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AS31" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AT31" s="3"/>
       <c r="AU31" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AV31" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW31" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX31" s="3"/>
@@ -3695,7 +3841,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3730,7 +3876,7 @@
       <c r="AD32" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE32" s="16">
+      <c r="AE32" s="19">
         <v>1.0</v>
       </c>
       <c r="AF32" s="3">
@@ -3738,26 +3884,27 @@
         <v>1</v>
       </c>
       <c r="AG32" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AH32" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="AI32" s="3"/>
       <c r="AJ32" s="3">
-        <f t="shared" si="34"/>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="AK32" s="3">
-        <f t="shared" si="35"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="AL32" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
+      <c r="AM32" s="4"/>
       <c r="AN32" s="3">
         <v>9.0</v>
       </c>
@@ -3772,24 +3919,24 @@
         <v>0</v>
       </c>
       <c r="AR32" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AS32" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AT32" s="3"/>
       <c r="AU32" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AV32" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW32" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX32" s="3"/>
@@ -3798,23 +3945,23 @@
     <row r="33">
       <c r="A33" s="3"/>
       <c r="B33" s="3">
-        <f t="shared" ref="B33:F33" si="49">W106</f>
+        <f t="shared" ref="B33:F33" si="53">W106</f>
         <v>0</v>
       </c>
       <c r="C33" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>9</v>
       </c>
       <c r="E33" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>8</v>
       </c>
       <c r="F33" s="3" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="53"/>
         <v>2</v>
       </c>
       <c r="G33" s="3"/>
@@ -3853,33 +4000,34 @@
         <v>1</v>
       </c>
       <c r="AG33" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="AH33" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="AI33" s="3"/>
       <c r="AJ33" s="3">
-        <f t="shared" si="34"/>
-        <v>1</v>
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
       <c r="AK33" s="3">
-        <f t="shared" si="35"/>
-        <v>3</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="AL33" s="3">
-        <f t="shared" si="36"/>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
+      <c r="AM33" s="4"/>
       <c r="AN33" s="3">
         <v>10.0</v>
       </c>
       <c r="AO33" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP33" s="16">
+      <c r="AP33" s="19">
         <v>1.0</v>
       </c>
       <c r="AQ33" s="3">
@@ -3887,24 +4035,24 @@
         <v>0</v>
       </c>
       <c r="AR33" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AS33" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AT33" s="3"/>
       <c r="AU33" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AV33" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW33" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX33" s="3"/>
@@ -3912,7 +4060,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3952,30 +4100,31 @@
       </c>
       <c r="AF34" s="3">
         <f>IF(AE21&gt;=AC34 ,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" s="10">
-        <f t="shared" si="32"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>3</v>
       </c>
       <c r="AH34" s="10">
-        <f t="shared" si="33"/>
-        <v>0</v>
+        <f t="shared" si="37"/>
+        <v>1</v>
       </c>
       <c r="AI34" s="3"/>
       <c r="AJ34" s="3">
         <f>IF(AND(AF34=1), 1, 0)
 </f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK34" s="3">
-        <f t="shared" si="35"/>
-        <v>0</v>
+        <f t="shared" si="39"/>
+        <v>3</v>
       </c>
       <c r="AL34" s="3">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="40"/>
+        <v>1</v>
+      </c>
+      <c r="AM34" s="4"/>
       <c r="AN34" s="3">
         <v>11.0</v>
       </c>
@@ -3990,24 +4139,24 @@
         <v>0</v>
       </c>
       <c r="AR34" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AS34" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AT34" s="3"/>
       <c r="AU34" s="3">
-        <f t="shared" si="39"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="AV34" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW34" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX34" s="3"/>
@@ -4016,23 +4165,23 @@
     <row r="35">
       <c r="A35" s="3"/>
       <c r="B35" s="3">
-        <f t="shared" ref="B35:F35" si="50">W112</f>
+        <f t="shared" ref="B35:F35" si="54">W112</f>
         <v>0</v>
       </c>
       <c r="C35" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="E35" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>2</v>
       </c>
       <c r="F35" s="3" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" si="54"/>
         <v>5</v>
       </c>
       <c r="G35" s="3"/>
@@ -4058,8 +4207,8 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
-      <c r="AD35" s="18" t="s">
-        <v>19</v>
+      <c r="AD35" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
@@ -4069,6 +4218,7 @@
       <c r="AJ35" s="3"/>
       <c r="AK35" s="3"/>
       <c r="AL35" s="3"/>
+      <c r="AM35" s="4"/>
       <c r="AN35" s="3">
         <v>12.0</v>
       </c>
@@ -4083,11 +4233,11 @@
         <v>0</v>
       </c>
       <c r="AR35" s="10">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="AS35" s="10">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AT35" s="3"/>
@@ -4097,11 +4247,11 @@
         <v>0</v>
       </c>
       <c r="AV35" s="3">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="AW35" s="3">
-        <f t="shared" si="41"/>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="AX35" s="3"/>
@@ -4138,31 +4288,32 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-      <c r="AE36" s="18" t="s">
-        <v>19</v>
+      <c r="AE36" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="AF36" s="3"/>
-      <c r="AG36" s="19">
-        <f t="shared" ref="AG36:AH36" si="51">SUM(AG23:AG34)</f>
-        <v>32</v>
-      </c>
-      <c r="AH36" s="19">
-        <f t="shared" si="51"/>
-        <v>14</v>
+      <c r="AG36" s="22">
+        <f t="shared" ref="AG36:AH36" si="55">SUM(AG23:AG34)</f>
+        <v>35</v>
+      </c>
+      <c r="AH36" s="22">
+        <f t="shared" si="55"/>
+        <v>15</v>
       </c>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
-      <c r="AK36" s="19">
-        <f t="shared" ref="AK36:AL36" si="52">SUM(AK23:AK34)</f>
+      <c r="AK36" s="22">
+        <f t="shared" ref="AK36:AL36" si="56">SUM(AK23:AK34)</f>
         <v>3</v>
       </c>
-      <c r="AL36" s="19">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
+      <c r="AL36" s="22">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+      <c r="AM36" s="4"/>
       <c r="AN36" s="3"/>
-      <c r="AO36" s="18" t="s">
-        <v>19</v>
+      <c r="AO36" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
@@ -4177,22 +4328,22 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B37" s="3">
-        <f t="shared" ref="B37:E37" si="53">B33+B35</f>
+        <f t="shared" ref="B37:E37" si="57">B33+B35</f>
         <v>0</v>
       </c>
       <c r="C37" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>3</v>
       </c>
       <c r="D37" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>9</v>
       </c>
       <c r="E37" s="3">
-        <f t="shared" si="53"/>
+        <f t="shared" si="57"/>
         <v>10</v>
       </c>
       <c r="F37" s="3">
@@ -4230,11 +4381,11 @@
         <v>1</v>
       </c>
       <c r="AH37" s="8" t="str">
-        <f t="shared" ref="AH37:AI37" si="54">IF(AH36&gt;9,RIGHT(AH36),AH36)</f>
-        <v>4</v>
+        <f t="shared" ref="AH37:AI37" si="58">IF(AH36&gt;9,RIGHT(AH36),AH36)</f>
+        <v>5</v>
       </c>
       <c r="AI37" s="3" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="AJ37" s="3"/>
@@ -4244,30 +4395,31 @@
       </c>
       <c r="AL37" s="8">
         <f>IF(AL36&gt;9,RIGHT(AL36),AL36)</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AM37" s="4"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
-      <c r="AP37" s="18" t="s">
-        <v>19</v>
+      <c r="AP37" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="AQ37" s="3"/>
-      <c r="AR37" s="19">
-        <f t="shared" ref="AR37:AS37" si="55">SUM(AR24:AR35)</f>
+      <c r="AR37" s="22">
+        <f t="shared" ref="AR37:AS37" si="59">SUM(AR24:AR35)</f>
         <v>20</v>
       </c>
-      <c r="AS37" s="19">
-        <f t="shared" si="55"/>
+      <c r="AS37" s="22">
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
-      <c r="AV37" s="19">
-        <f t="shared" ref="AV37:AW37" si="56">SUM(AV24:AV35)</f>
+      <c r="AV37" s="22">
+        <f t="shared" ref="AV37:AW37" si="60">SUM(AV24:AV35)</f>
         <v>3</v>
       </c>
-      <c r="AW37" s="19">
-        <f t="shared" si="56"/>
+      <c r="AW37" s="22">
+        <f t="shared" si="60"/>
         <v>1</v>
       </c>
       <c r="AX37" s="3"/>
@@ -4275,22 +4427,22 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B38" s="8">
-        <f t="shared" ref="B38:E38" si="57">IF(B37&gt;9,RIGHT(B37),B37) +C39</f>
+        <f t="shared" ref="B38:E38" si="61">IF(B37&gt;9,RIGHT(B37),B37) +C39</f>
         <v>0</v>
       </c>
       <c r="C38" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>3</v>
       </c>
       <c r="D38" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>10</v>
       </c>
       <c r="E38" s="8">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="F38" s="8">
@@ -4328,7 +4480,7 @@
       </c>
       <c r="AG38" s="8" t="str">
         <f>IF(AG36&gt;9,RIGHT(AG36),AG36)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH38" s="3"/>
       <c r="AI38" s="3"/>
@@ -4341,6 +4493,7 @@
         <v>3</v>
       </c>
       <c r="AL38" s="3"/>
+      <c r="AM38" s="4"/>
       <c r="AN38" s="3"/>
       <c r="AO38" s="3"/>
       <c r="AP38" s="3"/>
@@ -4368,26 +4521,26 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" s="3">
-        <f t="shared" ref="B39:F39" si="58">IF(B37&gt;9,LEFT(B37),0)</f>
+        <f t="shared" ref="B39:F39" si="62">IF(B37&gt;9,LEFT(B37),0)</f>
         <v>0</v>
       </c>
       <c r="C39" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="D39" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="E39" s="3" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>1</v>
       </c>
       <c r="F39" s="3">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="G39" s="3"/>
@@ -4422,6 +4575,7 @@
       <c r="AJ39" s="3"/>
       <c r="AK39" s="3"/>
       <c r="AL39" s="3"/>
+      <c r="AM39" s="4"/>
       <c r="AN39" s="3"/>
       <c r="AO39" s="3"/>
       <c r="AP39" s="3"/>
@@ -4479,31 +4633,32 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-      <c r="AF40" s="19">
-        <f t="shared" ref="AF40:AH40" si="59">AF37+AF38</f>
+      <c r="AF40" s="22">
+        <f t="shared" ref="AF40:AH40" si="63">AF37+AF38</f>
         <v>3</v>
       </c>
-      <c r="AG40" s="19">
-        <f t="shared" si="59"/>
+      <c r="AG40" s="22">
+        <f t="shared" si="63"/>
+        <v>6</v>
+      </c>
+      <c r="AH40" s="22">
+        <f t="shared" si="63"/>
+        <v>5</v>
+      </c>
+      <c r="AI40" s="3"/>
+      <c r="AJ40" s="22">
+        <f t="shared" ref="AJ40:AL40" si="64">AJ37+AJ38</f>
+        <v>0</v>
+      </c>
+      <c r="AK40" s="22">
+        <f t="shared" si="64"/>
         <v>3</v>
       </c>
-      <c r="AH40" s="19">
-        <f t="shared" si="59"/>
-        <v>4</v>
-      </c>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="19">
-        <f t="shared" ref="AJ40:AL40" si="60">AJ37+AJ38</f>
-        <v>0</v>
-      </c>
-      <c r="AK40" s="19">
-        <f t="shared" si="60"/>
-        <v>3</v>
-      </c>
-      <c r="AL40" s="19">
-        <f t="shared" si="60"/>
-        <v>0</v>
-      </c>
+      <c r="AL40" s="22">
+        <f t="shared" si="64"/>
+        <v>1</v>
+      </c>
+      <c r="AM40" s="4"/>
       <c r="AN40" s="3"/>
       <c r="AO40" s="3"/>
       <c r="AP40" s="3"/>
@@ -4555,7 +4710,7 @@
       </c>
       <c r="AG41" s="8">
         <f>IF(AG40&gt;9,RIGHT(AG40),AG40)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH41" s="3"/>
       <c r="AI41" s="3"/>
@@ -4568,32 +4723,33 @@
         <v>3</v>
       </c>
       <c r="AL41" s="3"/>
+      <c r="AM41" s="4"/>
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
-      <c r="AQ41" s="19">
-        <f t="shared" ref="AQ41:AS41" si="61">AQ38+AQ39</f>
+      <c r="AQ41" s="22">
+        <f t="shared" ref="AQ41:AS41" si="65">AQ38+AQ39</f>
         <v>2</v>
       </c>
-      <c r="AR41" s="19">
-        <f t="shared" si="61"/>
+      <c r="AR41" s="22">
+        <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AS41" s="19">
-        <f t="shared" si="61"/>
+      <c r="AS41" s="22">
+        <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="AT41" s="3"/>
-      <c r="AU41" s="19">
-        <f t="shared" ref="AU41:AW41" si="62">AU38+AU39</f>
+      <c r="AU41" s="22">
+        <f t="shared" ref="AU41:AW41" si="66">AU38+AU39</f>
         <v>0</v>
       </c>
-      <c r="AV41" s="19">
-        <f t="shared" si="62"/>
+      <c r="AV41" s="22">
+        <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="AW41" s="19">
-        <f t="shared" si="62"/>
+      <c r="AW41" s="22">
+        <f t="shared" si="66"/>
         <v>1</v>
       </c>
       <c r="AX41" s="3"/>
@@ -4601,7 +4757,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4640,6 +4796,7 @@
       <c r="AJ42" s="3"/>
       <c r="AK42" s="3"/>
       <c r="AL42" s="3"/>
+      <c r="AM42" s="4"/>
       <c r="AN42" s="3"/>
       <c r="AO42" s="3"/>
       <c r="AP42" s="3"/>
@@ -4667,7 +4824,7 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4705,11 +4862,11 @@
       </c>
       <c r="AG43" s="9">
         <f>AG41</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AH43" s="9">
         <f>AH40</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AI43" s="3"/>
       <c r="AJ43" s="9">
@@ -4722,8 +4879,9 @@
       </c>
       <c r="AL43" s="9">
         <f>AL40</f>
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AM43" s="4"/>
       <c r="AN43" s="3"/>
       <c r="AO43" s="3"/>
       <c r="AP43" s="3"/>
@@ -4740,23 +4898,23 @@
     <row r="44">
       <c r="A44" s="3"/>
       <c r="B44" s="3">
-        <f t="shared" ref="B44:F44" si="63">W106</f>
+        <f t="shared" ref="B44:F44" si="67">W106</f>
         <v>0</v>
       </c>
       <c r="C44" s="3" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>1</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>9</v>
       </c>
       <c r="E44" s="3" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>8</v>
       </c>
       <c r="F44" s="3" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" si="67"/>
         <v>2</v>
       </c>
       <c r="G44" s="3"/>
@@ -4791,6 +4949,7 @@
       <c r="AJ44" s="3"/>
       <c r="AK44" s="3"/>
       <c r="AL44" s="3"/>
+      <c r="AM44" s="4"/>
       <c r="AN44" s="3"/>
       <c r="AO44" s="3"/>
       <c r="AP44" s="3"/>
@@ -4824,7 +4983,7 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4856,23 +5015,24 @@
       <c r="AC45" s="3"/>
       <c r="AD45" s="3"/>
       <c r="AE45" s="3"/>
-      <c r="AF45" s="5"/>
-      <c r="AG45" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="AH45" s="5">
+      <c r="AF45" s="6"/>
+      <c r="AG45" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH45" s="6">
         <f>SUM(AE23:AE29)</f>
         <v>12</v>
       </c>
-      <c r="AI45" s="5"/>
+      <c r="AI45" s="6"/>
       <c r="AJ45" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AK45" s="3"/>
-      <c r="AL45" s="5">
+      <c r="AL45" s="6">
         <f>AF21</f>
         <v>6</v>
       </c>
+      <c r="AM45" s="4"/>
       <c r="AN45" s="3"/>
       <c r="AO45" s="3"/>
       <c r="AP45" s="3"/>
@@ -4889,23 +5049,23 @@
     <row r="46">
       <c r="A46" s="3"/>
       <c r="B46" s="3">
-        <f t="shared" ref="B46:F46" si="64">W112</f>
+        <f t="shared" ref="B46:F46" si="68">W112</f>
         <v>0</v>
       </c>
       <c r="C46" s="3" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>2</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>0</v>
       </c>
       <c r="E46" s="3" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>2</v>
       </c>
       <c r="F46" s="3" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" si="68"/>
         <v>5</v>
       </c>
       <c r="G46" s="3"/>
@@ -4933,13 +5093,13 @@
       <c r="AC46" s="3"/>
       <c r="AD46" s="3"/>
       <c r="AE46" s="3"/>
-      <c r="AF46" s="5"/>
-      <c r="AG46" s="5">
+      <c r="AF46" s="6"/>
+      <c r="AG46" s="6">
         <f>SUM(AD23:AD29)</f>
         <v>20</v>
       </c>
-      <c r="AH46" s="5"/>
-      <c r="AI46" s="5"/>
+      <c r="AH46" s="6"/>
+      <c r="AI46" s="6"/>
       <c r="AJ46" s="3"/>
       <c r="AK46" s="3">
         <f>IF(LEN(AL45)&gt;1,LEFT(AL45),0)</f>
@@ -4949,12 +5109,13 @@
         <f>RIGHT(AL45)</f>
         <v>6</v>
       </c>
+      <c r="AM46" s="4"/>
       <c r="AN46" s="3"/>
       <c r="AO46" s="3"/>
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
       <c r="AR46" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="AS46" s="3">
         <f>SUM(AP24:AP30)</f>
@@ -4962,10 +5123,10 @@
       </c>
       <c r="AT46" s="3"/>
       <c r="AU46" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AV46" s="3"/>
-      <c r="AW46" s="5">
+      <c r="AW46" s="6">
         <f>AQ22</f>
         <v>25</v>
       </c>
@@ -5004,13 +5165,14 @@
       <c r="AC47" s="3"/>
       <c r="AD47" s="3"/>
       <c r="AE47" s="3"/>
-      <c r="AF47" s="5"/>
-      <c r="AG47" s="5"/>
-      <c r="AH47" s="5"/>
-      <c r="AI47" s="5"/>
+      <c r="AF47" s="6"/>
+      <c r="AG47" s="6"/>
+      <c r="AH47" s="6"/>
+      <c r="AI47" s="6"/>
       <c r="AJ47" s="3"/>
       <c r="AK47" s="3"/>
       <c r="AL47" s="3"/>
+      <c r="AM47" s="4"/>
       <c r="AN47" s="3"/>
       <c r="AO47" s="3"/>
       <c r="AP47" s="3"/>
@@ -5035,26 +5197,26 @@
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" ref="B48:F48" si="65">B46-B44</f>
+        <f t="shared" ref="B48:F48" si="69">B46-B44</f>
         <v>0</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>1</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>-9</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>-6</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="65"/>
+        <f t="shared" si="69"/>
         <v>3</v>
       </c>
       <c r="G48" s="3"/>
@@ -5076,7 +5238,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
@@ -5084,7 +5246,10 @@
       <c r="AC48" s="3"/>
       <c r="AD48" s="3"/>
       <c r="AE48" s="3"/>
-      <c r="AF48" s="5"/>
+      <c r="AF48" s="6"/>
+      <c r="AG48" s="4"/>
+      <c r="AH48" s="4"/>
+      <c r="AI48" s="4"/>
       <c r="AJ48" s="3"/>
       <c r="AK48" s="3">
         <f>IF(AL46&gt;AL43,1,0)</f>
@@ -5092,14 +5257,15 @@
       </c>
       <c r="AL48" s="3">
         <f>IF(AL46&gt;AL43,10+AL43-AL46,AL43-AL46)</f>
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AM48" s="4"/>
       <c r="AN48" s="3"/>
       <c r="AO48" s="3"/>
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
@@ -5111,26 +5277,26 @@
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B49" s="8">
-        <f t="shared" ref="B49:F49" si="66">IF(B50&lt;0,RIGHT(B48),B50)</f>
+        <f t="shared" ref="B49:F49" si="70">IF(B50&lt;0,RIGHT(B48),B50)</f>
         <v>0</v>
       </c>
       <c r="C49" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="D49" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>0</v>
       </c>
       <c r="E49" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>4</v>
       </c>
       <c r="F49" s="8">
-        <f t="shared" si="66"/>
+        <f t="shared" si="70"/>
         <v>3</v>
       </c>
       <c r="G49" s="3"/>
@@ -5152,47 +5318,51 @@
       <c r="W49" s="3"/>
       <c r="X49" s="3"/>
       <c r="Y49" s="3">
-        <f t="shared" ref="Y49:AD49" si="67">S28</f>
+        <f t="shared" ref="Y49:AD49" si="71">S28</f>
         <v>0</v>
       </c>
-      <c r="Z49" s="5">
-        <f t="shared" si="67"/>
+      <c r="Z49" s="6">
+        <f t="shared" si="71"/>
         <v>1</v>
       </c>
-      <c r="AA49" s="5">
-        <f t="shared" si="67"/>
+      <c r="AA49" s="6">
+        <f t="shared" si="71"/>
         <v>5</v>
       </c>
-      <c r="AB49" s="5">
-        <f t="shared" si="67"/>
+      <c r="AB49" s="6">
+        <f t="shared" si="71"/>
         <v>3</v>
       </c>
-      <c r="AC49" s="5">
-        <f t="shared" si="67"/>
+      <c r="AC49" s="6">
+        <f t="shared" si="71"/>
         <v>4</v>
       </c>
-      <c r="AD49" s="5">
-        <f t="shared" si="67"/>
+      <c r="AD49" s="6">
+        <f t="shared" si="71"/>
         <v>0</v>
       </c>
       <c r="AE49" s="3"/>
-      <c r="AF49" s="5"/>
+      <c r="AF49" s="6"/>
+      <c r="AG49" s="4"/>
+      <c r="AH49" s="4"/>
+      <c r="AI49" s="4"/>
       <c r="AJ49" s="3"/>
       <c r="AK49" s="3"/>
       <c r="AL49" s="3"/>
+      <c r="AM49" s="4"/>
       <c r="AN49" s="3"/>
       <c r="AO49" s="3"/>
       <c r="AP49" s="3"/>
       <c r="AQ49" s="3">
-        <f t="shared" ref="AQ49:AS49" si="68">AQ44</f>
+        <f t="shared" ref="AQ49:AS49" si="72">AQ44</f>
         <v>2</v>
       </c>
       <c r="AR49" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>1</v>
       </c>
       <c r="AS49" s="3">
-        <f t="shared" si="68"/>
+        <f t="shared" si="72"/>
         <v>2</v>
       </c>
       <c r="AT49" s="3"/>
@@ -5211,19 +5381,19 @@
     <row r="50">
       <c r="A50" s="3"/>
       <c r="B50" s="3">
-        <f t="shared" ref="B50:E50" si="69">IF(B48&lt;0,10+B48,B48)-C51</f>
+        <f t="shared" ref="B50:E50" si="73">IF(B48&lt;0,10+B48,B48)-C51</f>
         <v>0</v>
       </c>
       <c r="C50" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="D50" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>0</v>
       </c>
       <c r="E50" s="3">
-        <f t="shared" si="69"/>
+        <f t="shared" si="73"/>
         <v>4</v>
       </c>
       <c r="F50" s="3">
@@ -5248,7 +5418,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y50" s="3">
         <v>0.0</v>
@@ -5259,20 +5429,23 @@
       <c r="AA50" s="3">
         <v>0.0</v>
       </c>
-      <c r="AB50" s="17">
-        <f t="shared" ref="AB50:AD50" si="70">AQ71</f>
+      <c r="AB50" s="20">
+        <f t="shared" ref="AB50:AD50" si="74">AQ71</f>
         <v>2</v>
       </c>
-      <c r="AC50" s="17">
-        <f t="shared" si="70"/>
-        <v>6</v>
-      </c>
-      <c r="AD50" s="17" t="str">
-        <f t="shared" si="70"/>
+      <c r="AC50" s="20">
+        <f t="shared" si="74"/>
+        <v>3</v>
+      </c>
+      <c r="AD50" s="20" t="str">
+        <f t="shared" si="74"/>
         <v>1</v>
       </c>
       <c r="AE50" s="3"/>
-      <c r="AF50" s="5"/>
+      <c r="AF50" s="6"/>
+      <c r="AG50" s="4"/>
+      <c r="AH50" s="4"/>
+      <c r="AI50" s="4"/>
       <c r="AJ50" s="3"/>
       <c r="AK50" s="8">
         <f>AK43-AK46-AK48</f>
@@ -5280,18 +5453,19 @@
       </c>
       <c r="AL50" s="8">
         <f>AL48</f>
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="AM50" s="4"/>
       <c r="AN50" s="3"/>
       <c r="AO50" s="3"/>
       <c r="AP50" s="3"/>
       <c r="AQ50" s="3"/>
       <c r="AR50" s="3">
-        <f t="shared" ref="AR50:AS50" si="71">AV51</f>
+        <f t="shared" ref="AR50:AS50" si="75">AV51</f>
         <v>0</v>
       </c>
       <c r="AS50" s="3">
-        <f t="shared" si="71"/>
+        <f t="shared" si="75"/>
         <v>6</v>
       </c>
       <c r="AT50" s="3"/>
@@ -5303,26 +5477,26 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B51" s="3">
-        <f t="shared" ref="B51:F51" si="72">IF(B48&lt;0,1,0)</f>
+        <f t="shared" ref="B51:F51" si="76">IF(B48&lt;0,1,0)</f>
         <v>0</v>
       </c>
       <c r="C51" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="D51" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="E51" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>1</v>
       </c>
       <c r="F51" s="3">
-        <f t="shared" si="72"/>
+        <f t="shared" si="76"/>
         <v>0</v>
       </c>
       <c r="G51" s="3"/>
@@ -5344,31 +5518,38 @@
       <c r="W51" s="3"/>
       <c r="X51" s="3"/>
       <c r="Y51" s="9">
-        <f t="shared" ref="Y51:AC51" si="73">IF((Y50+Y49+Y52)&gt;9,RIGHT(Y49+Y50+Y52),Y49+Y50+Y52)</f>
+        <f t="shared" ref="Y51:AC51" si="77">IF((Y50+Y49+Y52)&gt;9,RIGHT(Y49+Y50+Y52),Y49+Y50+Y52)</f>
         <v>0</v>
       </c>
       <c r="Z51" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>1</v>
       </c>
       <c r="AA51" s="7">
-        <f t="shared" si="73"/>
+        <f t="shared" si="77"/>
         <v>5</v>
       </c>
       <c r="AB51" s="7">
-        <f t="shared" si="73"/>
-        <v>6</v>
-      </c>
-      <c r="AC51" s="7" t="str">
-        <f t="shared" si="73"/>
-        <v>0</v>
+        <f t="shared" si="77"/>
+        <v>5</v>
+      </c>
+      <c r="AC51" s="7">
+        <f t="shared" si="77"/>
+        <v>7</v>
       </c>
       <c r="AD51" s="7">
         <f>IF((AD50+AD49)&gt;9,RIGHT(AD49+AD50),AD49+AD50)</f>
         <v>1</v>
       </c>
       <c r="AE51" s="3"/>
-      <c r="AF51" s="5"/>
+      <c r="AF51" s="6"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
       <c r="AN51" s="3"/>
       <c r="AO51" s="3"/>
       <c r="AP51" s="3"/>
@@ -5414,23 +5595,23 @@
       <c r="W52" s="3"/>
       <c r="X52" s="3"/>
       <c r="Y52" s="3">
-        <f t="shared" ref="Y52:AC52" si="74">IF((Z50+Z49)&gt;9,1,0)</f>
+        <f t="shared" ref="Y52:AC52" si="78">IF((Z50+Z49)&gt;9,1,0)</f>
         <v>0</v>
       </c>
       <c r="Z52" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AA52" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AB52" s="3">
-        <f t="shared" si="74"/>
-        <v>1</v>
+        <f t="shared" si="78"/>
+        <v>0</v>
       </c>
       <c r="AC52" s="3">
-        <f t="shared" si="74"/>
+        <f t="shared" si="78"/>
         <v>0</v>
       </c>
       <c r="AD52" s="3">
@@ -5438,7 +5619,14 @@
         <v>0</v>
       </c>
       <c r="AE52" s="3"/>
-      <c r="AF52" s="5"/>
+      <c r="AF52" s="6"/>
+      <c r="AG52" s="4"/>
+      <c r="AH52" s="4"/>
+      <c r="AI52" s="4"/>
+      <c r="AJ52" s="4"/>
+      <c r="AK52" s="4"/>
+      <c r="AL52" s="4"/>
+      <c r="AM52" s="4"/>
       <c r="AN52" s="3"/>
       <c r="AO52" s="3"/>
       <c r="AP52" s="3"/>
@@ -5487,7 +5675,14 @@
       <c r="AC53" s="3"/>
       <c r="AD53" s="3"/>
       <c r="AE53" s="3"/>
-      <c r="AF53" s="5"/>
+      <c r="AF53" s="6"/>
+      <c r="AG53" s="4"/>
+      <c r="AH53" s="4"/>
+      <c r="AI53" s="4"/>
+      <c r="AJ53" s="4"/>
+      <c r="AK53" s="4"/>
+      <c r="AL53" s="4"/>
+      <c r="AM53" s="4"/>
       <c r="AN53" s="3"/>
       <c r="AO53" s="3"/>
       <c r="AP53" s="3"/>
@@ -5532,25 +5727,29 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3">
         <f>AD51*1 +AC51*10 + AB51*100 + AA51*1000 +Z51*10000 +Y51*100000</f>
-        <v>15601</v>
+        <v>15571</v>
       </c>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
-      <c r="AF54" s="5"/>
-      <c r="AG54" s="5"/>
-      <c r="AH54" s="5"/>
-      <c r="AI54" s="5"/>
+      <c r="AF54" s="6"/>
+      <c r="AG54" s="6"/>
+      <c r="AH54" s="6"/>
+      <c r="AI54" s="6"/>
+      <c r="AJ54" s="4"/>
+      <c r="AK54" s="4"/>
+      <c r="AL54" s="4"/>
+      <c r="AM54" s="4"/>
       <c r="AN54" s="3"/>
       <c r="AO54" s="3"/>
       <c r="AP54" s="3"/>
       <c r="AQ54" s="3"/>
       <c r="AR54" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AS54" s="3"/>
       <c r="AT54" s="3"/>
@@ -5592,7 +5791,14 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-      <c r="AF55" s="5"/>
+      <c r="AF55" s="6"/>
+      <c r="AG55" s="4"/>
+      <c r="AH55" s="4"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
       <c r="AN55" s="3"/>
       <c r="AO55" s="3"/>
       <c r="AP55" s="3"/>
@@ -5647,7 +5853,14 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-      <c r="AF56" s="5"/>
+      <c r="AF56" s="6"/>
+      <c r="AG56" s="4"/>
+      <c r="AH56" s="4"/>
+      <c r="AI56" s="4"/>
+      <c r="AJ56" s="4"/>
+      <c r="AK56" s="4"/>
+      <c r="AL56" s="4"/>
+      <c r="AM56" s="4"/>
       <c r="AN56" s="3"/>
       <c r="AO56" s="3"/>
       <c r="AP56" s="3"/>
@@ -5693,7 +5906,14 @@
       <c r="AC57" s="3"/>
       <c r="AD57" s="3"/>
       <c r="AE57" s="3"/>
-      <c r="AF57" s="5"/>
+      <c r="AF57" s="6"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
       <c r="AN57" s="3"/>
       <c r="AO57" s="3"/>
       <c r="AP57" s="3"/>
@@ -5739,12 +5959,16 @@
       <c r="AC58" s="3"/>
       <c r="AD58" s="3"/>
       <c r="AE58" s="3"/>
-      <c r="AF58" s="5"/>
-      <c r="AG58" s="5"/>
-      <c r="AH58" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI58" s="5"/>
+      <c r="AF58" s="6"/>
+      <c r="AG58" s="6"/>
+      <c r="AH58" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI58" s="6"/>
+      <c r="AJ58" s="4"/>
+      <c r="AK58" s="4"/>
+      <c r="AL58" s="4"/>
+      <c r="AM58" s="4"/>
       <c r="AN58" s="3"/>
       <c r="AO58" s="3"/>
       <c r="AP58" s="3"/>
@@ -5790,16 +6014,20 @@
       <c r="AC59" s="3"/>
       <c r="AD59" s="3"/>
       <c r="AE59" s="3"/>
-      <c r="AF59" s="5"/>
-      <c r="AG59" s="5"/>
-      <c r="AH59" s="5">
-        <f t="shared" ref="AH59:AI59" si="75">AK50</f>
+      <c r="AF59" s="6"/>
+      <c r="AG59" s="6"/>
+      <c r="AH59" s="6">
+        <f t="shared" ref="AH59:AI59" si="79">AK50</f>
         <v>2</v>
       </c>
-      <c r="AI59" s="5">
-        <f t="shared" si="75"/>
-        <v>4</v>
-      </c>
+      <c r="AI59" s="6">
+        <f t="shared" si="79"/>
+        <v>5</v>
+      </c>
+      <c r="AJ59" s="4"/>
+      <c r="AK59" s="4"/>
+      <c r="AL59" s="4"/>
+      <c r="AM59" s="4"/>
       <c r="AN59" s="3"/>
       <c r="AO59" s="3"/>
       <c r="AP59" s="3"/>
@@ -5845,19 +6073,23 @@
       <c r="AC60" s="3"/>
       <c r="AD60" s="3"/>
       <c r="AE60" s="3"/>
-      <c r="AF60" s="5"/>
-      <c r="AG60" s="5">
-        <f t="shared" ref="AG60:AI60" si="76">AF43</f>
+      <c r="AF60" s="6"/>
+      <c r="AG60" s="6">
+        <f t="shared" ref="AG60:AI60" si="80">AF43</f>
         <v>3</v>
       </c>
-      <c r="AH60" s="5">
-        <f t="shared" si="76"/>
-        <v>3</v>
-      </c>
-      <c r="AI60" s="5">
-        <f t="shared" si="76"/>
-        <v>4</v>
-      </c>
+      <c r="AH60" s="6">
+        <f t="shared" si="80"/>
+        <v>6</v>
+      </c>
+      <c r="AI60" s="6">
+        <f t="shared" si="80"/>
+        <v>5</v>
+      </c>
+      <c r="AJ60" s="4"/>
+      <c r="AK60" s="4"/>
+      <c r="AL60" s="4"/>
+      <c r="AM60" s="4"/>
       <c r="AN60" s="3"/>
       <c r="AO60" s="3"/>
       <c r="AP60" s="3"/>
@@ -5903,18 +6135,22 @@
       <c r="AC61" s="3"/>
       <c r="AD61" s="3"/>
       <c r="AE61" s="3"/>
-      <c r="AF61" s="5"/>
-      <c r="AG61" s="5"/>
-      <c r="AH61" s="5"/>
-      <c r="AI61" s="5">
+      <c r="AF61" s="6"/>
+      <c r="AG61" s="6"/>
+      <c r="AH61" s="6"/>
+      <c r="AI61" s="6">
         <f>IF(AI60&gt;AI59,10-AI60+AI59,AI59-AI60)</f>
         <v>0</v>
       </c>
+      <c r="AJ61" s="4"/>
+      <c r="AK61" s="4"/>
+      <c r="AL61" s="4"/>
+      <c r="AM61" s="4"/>
       <c r="AN61" s="3"/>
       <c r="AO61" s="3"/>
       <c r="AP61" s="3"/>
       <c r="AQ61" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
@@ -5958,25 +6194,29 @@
       <c r="AD62" s="3"/>
       <c r="AE62" s="3"/>
       <c r="AF62" s="3"/>
-      <c r="AG62" s="5"/>
-      <c r="AH62" s="5">
+      <c r="AG62" s="6"/>
+      <c r="AH62" s="6">
         <f>IF(AI60&gt;AI59,1,0)</f>
         <v>0</v>
       </c>
-      <c r="AI62" s="5"/>
+      <c r="AI62" s="6"/>
+      <c r="AJ62" s="4"/>
+      <c r="AK62" s="4"/>
+      <c r="AL62" s="4"/>
+      <c r="AM62" s="4"/>
       <c r="AN62" s="3"/>
       <c r="AO62" s="3"/>
       <c r="AP62" s="3"/>
-      <c r="AQ62" s="5">
-        <f t="shared" ref="AQ62:AS62" si="77">AG86</f>
+      <c r="AQ62" s="6">
+        <f t="shared" ref="AQ62:AS62" si="81">AG86</f>
         <v>0</v>
       </c>
-      <c r="AR62" s="5">
-        <f t="shared" si="77"/>
-        <v>5</v>
-      </c>
-      <c r="AS62" s="5">
-        <f t="shared" si="77"/>
+      <c r="AR62" s="6">
+        <f t="shared" si="81"/>
+        <v>2</v>
+      </c>
+      <c r="AS62" s="6">
+        <f t="shared" si="81"/>
         <v>5</v>
       </c>
       <c r="AT62" s="3"/>
@@ -6019,22 +6259,26 @@
       <c r="AD63" s="3"/>
       <c r="AE63" s="3"/>
       <c r="AF63" s="3"/>
-      <c r="AG63" s="5"/>
-      <c r="AH63" s="5"/>
-      <c r="AI63" s="5"/>
+      <c r="AG63" s="6"/>
+      <c r="AH63" s="6"/>
+      <c r="AI63" s="6"/>
+      <c r="AJ63" s="4"/>
+      <c r="AK63" s="4"/>
+      <c r="AL63" s="4"/>
+      <c r="AM63" s="4"/>
       <c r="AN63" s="3"/>
       <c r="AO63" s="3"/>
       <c r="AP63" s="3"/>
       <c r="AQ63" s="3">
-        <f t="shared" ref="AQ63:AS63" si="78">AQ55</f>
+        <f t="shared" ref="AQ63:AS63" si="82">AQ55</f>
         <v>2</v>
       </c>
       <c r="AR63" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>0</v>
       </c>
       <c r="AS63" s="3">
-        <f t="shared" si="78"/>
+        <f t="shared" si="82"/>
         <v>6</v>
       </c>
       <c r="AT63" s="3"/>
@@ -6077,12 +6321,16 @@
       <c r="AD64" s="3"/>
       <c r="AE64" s="3"/>
       <c r="AF64" s="3"/>
-      <c r="AG64" s="5"/>
-      <c r="AH64" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(AH60&gt;AH59,-AH59+AH60,10+AH60-AH59) + AH62"),1.0)</f>
-        <v>1</v>
-      </c>
-      <c r="AI64" s="5"/>
+      <c r="AG64" s="6"/>
+      <c r="AH64" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(AH60&gt;AH59,-AH59+AH60,10+AH60-AH59) + AH62"),4.0)</f>
+        <v>4</v>
+      </c>
+      <c r="AI64" s="6"/>
+      <c r="AJ64" s="4"/>
+      <c r="AK64" s="4"/>
+      <c r="AL64" s="4"/>
+      <c r="AM64" s="4"/>
       <c r="AN64" s="3"/>
       <c r="AO64" s="3"/>
       <c r="AP64" s="3"/>
@@ -6129,24 +6377,28 @@
       <c r="AD65" s="3"/>
       <c r="AE65" s="3"/>
       <c r="AF65" s="3"/>
-      <c r="AG65" s="5">
+      <c r="AG65" s="6">
         <f>IF(AH60&gt;AH59,0,1)</f>
         <v>0</v>
       </c>
-      <c r="AH65" s="5"/>
-      <c r="AI65" s="5"/>
+      <c r="AH65" s="6"/>
+      <c r="AI65" s="6"/>
+      <c r="AJ65" s="4"/>
+      <c r="AK65" s="4"/>
+      <c r="AL65" s="4"/>
+      <c r="AM65" s="4"/>
       <c r="AN65" s="3"/>
       <c r="AO65" s="3"/>
       <c r="AP65" s="3"/>
-      <c r="AQ65" s="5">
-        <f t="shared" ref="AQ65:AR65" si="79">AQ63+AQ62</f>
+      <c r="AQ65" s="6">
+        <f t="shared" ref="AQ65:AR65" si="83">AQ63+AQ62</f>
         <v>2</v>
       </c>
-      <c r="AR65" s="5">
-        <f t="shared" si="79"/>
-        <v>5</v>
-      </c>
-      <c r="AS65" s="5" t="str">
+      <c r="AR65" s="6">
+        <f t="shared" si="83"/>
+        <v>2</v>
+      </c>
+      <c r="AS65" s="6" t="str">
         <f>IF((AS63+AS62)&gt;9,RIGHT(AS63+AS62),AS63+AS62)</f>
         <v>1</v>
       </c>
@@ -6190,9 +6442,13 @@
       <c r="AD66" s="3"/>
       <c r="AE66" s="3"/>
       <c r="AF66" s="3"/>
-      <c r="AG66" s="5"/>
-      <c r="AH66" s="5"/>
-      <c r="AI66" s="5"/>
+      <c r="AG66" s="6"/>
+      <c r="AH66" s="6"/>
+      <c r="AI66" s="6"/>
+      <c r="AJ66" s="4"/>
+      <c r="AK66" s="4"/>
+      <c r="AL66" s="4"/>
+      <c r="AM66" s="4"/>
       <c r="AN66" s="3"/>
       <c r="AO66" s="3"/>
       <c r="AP66" s="3"/>
@@ -6242,9 +6498,13 @@
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
       <c r="AF67" s="3"/>
-      <c r="AG67" s="5"/>
-      <c r="AH67" s="5"/>
-      <c r="AI67" s="5"/>
+      <c r="AG67" s="6"/>
+      <c r="AH67" s="6"/>
+      <c r="AI67" s="6"/>
+      <c r="AJ67" s="4"/>
+      <c r="AK67" s="4"/>
+      <c r="AL67" s="4"/>
+      <c r="AM67" s="4"/>
       <c r="AN67" s="3"/>
       <c r="AO67" s="3"/>
       <c r="AP67" s="3"/>
@@ -6291,19 +6551,23 @@
       <c r="AD68" s="3"/>
       <c r="AE68" s="3"/>
       <c r="AF68" s="3"/>
-      <c r="AG68" s="5">
+      <c r="AG68" s="6">
         <f>AG59+AG60 +AG65</f>
         <v>3</v>
       </c>
-      <c r="AH68" s="5"/>
-      <c r="AI68" s="5"/>
+      <c r="AH68" s="6"/>
+      <c r="AI68" s="6"/>
+      <c r="AJ68" s="4"/>
+      <c r="AK68" s="4"/>
+      <c r="AL68" s="4"/>
+      <c r="AM68" s="4"/>
       <c r="AN68" s="3"/>
       <c r="AO68" s="3"/>
       <c r="AP68" s="3"/>
       <c r="AQ68" s="3"/>
-      <c r="AR68" s="5">
+      <c r="AR68" s="6">
         <f>IF((AR65+AR66)&gt;9,RIGHT(AR65+AR66),AR65+AR66)</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS68" s="3"/>
       <c r="AT68" s="3"/>
@@ -6346,11 +6610,15 @@
       <c r="AD69" s="3"/>
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
-      <c r="AG69" s="5"/>
-      <c r="AH69" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI69" s="5"/>
+      <c r="AG69" s="6"/>
+      <c r="AH69" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI69" s="6"/>
+      <c r="AJ69" s="4"/>
+      <c r="AK69" s="4"/>
+      <c r="AL69" s="4"/>
+      <c r="AM69" s="4"/>
       <c r="AN69" s="3"/>
       <c r="AO69" s="3"/>
       <c r="AP69" s="3"/>
@@ -6400,9 +6668,13 @@
       <c r="AD70" s="3"/>
       <c r="AE70" s="3"/>
       <c r="AF70" s="3"/>
-      <c r="AG70" s="5"/>
-      <c r="AH70" s="5"/>
-      <c r="AI70" s="5"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6"/>
+      <c r="AI70" s="6"/>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+      <c r="AL70" s="4"/>
+      <c r="AM70" s="4"/>
       <c r="AN70" s="3"/>
       <c r="AO70" s="3"/>
       <c r="AP70" s="3"/>
@@ -6455,12 +6727,16 @@
       </c>
       <c r="AH71" s="7">
         <f>AH64</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI71" s="7">
         <f>AI61</f>
         <v>0</v>
       </c>
+      <c r="AJ71" s="4"/>
+      <c r="AK71" s="4"/>
+      <c r="AL71" s="4"/>
+      <c r="AM71" s="4"/>
       <c r="AN71" s="3"/>
       <c r="AO71" s="3"/>
       <c r="AP71" s="3"/>
@@ -6470,7 +6746,7 @@
       </c>
       <c r="AR71" s="7">
         <f>AR68</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS71" s="7" t="str">
         <f>AS65</f>
@@ -6519,6 +6795,10 @@
       <c r="AG72" s="3"/>
       <c r="AH72" s="3"/>
       <c r="AI72" s="3"/>
+      <c r="AJ72" s="4"/>
+      <c r="AK72" s="4"/>
+      <c r="AL72" s="4"/>
+      <c r="AM72" s="4"/>
       <c r="AN72" s="3"/>
       <c r="AO72" s="3"/>
       <c r="AP72" s="3"/>
@@ -6551,7 +6831,7 @@
       <c r="P73" s="3"/>
       <c r="Q73" s="3"/>
       <c r="R73" s="3">
-        <f t="shared" ref="R73:R74" si="80">T73</f>
+        <f t="shared" ref="R73:R74" si="84">T73</f>
         <v>0</v>
       </c>
       <c r="S73" s="3"/>
@@ -6570,9 +6850,16 @@
       <c r="AC73" s="3"/>
       <c r="AD73" s="3"/>
       <c r="AE73" s="3"/>
-      <c r="AH73" s="21" t="s">
-        <v>70</v>
-      </c>
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="4"/>
+      <c r="AH73" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="4"/>
+      <c r="AK73" s="4"/>
+      <c r="AL73" s="4"/>
+      <c r="AM73" s="4"/>
       <c r="AN73" s="3"/>
       <c r="AO73" s="3"/>
       <c r="AP73" s="3"/>
@@ -6605,7 +6892,7 @@
       <c r="P74" s="3"/>
       <c r="Q74" s="3"/>
       <c r="R74" s="3">
-        <f t="shared" si="80"/>
+        <f t="shared" si="84"/>
         <v>0</v>
       </c>
       <c r="S74" s="3"/>
@@ -6624,18 +6911,21 @@
       <c r="AC74" s="3"/>
       <c r="AD74" s="3"/>
       <c r="AE74" s="3"/>
-      <c r="AG74" s="5">
-        <f t="shared" ref="AG74:AI74" si="81">AG71</f>
+      <c r="AF74" s="4"/>
+      <c r="AG74" s="6">
+        <f t="shared" ref="AG74:AI74" si="85">AG71</f>
         <v>3</v>
       </c>
-      <c r="AH74" s="5">
-        <f t="shared" si="81"/>
-        <v>1</v>
-      </c>
-      <c r="AI74" s="5">
-        <f t="shared" si="81"/>
+      <c r="AH74" s="6">
+        <f t="shared" si="85"/>
+        <v>4</v>
+      </c>
+      <c r="AI74" s="6">
+        <f t="shared" si="85"/>
         <v>0</v>
       </c>
+      <c r="AJ74" s="4"/>
+      <c r="AK74" s="4"/>
       <c r="AL74" s="3"/>
       <c r="AM74" s="3"/>
       <c r="AN74" s="3"/>
@@ -6686,16 +6976,19 @@
       <c r="AC75" s="3"/>
       <c r="AD75" s="3"/>
       <c r="AE75" s="3"/>
-      <c r="AG75" s="5">
+      <c r="AF75" s="4"/>
+      <c r="AG75" s="6">
         <f>AG60</f>
         <v>3</v>
       </c>
-      <c r="AH75" s="20">
+      <c r="AH75" s="23">
         <v>6.0</v>
       </c>
-      <c r="AI75" s="20">
+      <c r="AI75" s="23">
         <v>5.0</v>
       </c>
+      <c r="AJ75" s="4"/>
+      <c r="AK75" s="4"/>
       <c r="AL75" s="3"/>
       <c r="AM75" s="3"/>
       <c r="AN75" s="3"/>
@@ -6743,12 +7036,15 @@
       <c r="AC76" s="3"/>
       <c r="AD76" s="3"/>
       <c r="AE76" s="3"/>
-      <c r="AG76" s="5"/>
-      <c r="AH76" s="5"/>
-      <c r="AI76" s="5">
+      <c r="AF76" s="4"/>
+      <c r="AG76" s="6"/>
+      <c r="AH76" s="6"/>
+      <c r="AI76" s="6">
         <f>IF(AI75&gt;AI74,AI75-AI74,10+AI74-AI75)</f>
         <v>5</v>
       </c>
+      <c r="AJ76" s="4"/>
+      <c r="AK76" s="4"/>
       <c r="AL76" s="3"/>
       <c r="AM76" s="3"/>
       <c r="AN76" s="3"/>
@@ -6767,17 +7063,17 @@
     <row r="77">
       <c r="A77" s="3">
         <f>AC54</f>
-        <v>15601</v>
+        <v>15571</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -6792,17 +7088,17 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3">
         <f>A77</f>
-        <v>15601</v>
+        <v>15571</v>
       </c>
       <c r="R77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S77" s="3"/>
       <c r="T77" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
@@ -6815,12 +7111,12 @@
       <c r="AD77" s="3"/>
       <c r="AE77" s="3"/>
       <c r="AF77" s="3"/>
-      <c r="AG77" s="5"/>
-      <c r="AH77" s="5">
+      <c r="AG77" s="6"/>
+      <c r="AH77" s="6">
         <f>IF(AI75&gt;AI74,0,1)</f>
         <v>0</v>
       </c>
-      <c r="AI77" s="5"/>
+      <c r="AI77" s="6"/>
       <c r="AJ77" s="3"/>
       <c r="AK77" s="3"/>
       <c r="AL77" s="3"/>
@@ -6844,7 +7140,7 @@
         <v>16</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3">
@@ -6868,7 +7164,7 @@
         <v>16.0</v>
       </c>
       <c r="R78" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="S78" s="3"/>
       <c r="T78" s="3">
@@ -6888,9 +7184,9 @@
       <c r="AD78" s="3"/>
       <c r="AE78" s="3"/>
       <c r="AF78" s="3"/>
-      <c r="AG78" s="5"/>
-      <c r="AH78" s="5"/>
-      <c r="AI78" s="5"/>
+      <c r="AG78" s="6"/>
+      <c r="AH78" s="6"/>
+      <c r="AI78" s="6"/>
       <c r="AJ78" s="3"/>
       <c r="AK78" s="3"/>
       <c r="AL78" s="3"/>
@@ -6951,16 +7247,16 @@
       <c r="AD79" s="3"/>
       <c r="AE79" s="3"/>
       <c r="AF79" s="3"/>
-      <c r="AG79" s="5"/>
-      <c r="AH79" s="5">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(AH75&gt;AH74,-AH74+AH75,10-AH75+AH74) + AH77"),5.0)</f>
-        <v>5</v>
-      </c>
-      <c r="AI79" s="5"/>
+      <c r="AG79" s="6"/>
+      <c r="AH79" s="6">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("IF(AH75&gt;AH74,-AH74+AH75,10-AH75+AH74) + AH77"),2.0)</f>
+        <v>2</v>
+      </c>
+      <c r="AI79" s="6"/>
       <c r="AJ79" s="3"/>
       <c r="AK79" s="3"/>
       <c r="AL79" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AM79" s="3"/>
       <c r="AN79" s="3"/>
@@ -6979,10 +7275,10 @@
     <row r="80">
       <c r="A80" s="3">
         <f>A77*A78</f>
-        <v>249616</v>
+        <v>249136</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
@@ -7005,10 +7301,10 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3">
         <f>Q77*Q78</f>
-        <v>249616</v>
+        <v>249136</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3">
@@ -7029,13 +7325,16 @@
       <c r="AD80" s="3"/>
       <c r="AE80" s="3"/>
       <c r="AF80" s="3"/>
-      <c r="AG80" s="5">
+      <c r="AG80" s="6">
         <f>IF(AH75&gt;AH74,0,1)</f>
         <v>0</v>
       </c>
-      <c r="AH80" s="5"/>
-      <c r="AI80" s="5"/>
+      <c r="AH80" s="6"/>
+      <c r="AI80" s="6"/>
+      <c r="AJ80" s="4"/>
       <c r="AK80" s="3"/>
+      <c r="AL80" s="4"/>
+      <c r="AM80" s="4"/>
       <c r="AN80" s="3"/>
       <c r="AO80" s="3"/>
       <c r="AP80" s="3"/>
@@ -7082,20 +7381,20 @@
       <c r="AD81" s="3"/>
       <c r="AE81" s="3"/>
       <c r="AF81" s="3"/>
-      <c r="AG81" s="5"/>
-      <c r="AH81" s="5"/>
-      <c r="AI81" s="5"/>
+      <c r="AG81" s="6"/>
+      <c r="AH81" s="6"/>
+      <c r="AI81" s="6"/>
       <c r="AJ81" s="3"/>
-      <c r="AK81" s="5">
-        <f t="shared" ref="AK81:AM81" si="82">AQ71</f>
+      <c r="AK81" s="6">
+        <f t="shared" ref="AK81:AM81" si="86">AQ71</f>
         <v>2</v>
       </c>
-      <c r="AL81" s="5">
-        <f t="shared" si="82"/>
-        <v>6</v>
-      </c>
-      <c r="AM81" s="5" t="str">
-        <f t="shared" si="82"/>
+      <c r="AL81" s="6">
+        <f t="shared" si="86"/>
+        <v>3</v>
+      </c>
+      <c r="AM81" s="6" t="str">
+        <f t="shared" si="86"/>
         <v>1</v>
       </c>
       <c r="AN81" s="3"/>
@@ -7116,17 +7415,17 @@
         <v>24.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E82" s="3">
         <v>1.0</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G82" s="3">
         <v>20.0</v>
@@ -7144,17 +7443,17 @@
         <v>24.0</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="S82" s="3"/>
       <c r="T82" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U82" s="3">
         <v>1.0</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W82" s="3">
         <v>20.0</v>
@@ -7168,9 +7467,9 @@
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
       <c r="AF82" s="3"/>
-      <c r="AG82" s="5"/>
-      <c r="AH82" s="5"/>
-      <c r="AI82" s="5"/>
+      <c r="AG82" s="6"/>
+      <c r="AH82" s="6"/>
+      <c r="AI82" s="6"/>
       <c r="AJ82" s="3"/>
       <c r="AK82" s="3"/>
       <c r="AL82" s="3"/>
@@ -7193,17 +7492,17 @@
         <v>60.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E83" s="3">
         <v>1.0</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G83" s="3">
         <v>100.0</v>
@@ -7221,17 +7520,17 @@
         <v>60.0</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="S83" s="3"/>
       <c r="T83" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="U83" s="3">
         <v>1.0</v>
       </c>
       <c r="V83" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="W83" s="3">
         <v>100.0</v>
@@ -7245,12 +7544,12 @@
       <c r="AD83" s="3"/>
       <c r="AE83" s="3"/>
       <c r="AF83" s="3"/>
-      <c r="AG83" s="5">
+      <c r="AG83" s="6">
         <f>IFERROR(__xludf.DUMMYFUNCTION("-AG74+AG75 +AG80"),0.0)</f>
         <v>0</v>
       </c>
-      <c r="AH83" s="5"/>
-      <c r="AI83" s="5"/>
+      <c r="AH83" s="6"/>
+      <c r="AI83" s="6"/>
       <c r="AJ83" s="3"/>
       <c r="AK83" s="3"/>
       <c r="AL83" s="3"/>
@@ -7273,17 +7572,17 @@
         <v>60.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E84" s="3">
         <v>1.0</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G84" s="3">
         <v>100.0</v>
@@ -7301,17 +7600,17 @@
         <v>60.0</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S84" s="3"/>
       <c r="T84" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="U84" s="3">
         <v>1.0</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W84" s="3">
         <v>100.0</v>
@@ -7325,11 +7624,11 @@
       <c r="AD84" s="3"/>
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
-      <c r="AG84" s="5"/>
-      <c r="AH84" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI84" s="5"/>
+      <c r="AG84" s="6"/>
+      <c r="AH84" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI84" s="6"/>
       <c r="AJ84" s="3"/>
       <c r="AK84" s="3"/>
       <c r="AL84" s="3"/>
@@ -7348,8 +7647,8 @@
       <c r="AY84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="22" t="s">
-        <v>78</v>
+      <c r="A85" s="25" t="s">
+        <v>80</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -7368,8 +7667,8 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
-      <c r="S85" s="23" t="s">
-        <v>79</v>
+      <c r="S85" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
@@ -7384,9 +7683,9 @@
       <c r="AD85" s="3"/>
       <c r="AE85" s="3"/>
       <c r="AF85" s="3"/>
-      <c r="AG85" s="5"/>
-      <c r="AH85" s="5"/>
-      <c r="AI85" s="5"/>
+      <c r="AG85" s="6"/>
+      <c r="AH85" s="6"/>
+      <c r="AI85" s="6"/>
       <c r="AJ85" s="3"/>
       <c r="AK85" s="3"/>
       <c r="AL85" s="3"/>
@@ -7407,14 +7706,14 @@
     <row r="86">
       <c r="A86" s="3">
         <f>A77*A82</f>
-        <v>374424</v>
+        <v>373704</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E86" s="3">
         <v>1.0</v>
@@ -7423,7 +7722,7 @@
         <v>24.0</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -7436,17 +7735,17 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3">
         <f>Q80*Q82</f>
-        <v>5990784</v>
+        <v>5979264</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="S86" s="3">
-        <f t="shared" ref="S86:S88" si="83">Q86-A86</f>
-        <v>5616360</v>
+        <f t="shared" ref="S86:S88" si="87">Q86-A86</f>
+        <v>5605560</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U86" s="3">
         <v>1.0</v>
@@ -7455,7 +7754,7 @@
         <v>24.0</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
@@ -7472,7 +7771,7 @@
       </c>
       <c r="AH86" s="7">
         <f>AH79</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AI86" s="7">
         <f>AI76</f>
@@ -7497,21 +7796,21 @@
     </row>
     <row r="87">
       <c r="A87" s="3">
-        <f t="shared" ref="A87:A88" si="84">A86*A83</f>
-        <v>22465440</v>
+        <f t="shared" ref="A87:A88" si="88">A86*A83</f>
+        <v>22422240</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E87" s="3">
         <v>1.0</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G87" s="3">
         <v>60.0</v>
@@ -7526,24 +7825,24 @@
       <c r="O87" s="3"/>
       <c r="P87" s="3"/>
       <c r="Q87" s="3">
-        <f t="shared" ref="Q87:Q88" si="85">Q86*Q83</f>
-        <v>359447040</v>
+        <f t="shared" ref="Q87:Q88" si="89">Q86*Q83</f>
+        <v>358755840</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="S87" s="3">
-        <f t="shared" si="83"/>
-        <v>336981600</v>
+        <f t="shared" si="87"/>
+        <v>336333600</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="U87" s="3">
         <v>1.0</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W87" s="3">
         <v>60.0</v>
@@ -7579,21 +7878,21 @@
     </row>
     <row r="88">
       <c r="A88" s="3">
-        <f t="shared" si="84"/>
-        <v>1347926400</v>
+        <f t="shared" si="88"/>
+        <v>1345334400</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E88" s="3">
         <v>60.0</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G88" s="3">
         <v>60.0</v>
@@ -7608,24 +7907,24 @@
       <c r="O88" s="3"/>
       <c r="P88" s="3"/>
       <c r="Q88" s="3">
-        <f t="shared" si="85"/>
-        <v>21566822400</v>
+        <f t="shared" si="89"/>
+        <v>21525350400</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="S88" s="3">
-        <f t="shared" si="83"/>
-        <v>20218896000</v>
+        <f t="shared" si="87"/>
+        <v>20180016000</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="U88" s="3">
         <v>60.0</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W88" s="3">
         <v>60.0</v>
@@ -7714,21 +8013,21 @@
     </row>
     <row r="90">
       <c r="A90" s="3">
-        <f t="shared" ref="A90:A92" si="86">A91/G82</f>
-        <v>15601</v>
+        <f t="shared" ref="A90:A92" si="90">A91/G82</f>
+        <v>15571</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E90" s="3">
         <v>1.0</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G90" s="3">
         <f>F86*G87*G88</f>
@@ -7744,24 +8043,24 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3">
-        <f t="shared" ref="Q90:Q92" si="87">Q91/W82</f>
-        <v>249616</v>
+        <f t="shared" ref="Q90:Q92" si="91">Q91/W82</f>
+        <v>249136</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="S90" s="3">
-        <f t="shared" ref="S90:S94" si="88">Q90-A90</f>
-        <v>234015</v>
+        <f t="shared" ref="S90:S94" si="92">Q90-A90</f>
+        <v>233565</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="U90" s="3">
         <v>1.0</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W90" s="3">
         <f>V86*W87*W88</f>
@@ -7798,21 +8097,21 @@
     </row>
     <row r="91">
       <c r="A91" s="3">
-        <f t="shared" si="86"/>
-        <v>312020</v>
+        <f t="shared" si="90"/>
+        <v>311420</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E91" s="3">
         <v>1.0</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G91" s="3">
         <f>G84*G83*G82</f>
@@ -7828,24 +8127,24 @@
       <c r="O91" s="3"/>
       <c r="P91" s="3"/>
       <c r="Q91" s="3">
-        <f t="shared" si="87"/>
-        <v>4992320</v>
+        <f t="shared" si="91"/>
+        <v>4982720</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S91" s="3">
-        <f t="shared" si="88"/>
-        <v>4680300</v>
+        <f t="shared" si="92"/>
+        <v>4671300</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="U91" s="3">
         <v>1.0</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W91" s="3">
         <f>W84*W83*W82</f>
@@ -7882,11 +8181,11 @@
     </row>
     <row r="92">
       <c r="A92" s="3">
-        <f t="shared" si="86"/>
-        <v>31202000</v>
+        <f t="shared" si="90"/>
+        <v>31142000</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -7903,15 +8202,15 @@
       <c r="O92" s="3"/>
       <c r="P92" s="3"/>
       <c r="Q92" s="3">
-        <f t="shared" si="87"/>
-        <v>499232000</v>
+        <f t="shared" si="91"/>
+        <v>498272000</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S92" s="3">
-        <f t="shared" si="88"/>
-        <v>468030000</v>
+        <f t="shared" si="92"/>
+        <v>467130000</v>
       </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
@@ -7949,21 +8248,21 @@
     <row r="93">
       <c r="A93" s="3">
         <f>E93*A88</f>
-        <v>3120200000</v>
+        <v>3114200000</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E93" s="3">
         <f>G91/G90</f>
         <v>2.314814815</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G93" s="3">
         <v>1.0</v>
@@ -7979,24 +8278,24 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3">
         <f>U93*Q88</f>
-        <v>49923200000</v>
+        <v>49827200000</v>
       </c>
       <c r="R93" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S93" s="3">
-        <f t="shared" si="88"/>
-        <v>46803000000</v>
+        <f t="shared" si="92"/>
+        <v>46713000000</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U93" s="3">
         <f>W91/W90</f>
         <v>2.314814815</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W93" s="3">
         <v>1.0</v>
@@ -8033,21 +8332,21 @@
     <row r="94">
       <c r="A94" s="3">
         <f>A88*E94</f>
-        <v>792897882.4</v>
+        <v>791373176.5</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E94" s="3">
         <f>D80</f>
         <v>0.5882352941</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G94" s="3">
         <v>1.0</v>
@@ -8063,24 +8362,24 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3">
         <f>Q88*U94</f>
-        <v>12686366118</v>
+        <v>12661970824</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S94" s="3">
-        <f t="shared" si="88"/>
-        <v>11893468235</v>
+        <f t="shared" si="92"/>
+        <v>11870597647</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U94" s="3">
         <f>T80</f>
         <v>0.5882352941</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="W94" s="3">
         <v>1.0</v>
@@ -8172,14 +8471,14 @@
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E96" s="3">
         <f>E94/E93</f>
         <v>0.2541176471</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G96" s="3">
         <v>1.0</v>
@@ -8192,21 +8491,21 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="R96" s="24"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="R96" s="27"/>
       <c r="S96" s="3"/>
       <c r="T96" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U96" s="3">
         <f>E96</f>
         <v>0.2541176471</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W96" s="3">
         <v>1.0</v>
@@ -8245,13 +8544,13 @@
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E97" s="3">
         <v>1.0</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G97" s="3">
         <f>E93/E94</f>
@@ -8270,13 +8569,13 @@
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
       <c r="T97" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="U97" s="3">
         <v>1.0</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W97" s="3">
         <f>U93/U94</f>
@@ -8420,7 +8719,7 @@
     <row r="100">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -8438,7 +8737,7 @@
       <c r="P100" s="3"/>
       <c r="Q100" s="8">
         <f>E9</f>
-        <v>15598</v>
+        <v>15572</v>
       </c>
       <c r="R100" s="3"/>
       <c r="S100" s="3"/>
@@ -8507,15 +8806,15 @@
       </c>
       <c r="S101" s="3" t="str">
         <f>RIGHT(LEFT(Q100,4))</f>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T101" s="3" t="str">
         <f>RIGHT(LEFT(Q100,5))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="U101" s="3" t="str">
         <f>RIGHT(LEFT(Q100,6))</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="V101" s="3"/>
       <c r="W101" s="3"/>
@@ -8551,10 +8850,10 @@
     <row r="102">
       <c r="A102" s="3">
         <f>A90</f>
-        <v>15601</v>
+        <v>15571</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -8567,7 +8866,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
-      <c r="N102" s="26"/>
+      <c r="N102" s="29"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
@@ -8607,7 +8906,7 @@
       <c r="AY102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="27">
+      <c r="A103" s="30">
         <f>B2</f>
         <v>25</v>
       </c>
@@ -8616,14 +8915,14 @@
       </c>
       <c r="C103" s="3">
         <f>Q103</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E103" s="3"/>
-      <c r="F103" s="6"/>
-      <c r="G103" s="6"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="3"/>
@@ -8633,11 +8932,11 @@
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q103" s="3">
         <f>abs(A102-Q100)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R103" s="3"/>
       <c r="S103" s="3"/>
@@ -8645,7 +8944,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
@@ -8682,18 +8981,18 @@
         <v>250000</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C104" s="3">
-        <f>abs(C103)*100/(A102+C103)</f>
-        <v>0.01922583953</v>
+        <f>abs(C103)*100/(A102)</f>
+        <v>0.006422195106</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="E104" s="3"/>
-      <c r="F104" s="6"/>
-      <c r="G104" s="6"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="3"/>
@@ -8701,24 +9000,24 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O104" s="3">
         <f>IF(P105="",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P104" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q104" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R104" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S104" s="3"/>
       <c r="T104" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
@@ -8758,16 +9057,16 @@
     <row r="105">
       <c r="A105" s="3">
         <f>A104-A102</f>
-        <v>234399</v>
+        <v>234429</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
-      <c r="F105" s="6"/>
-      <c r="G105" s="6"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="3"/>
@@ -8775,22 +9074,22 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="O105" s="26">
+        <v>91</v>
+      </c>
+      <c r="O105" s="29">
         <v>30291.0</v>
       </c>
-      <c r="P105" s="27">
-        <f t="shared" ref="P105:R105" si="89">A5</f>
-        <v>6</v>
-      </c>
-      <c r="Q105" s="27">
-        <f t="shared" si="89"/>
-        <v>11</v>
-      </c>
-      <c r="R105" s="27">
-        <f t="shared" si="89"/>
-        <v>1982</v>
+      <c r="P105" s="30" t="str">
+        <f t="shared" ref="P105:R105" si="93">A5</f>
+        <v/>
+      </c>
+      <c r="Q105" s="30" t="str">
+        <f t="shared" si="93"/>
+        <v/>
+      </c>
+      <c r="R105" s="30" t="str">
+        <f t="shared" si="93"/>
+        <v/>
       </c>
       <c r="S105" s="3"/>
       <c r="T105" s="3">
@@ -8799,7 +9098,7 @@
       </c>
       <c r="U105" s="3"/>
       <c r="V105" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
@@ -8834,16 +9133,16 @@
     <row r="106">
       <c r="A106" s="3">
         <f>A104/A102</f>
-        <v>16.02461381</v>
+        <v>16.05548777</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-      <c r="F106" s="6"/>
-      <c r="G106" s="6"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="3"/>
@@ -8851,15 +9150,15 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
-      <c r="O106" s="26"/>
+      <c r="O106" s="29"/>
       <c r="P106" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q106" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R106" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
@@ -8913,16 +9212,16 @@
     <row r="107">
       <c r="A107" s="3">
         <f>A102*100/A104</f>
-        <v>6.2404</v>
+        <v>6.2284</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
       <c r="E107" s="3"/>
-      <c r="F107" s="6"/>
-      <c r="G107" s="6"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="3"/>
@@ -8937,7 +9236,7 @@
       </c>
       <c r="Q107" s="3">
         <f>IF(O104=1,Q105, MONTH(O105))</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R107" s="3">
         <f>IF(O104=1,R105, YEAR(O105))</f>
@@ -8980,10 +9279,10 @@
     <row r="108">
       <c r="A108" s="3">
         <f>100-A107</f>
-        <v>93.7596</v>
+        <v>93.7716</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="str">
@@ -8991,8 +9290,8 @@
         <v/>
       </c>
       <c r="E108" s="3"/>
-      <c r="F108" s="6"/>
-      <c r="G108" s="6"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3"/>
@@ -9044,13 +9343,13 @@
         <v>75</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-      <c r="F109" s="6"/>
-      <c r="G109" s="6"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -9058,7 +9357,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
-      <c r="O109" s="26"/>
+      <c r="O109" s="29"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
@@ -9067,7 +9366,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
@@ -9104,13 +9403,13 @@
         <v>750000</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-      <c r="F110" s="6"/>
-      <c r="G110" s="6"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -9118,24 +9417,24 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O110" s="3">
         <f>IF(P111="",0,1)</f>
         <v>0</v>
       </c>
       <c r="P110" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q110" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R110" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S110" s="3"/>
       <c r="T110" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
@@ -9175,44 +9474,44 @@
     <row r="111">
       <c r="A111" s="3">
         <f>(A110 + A102 )*100/B101</f>
-        <v>76.5601</v>
+        <v>76.5571</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3">
         <f>A111+C104</f>
-        <v>76.57932584</v>
+        <v>76.5635222</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F111" s="6"/>
-      <c r="G111" s="6"/>
-      <c r="H111" s="5"/>
-      <c r="I111" s="5"/>
-      <c r="J111" s="5"/>
-      <c r="K111" s="5"/>
-      <c r="L111" s="5"/>
-      <c r="M111" s="5"/>
+        <v>54</v>
+      </c>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="6"/>
+      <c r="I111" s="6"/>
+      <c r="J111" s="6"/>
+      <c r="K111" s="6"/>
+      <c r="L111" s="6"/>
+      <c r="M111" s="6"/>
       <c r="N111" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="O111" s="26">
+        <v>94</v>
+      </c>
+      <c r="O111" s="29">
         <f>TODAY()</f>
         <v>45863</v>
       </c>
-      <c r="P111" s="12" t="str">
-        <f t="shared" ref="P111:R111" si="90">A9</f>
+      <c r="P111" s="13" t="str">
+        <f t="shared" ref="P111:R111" si="94">A9</f>
         <v/>
       </c>
-      <c r="Q111" s="12" t="str">
-        <f t="shared" si="90"/>
+      <c r="Q111" s="13" t="str">
+        <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="R111" s="12" t="str">
-        <f t="shared" si="90"/>
+      <c r="R111" s="13" t="str">
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="S111" s="3"/>
@@ -9222,7 +9521,7 @@
       </c>
       <c r="U111" s="3"/>
       <c r="V111" s="3" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
@@ -9260,8 +9559,8 @@
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
-      <c r="F112" s="6"/>
-      <c r="G112" s="6"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3"/>
@@ -9269,17 +9568,17 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="O112" s="26"/>
+        <v>95</v>
+      </c>
+      <c r="O112" s="29"/>
       <c r="P112" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q112" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="R112" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -9336,25 +9635,25 @@
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
-      <c r="F113" s="6"/>
-      <c r="G113" s="6"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="5"/>
-      <c r="L113" s="5"/>
-      <c r="M113" s="5"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="6"/>
+      <c r="I113" s="6"/>
+      <c r="J113" s="6"/>
+      <c r="K113" s="6"/>
+      <c r="L113" s="6"/>
+      <c r="M113" s="6"/>
       <c r="N113" s="3"/>
       <c r="O113" s="3"/>
-      <c r="P113" s="5">
+      <c r="P113" s="6">
         <f>IF(O110=1,P111, DAY(O111))</f>
         <v>25</v>
       </c>
-      <c r="Q113" s="5">
+      <c r="Q113" s="6">
         <f>IF(O110=1,Q111, MONTH(O111))</f>
         <v>7</v>
       </c>
-      <c r="R113" s="5">
+      <c r="R113" s="6">
         <f>IF(O110=1,R111, YEAR(O111))</f>
         <v>2025</v>
       </c>
@@ -9398,8 +9697,8 @@
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
-      <c r="F114" s="6"/>
-      <c r="G114" s="6"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="3"/>
@@ -9451,8 +9750,8 @@
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
-      <c r="F115" s="6"/>
-      <c r="G115" s="6"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="3"/>

--- a/calc de fechas y tiempo.xlsx
+++ b/calc de fechas y tiempo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="96">
   <si>
     <t>Soles por dia</t>
   </si>
@@ -718,7 +718,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.13"/>
+    <col customWidth="1" min="1" max="1" width="26.0"/>
     <col customWidth="1" min="2" max="2" width="19.5"/>
     <col customWidth="1" min="12" max="12" width="20.88"/>
     <col customWidth="1" min="13" max="13" width="14.75"/>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>16.0</v>
+        <v>1.0</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="4"/>
@@ -979,8 +979,7 @@
         <v>11</v>
       </c>
       <c r="J4" s="5">
-        <f>B1</f>
-        <v>16</v>
+        <v>16.0</v>
       </c>
       <c r="K4" s="3"/>
       <c r="L4" s="4">
@@ -1168,7 +1167,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3">
         <f t="shared" si="6"/>
-        <v>249136</v>
+        <v>15571</v>
       </c>
       <c r="I6" s="3" t="s">
         <v>15</v>
@@ -7137,7 +7136,7 @@
     <row r="78">
       <c r="A78" s="9">
         <f>B1</f>
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>11</v>
@@ -7275,7 +7274,7 @@
     <row r="80">
       <c r="A80" s="3">
         <f>A77*A78</f>
-        <v>249136</v>
+        <v>15571</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>15</v>
@@ -8667,10 +8666,19 @@
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="3"/>
-      <c r="G99" s="3"/>
+      <c r="D99" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E99" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G99" s="3">
+        <f>1/E93</f>
+        <v>0.432</v>
+      </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="3"/>
@@ -8723,7 +8731,7 @@
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
+      <c r="E100" s="5"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
@@ -8906,7 +8914,7 @@
       <c r="AY102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="30">
+      <c r="A103" s="8">
         <f>B2</f>
         <v>25</v>
       </c>

--- a/calc de fechas y tiempo.xlsx
+++ b/calc de fechas y tiempo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="97">
   <si>
     <t>Soles por dia</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>multiplica</t>
+  </si>
+  <si>
+    <t>x2</t>
   </si>
   <si>
     <t>en soles</t>
@@ -308,7 +311,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/MM/yyyy"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -321,6 +324,11 @@
     </font>
     <font>
       <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <color rgb="FFFFFF00"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -379,6 +387,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF999999"/>
         <bgColor rgb="FF999999"/>
       </patternFill>
@@ -387,12 +401,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
@@ -408,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -445,37 +453,40 @@
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="1" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -484,16 +495,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="9" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="9" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="9" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -720,7 +731,8 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="26.0"/>
     <col customWidth="1" min="2" max="2" width="19.5"/>
-    <col customWidth="1" min="12" max="12" width="20.88"/>
+    <col customWidth="1" min="7" max="7" width="9.75"/>
+    <col customWidth="1" min="12" max="12" width="17.25"/>
     <col customWidth="1" min="13" max="13" width="14.75"/>
     <col customWidth="1" min="14" max="14" width="16.5"/>
   </cols>
@@ -803,7 +815,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3">
         <f>H3/365.25</f>
-        <v>42.63107461</v>
+        <v>42.63655031</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3"/>
@@ -879,7 +891,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3">
         <f>A77</f>
-        <v>15571</v>
+        <v>15573</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>5</v>
@@ -984,14 +996,14 @@
       <c r="K4" s="3"/>
       <c r="L4" s="4">
         <f>abs(L3)*100/(L8)</f>
-        <v>0.006422195106</v>
+        <v>0.00642137032</v>
       </c>
       <c r="M4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="N4" s="3">
         <f>C104</f>
-        <v>0.006422195106</v>
+        <v>0.00642137032</v>
       </c>
       <c r="O4" s="3"/>
       <c r="P4" s="4"/>
@@ -1071,9 +1083,11 @@
         <f t="shared" ref="H5:H20" si="6">A79</f>
         <v/>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
+      <c r="K5" s="5" t="s">
+        <v>15</v>
+      </c>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -1167,19 +1181,22 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3">
         <f t="shared" si="6"/>
-        <v>15571</v>
+        <v>15573</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J6" s="3">
         <f>J4*H3</f>
-        <v>249136</v>
-      </c>
-      <c r="K6" s="4"/>
+        <v>249168</v>
+      </c>
+      <c r="K6" s="12">
+        <f>J6*2</f>
+        <v>498336</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -1252,7 +1269,7 @@
     </row>
     <row r="7">
       <c r="A7" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1264,7 +1281,6 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="4"/>
       <c r="L7" s="3">
@@ -1355,7 +1371,7 @@
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1364,7 +1380,7 @@
         <v>24</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J8" s="3">
         <f t="shared" ref="J8:J10" si="10">H8</f>
@@ -1373,20 +1389,20 @@
       <c r="K8" s="4"/>
       <c r="L8" s="4">
         <f>H3</f>
-        <v>15571</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>20</v>
+        <v>15573</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="N8" s="3">
         <f t="shared" ref="N8:N17" si="11">A102</f>
-        <v>15571</v>
+        <v>15573</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S8" s="8">
         <f t="shared" ref="S8:Y8" si="9">SUM(S5:S7)</f>
@@ -1444,9 +1460,9 @@
       <c r="AY8" s="6"/>
     </row>
     <row r="9">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
       <c r="D9" s="3"/>
       <c r="E9" s="1">
         <v>15572.0</v>
@@ -1458,7 +1474,7 @@
         <v>60</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" s="3">
         <f t="shared" si="10"/>
@@ -1467,12 +1483,12 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4">
         <f>H2</f>
-        <v>42.63107461</v>
+        <v>42.63655031</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N9" s="14">
+      <c r="N9" s="15">
         <f t="shared" si="11"/>
         <v>25</v>
       </c>
@@ -1551,15 +1567,15 @@
       <c r="AY9" s="3"/>
     </row>
     <row r="10">
-      <c r="A10" s="15">
+      <c r="A10" s="16">
         <f t="shared" ref="A10:C10" si="14">P113</f>
-        <v>25</v>
-      </c>
-      <c r="B10" s="15">
+        <v>27</v>
+      </c>
+      <c r="B10" s="16">
         <f t="shared" si="14"/>
         <v>7</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="16">
         <f t="shared" si="14"/>
         <v>2025</v>
       </c>
@@ -1572,7 +1588,7 @@
         <v>60</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="10"/>
@@ -1581,10 +1597,10 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4">
         <f>L8</f>
-        <v>15571</v>
+        <v>15573</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N10" s="3">
         <f t="shared" si="11"/>
@@ -1672,27 +1688,27 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="12" t="str">
+      <c r="H11" s="13" t="str">
         <f t="shared" si="6"/>
         <v>Haber</v>
       </c>
       <c r="I11" s="3"/>
-      <c r="J11" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="K11" s="17" t="s">
+      <c r="J11" s="17" t="s">
         <v>26</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>27</v>
       </c>
       <c r="L11" s="3">
         <f>L10-L8</f>
         <v>0</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N11" s="3">
         <f t="shared" si="11"/>
-        <v>234429</v>
+        <v>234427</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="4"/>
@@ -1764,7 +1780,7 @@
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B12" s="3">
         <f>C19+D19</f>
@@ -1777,29 +1793,29 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3">
         <f t="shared" si="6"/>
-        <v>373704</v>
+        <v>373752</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J12" s="3">
         <f>J8*J6</f>
-        <v>5979264</v>
+        <v>5980032</v>
       </c>
       <c r="K12" s="4">
         <f t="shared" ref="K12:K14" si="21">J12-H12</f>
-        <v>5605560</v>
+        <v>5606280</v>
       </c>
       <c r="L12" s="3">
         <f>L10/L8</f>
         <v>1</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N12" s="3">
         <f t="shared" si="11"/>
-        <v>16.05548777</v>
+        <v>16.0534258</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="4"/>
@@ -1855,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
@@ -1887,29 +1903,29 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3">
         <f t="shared" si="6"/>
-        <v>22422240</v>
+        <v>22425120</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" ref="J13:J14" si="23">J12*J9</f>
-        <v>358755840</v>
+        <v>358801920</v>
       </c>
       <c r="K13" s="4">
         <f t="shared" si="21"/>
-        <v>336333600</v>
+        <v>336376800</v>
       </c>
       <c r="L13" s="3">
         <f>L8*100/L10</f>
         <v>100</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N13" s="3">
         <f t="shared" si="11"/>
-        <v>6.2284</v>
+        <v>6.2292</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="4"/>
@@ -1947,7 +1963,7 @@
       <c r="AD13" s="6"/>
       <c r="AE13" s="6"/>
       <c r="AF13" s="6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
@@ -1976,34 +1992,34 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3">
         <f t="shared" si="6"/>
-        <v>1345334400</v>
+        <v>1345507200</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J14" s="3">
         <f t="shared" si="23"/>
-        <v>21525350400</v>
+        <v>21528115200</v>
       </c>
       <c r="K14" s="4">
         <f t="shared" si="21"/>
-        <v>20180016000</v>
+        <v>20182608000</v>
       </c>
       <c r="L14" s="3">
         <f>100-L13</f>
         <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N14" s="3">
         <f t="shared" si="11"/>
-        <v>93.7716</v>
+        <v>93.7708</v>
       </c>
       <c r="O14" s="3"/>
       <c r="P14" s="4"/>
@@ -2042,14 +2058,14 @@
       <c r="AB14" s="6"/>
       <c r="AC14" s="6"/>
       <c r="AD14" s="6"/>
-      <c r="AE14" s="18">
+      <c r="AE14" s="19">
         <f>AI3</f>
         <v>10.5</v>
       </c>
       <c r="AF14" s="6"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AI14" s="3"/>
       <c r="AJ14" s="6"/>
@@ -2071,7 +2087,7 @@
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2088,10 +2104,10 @@
       <c r="K15" s="4"/>
       <c r="L15" s="3">
         <f>100-L9</f>
-        <v>57.36892539</v>
+        <v>57.36344969</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N15" s="3">
         <f t="shared" si="11"/>
@@ -2132,7 +2148,7 @@
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
       <c r="AE15" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AF15" s="6">
         <f>SUM(AF2:AF13)</f>
@@ -2186,25 +2202,25 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3">
         <f t="shared" si="6"/>
-        <v>15571</v>
+        <v>15573</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J16" s="3">
         <f>J6</f>
-        <v>249136</v>
+        <v>249168</v>
       </c>
       <c r="K16" s="4">
         <f t="shared" ref="K16:K20" si="27">J16-H16</f>
-        <v>233565</v>
+        <v>233595</v>
       </c>
       <c r="L16" s="3">
         <f>L7-L8</f>
-        <v>20954</v>
+        <v>20952</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N16" s="3">
         <f t="shared" si="11"/>
@@ -2276,34 +2292,34 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G17" s="3"/>
       <c r="H17" s="3">
         <f t="shared" si="6"/>
-        <v>311420</v>
+        <v>311460</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" s="3">
         <f>J16*20</f>
-        <v>4982720</v>
+        <v>4983360</v>
       </c>
       <c r="K17" s="4">
         <f t="shared" si="27"/>
-        <v>4671300</v>
+        <v>4671900</v>
       </c>
       <c r="L17" s="3">
         <f>(L16 + L8 )*100/L7</f>
         <v>100</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="N17" s="3">
         <f t="shared" si="11"/>
-        <v>76.5571</v>
+        <v>76.5573</v>
       </c>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
@@ -2365,30 +2381,30 @@
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G18" s="3"/>
       <c r="H18" s="3">
         <f t="shared" si="6"/>
-        <v>31142000</v>
+        <v>31146000</v>
       </c>
       <c r="I18" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" s="3">
         <f t="shared" ref="J18:J19" si="30">J17*100</f>
-        <v>498272000</v>
+        <v>498336000</v>
       </c>
       <c r="K18" s="4">
         <f t="shared" si="27"/>
-        <v>467130000</v>
+        <v>467190000</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="3"/>
@@ -2468,18 +2484,18 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3">
         <f t="shared" si="6"/>
-        <v>3114200000</v>
+        <v>3114600000</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J19" s="3">
         <f t="shared" si="30"/>
-        <v>49827200000</v>
+        <v>49833600000</v>
       </c>
       <c r="K19" s="4">
         <f t="shared" si="27"/>
-        <v>46713000000</v>
+        <v>46719000000</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="3"/>
@@ -2542,7 +2558,7 @@
     </row>
     <row r="20">
       <c r="A20" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -2552,29 +2568,29 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3">
         <f t="shared" si="6"/>
-        <v>791373176.5</v>
+        <v>791474823.5</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="J20" s="5">
         <f>J14*E94</f>
-        <v>12661970824</v>
+        <v>12663597176</v>
       </c>
       <c r="K20" s="4">
         <f t="shared" si="27"/>
-        <v>11870597647</v>
+        <v>11872122353</v>
       </c>
       <c r="L20" s="4">
         <f>L17+L4</f>
-        <v>100.0064222</v>
+        <v>100.0064214</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N20" s="3">
         <f>D111</f>
-        <v>76.5635222</v>
+        <v>76.56372137</v>
       </c>
       <c r="O20" s="3"/>
       <c r="P20" s="4"/>
@@ -2616,10 +2632,10 @@
       <c r="AC20" s="3"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
@@ -2643,7 +2659,7 @@
     </row>
     <row r="21">
       <c r="A21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2692,7 +2708,7 @@
       <c r="AB21" s="3"/>
       <c r="AC21" s="3"/>
       <c r="AD21" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AE21" s="3">
         <f>Q107</f>
@@ -2712,10 +2728,10 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
       <c r="AP21" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AQ21" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AR21" s="3"/>
       <c r="AS21" s="3"/>
@@ -2771,7 +2787,7 @@
       <c r="AA22" s="3"/>
       <c r="AB22" s="3"/>
       <c r="AC22" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
@@ -2785,7 +2801,7 @@
       <c r="AM22" s="4"/>
       <c r="AN22" s="3"/>
       <c r="AO22" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AP22" s="6">
         <f>Q113</f>
@@ -2793,7 +2809,7 @@
       </c>
       <c r="AQ22" s="6">
         <f>P113</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AR22" s="3"/>
       <c r="AS22" s="3"/>
@@ -2806,7 +2822,7 @@
     </row>
     <row r="23">
       <c r="A23" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2841,7 +2857,7 @@
       <c r="AD23" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE23" s="19">
+      <c r="AE23" s="20">
         <v>1.0</v>
       </c>
       <c r="AF23" s="3">
@@ -2872,7 +2888,7 @@
       </c>
       <c r="AM23" s="4"/>
       <c r="AN23" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AO23" s="3"/>
       <c r="AP23" s="3"/>
@@ -2936,7 +2952,7 @@
       <c r="AD24" s="10">
         <v>2.0</v>
       </c>
-      <c r="AE24" s="19">
+      <c r="AE24" s="20">
         <v>8.0</v>
       </c>
       <c r="AF24" s="3">
@@ -2971,7 +2987,7 @@
       <c r="AO24" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP24" s="19">
+      <c r="AP24" s="20">
         <v>1.0</v>
       </c>
       <c r="AQ24" s="3">
@@ -3038,7 +3054,7 @@
       <c r="AD25" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE25" s="19">
+      <c r="AE25" s="20">
         <v>1.0</v>
       </c>
       <c r="AF25" s="3">
@@ -3073,7 +3089,7 @@
       <c r="AO25" s="10">
         <v>2.0</v>
       </c>
-      <c r="AP25" s="19">
+      <c r="AP25" s="20">
         <f>IF(AH15=1,9,8)</f>
         <v>8</v>
       </c>
@@ -3107,7 +3123,7 @@
     </row>
     <row r="26">
       <c r="A26" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3">
         <f t="shared" ref="B26:F26" si="46">B24-B22</f>
@@ -3178,7 +3194,7 @@
       <c r="AD26" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE26" s="19">
+      <c r="AE26" s="20">
         <v>0.0</v>
       </c>
       <c r="AF26" s="3">
@@ -3213,7 +3229,7 @@
       <c r="AO26" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP26" s="19">
+      <c r="AP26" s="20">
         <v>1.0</v>
       </c>
       <c r="AQ26" s="3">
@@ -3246,7 +3262,7 @@
     </row>
     <row r="27">
       <c r="A27" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" s="8">
         <f t="shared" ref="B27:F27" si="48">abs(B26)</f>
@@ -3280,26 +3296,26 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S27" s="3"/>
-      <c r="T27" s="20">
+      <c r="T27" s="21">
         <f t="shared" ref="T27:X27" si="49">AA12</f>
         <v>0</v>
       </c>
-      <c r="U27" s="20">
+      <c r="U27" s="21">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="V27" s="20">
+      <c r="V27" s="21">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
-      <c r="W27" s="20">
+      <c r="W27" s="21">
         <f t="shared" si="49"/>
         <v>1</v>
       </c>
-      <c r="X27" s="20">
+      <c r="X27" s="21">
         <f t="shared" si="49"/>
         <v>0</v>
       </c>
@@ -3313,7 +3329,7 @@
       <c r="AD27" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE27" s="19">
+      <c r="AE27" s="20">
         <v>1.0</v>
       </c>
       <c r="AF27" s="3">
@@ -3348,7 +3364,7 @@
       <c r="AO27" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP27" s="19">
+      <c r="AP27" s="20">
         <v>0.0</v>
       </c>
       <c r="AQ27" s="3">
@@ -3381,7 +3397,7 @@
     </row>
     <row r="28">
       <c r="A28" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="3">
         <f t="shared" ref="B28:F28" si="50">IF(B26&gt;9,LEFT(B26),0)</f>
@@ -3449,7 +3465,7 @@
       <c r="AD28" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE28" s="19">
+      <c r="AE28" s="20">
         <v>0.0</v>
       </c>
       <c r="AF28" s="3">
@@ -3484,7 +3500,7 @@
       <c r="AO28" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP28" s="19">
+      <c r="AP28" s="20">
         <v>1.0</v>
       </c>
       <c r="AQ28" s="3">
@@ -3568,7 +3584,7 @@
       <c r="AD29" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE29" s="19">
+      <c r="AE29" s="20">
         <v>1.0</v>
       </c>
       <c r="AF29" s="3">
@@ -3603,7 +3619,7 @@
       <c r="AO29" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP29" s="19">
+      <c r="AP29" s="20">
         <v>0.0</v>
       </c>
       <c r="AQ29" s="3">
@@ -3704,7 +3720,7 @@
       <c r="AO30" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP30" s="19">
+      <c r="AP30" s="20">
         <v>1.0</v>
       </c>
       <c r="AQ30" s="3">
@@ -3737,7 +3753,7 @@
     </row>
     <row r="31">
       <c r="A31" s="3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3840,7 +3856,7 @@
     </row>
     <row r="32">
       <c r="A32" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3875,7 +3891,7 @@
       <c r="AD32" s="10">
         <v>3.0</v>
       </c>
-      <c r="AE32" s="19">
+      <c r="AE32" s="20">
         <v>1.0</v>
       </c>
       <c r="AF32" s="3">
@@ -4026,7 +4042,7 @@
       <c r="AO33" s="10">
         <v>3.0</v>
       </c>
-      <c r="AP33" s="19">
+      <c r="AP33" s="20">
         <v>1.0</v>
       </c>
       <c r="AQ33" s="3">
@@ -4059,7 +4075,7 @@
     </row>
     <row r="34">
       <c r="A34" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4206,8 +4222,8 @@
       <c r="AA35" s="3"/>
       <c r="AB35" s="3"/>
       <c r="AC35" s="3"/>
-      <c r="AD35" s="21" t="s">
-        <v>21</v>
+      <c r="AD35" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="AE35" s="3"/>
       <c r="AF35" s="3"/>
@@ -4287,32 +4303,32 @@
       <c r="AB36" s="3"/>
       <c r="AC36" s="3"/>
       <c r="AD36" s="3"/>
-      <c r="AE36" s="21" t="s">
-        <v>21</v>
+      <c r="AE36" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="AF36" s="3"/>
-      <c r="AG36" s="22">
+      <c r="AG36" s="23">
         <f t="shared" ref="AG36:AH36" si="55">SUM(AG23:AG34)</f>
         <v>35</v>
       </c>
-      <c r="AH36" s="22">
+      <c r="AH36" s="23">
         <f t="shared" si="55"/>
         <v>15</v>
       </c>
       <c r="AI36" s="3"/>
       <c r="AJ36" s="3"/>
-      <c r="AK36" s="22">
+      <c r="AK36" s="23">
         <f t="shared" ref="AK36:AL36" si="56">SUM(AK23:AK34)</f>
         <v>3</v>
       </c>
-      <c r="AL36" s="22">
+      <c r="AL36" s="23">
         <f t="shared" si="56"/>
         <v>1</v>
       </c>
       <c r="AM36" s="4"/>
       <c r="AN36" s="3"/>
-      <c r="AO36" s="21" t="s">
-        <v>21</v>
+      <c r="AO36" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="AP36" s="3"/>
       <c r="AQ36" s="3"/>
@@ -4327,7 +4343,7 @@
     </row>
     <row r="37">
       <c r="A37" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B37" s="3">
         <f t="shared" ref="B37:E37" si="57">B33+B35</f>
@@ -4399,25 +4415,25 @@
       <c r="AM37" s="4"/>
       <c r="AN37" s="3"/>
       <c r="AO37" s="3"/>
-      <c r="AP37" s="21" t="s">
-        <v>21</v>
+      <c r="AP37" s="22" t="s">
+        <v>22</v>
       </c>
       <c r="AQ37" s="3"/>
-      <c r="AR37" s="22">
+      <c r="AR37" s="23">
         <f t="shared" ref="AR37:AS37" si="59">SUM(AR24:AR35)</f>
         <v>20</v>
       </c>
-      <c r="AS37" s="22">
+      <c r="AS37" s="23">
         <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AT37" s="3"/>
       <c r="AU37" s="3"/>
-      <c r="AV37" s="22">
+      <c r="AV37" s="23">
         <f t="shared" ref="AV37:AW37" si="60">SUM(AV24:AV35)</f>
         <v>3</v>
       </c>
-      <c r="AW37" s="22">
+      <c r="AW37" s="23">
         <f t="shared" si="60"/>
         <v>1</v>
       </c>
@@ -4426,7 +4442,7 @@
     </row>
     <row r="38">
       <c r="A38" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" s="8">
         <f t="shared" ref="B38:E38" si="61">IF(B37&gt;9,RIGHT(B37),B37) +C39</f>
@@ -4520,7 +4536,7 @@
     </row>
     <row r="39">
       <c r="A39" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B39" s="3">
         <f t="shared" ref="B39:F39" si="62">IF(B37&gt;9,LEFT(B37),0)</f>
@@ -4632,28 +4648,28 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-      <c r="AF40" s="22">
+      <c r="AF40" s="23">
         <f t="shared" ref="AF40:AH40" si="63">AF37+AF38</f>
         <v>3</v>
       </c>
-      <c r="AG40" s="22">
+      <c r="AG40" s="23">
         <f t="shared" si="63"/>
         <v>6</v>
       </c>
-      <c r="AH40" s="22">
+      <c r="AH40" s="23">
         <f t="shared" si="63"/>
         <v>5</v>
       </c>
       <c r="AI40" s="3"/>
-      <c r="AJ40" s="22">
+      <c r="AJ40" s="23">
         <f t="shared" ref="AJ40:AL40" si="64">AJ37+AJ38</f>
         <v>0</v>
       </c>
-      <c r="AK40" s="22">
+      <c r="AK40" s="23">
         <f t="shared" si="64"/>
         <v>3</v>
       </c>
-      <c r="AL40" s="22">
+      <c r="AL40" s="23">
         <f t="shared" si="64"/>
         <v>1</v>
       </c>
@@ -4726,28 +4742,28 @@
       <c r="AN41" s="3"/>
       <c r="AO41" s="3"/>
       <c r="AP41" s="3"/>
-      <c r="AQ41" s="22">
+      <c r="AQ41" s="23">
         <f t="shared" ref="AQ41:AS41" si="65">AQ38+AQ39</f>
         <v>2</v>
       </c>
-      <c r="AR41" s="22">
+      <c r="AR41" s="23">
         <f t="shared" si="65"/>
         <v>1</v>
       </c>
-      <c r="AS41" s="22">
+      <c r="AS41" s="23">
         <f t="shared" si="65"/>
         <v>2</v>
       </c>
       <c r="AT41" s="3"/>
-      <c r="AU41" s="22">
+      <c r="AU41" s="23">
         <f t="shared" ref="AU41:AW41" si="66">AU38+AU39</f>
         <v>0</v>
       </c>
-      <c r="AV41" s="22">
+      <c r="AV41" s="23">
         <f t="shared" si="66"/>
         <v>3</v>
       </c>
-      <c r="AW41" s="22">
+      <c r="AW41" s="23">
         <f t="shared" si="66"/>
         <v>1</v>
       </c>
@@ -4756,7 +4772,7 @@
     </row>
     <row r="42">
       <c r="A42" s="3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4823,7 +4839,7 @@
     </row>
     <row r="43">
       <c r="A43" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4982,7 +4998,7 @@
     </row>
     <row r="45">
       <c r="A45" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -5016,7 +5032,7 @@
       <c r="AE45" s="3"/>
       <c r="AF45" s="6"/>
       <c r="AG45" s="6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH45" s="6">
         <f>SUM(AE23:AE29)</f>
@@ -5024,7 +5040,7 @@
       </c>
       <c r="AI45" s="6"/>
       <c r="AJ45" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AK45" s="3"/>
       <c r="AL45" s="6">
@@ -5114,7 +5130,7 @@
       <c r="AP46" s="3"/>
       <c r="AQ46" s="3"/>
       <c r="AR46" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AS46" s="3">
         <f>SUM(AP24:AP30)</f>
@@ -5122,12 +5138,12 @@
       </c>
       <c r="AT46" s="3"/>
       <c r="AU46" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AV46" s="3"/>
       <c r="AW46" s="6">
         <f>AQ22</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AX46" s="3"/>
       <c r="AY46" s="3"/>
@@ -5189,14 +5205,14 @@
       </c>
       <c r="AW47" s="3" t="str">
         <f>RIGHT(AW46)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX47" s="3"/>
       <c r="AY47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B48" s="3">
         <f t="shared" ref="B48:F48" si="69">B46-B44</f>
@@ -5237,7 +5253,7 @@
       <c r="W48" s="3"/>
       <c r="X48" s="3"/>
       <c r="Y48" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Z48" s="3"/>
       <c r="AA48" s="3"/>
@@ -5264,7 +5280,7 @@
       <c r="AP48" s="3"/>
       <c r="AQ48" s="3"/>
       <c r="AR48" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AS48" s="3"/>
       <c r="AT48" s="3"/>
@@ -5276,7 +5292,7 @@
     </row>
     <row r="49">
       <c r="A49" s="8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" s="8">
         <f t="shared" ref="B49:F49" si="70">IF(B50&lt;0,RIGHT(B48),B50)</f>
@@ -5372,7 +5388,7 @@
       </c>
       <c r="AW49" s="3">
         <f>IF(AW47&gt;AW44,10+AW44-AW47,AW44-AW47)</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX49" s="3"/>
       <c r="AY49" s="3"/>
@@ -5417,7 +5433,7 @@
       <c r="V50" s="3"/>
       <c r="W50" s="3"/>
       <c r="X50" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y50" s="3">
         <v>0.0</v>
@@ -5428,17 +5444,17 @@
       <c r="AA50" s="3">
         <v>0.0</v>
       </c>
-      <c r="AB50" s="20">
+      <c r="AB50" s="21">
         <f t="shared" ref="AB50:AD50" si="74">AQ71</f>
         <v>2</v>
       </c>
-      <c r="AC50" s="20">
+      <c r="AC50" s="21">
         <f t="shared" si="74"/>
         <v>3</v>
       </c>
-      <c r="AD50" s="20" t="str">
+      <c r="AD50" s="21" t="str">
         <f t="shared" si="74"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE50" s="3"/>
       <c r="AF50" s="6"/>
@@ -5465,7 +5481,7 @@
       </c>
       <c r="AS50" s="3">
         <f t="shared" si="75"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AT50" s="3"/>
       <c r="AU50" s="3"/>
@@ -5476,7 +5492,7 @@
     </row>
     <row r="51">
       <c r="A51" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B51" s="3">
         <f t="shared" ref="B51:F51" si="76">IF(B48&lt;0,1,0)</f>
@@ -5538,7 +5554,7 @@
       </c>
       <c r="AD51" s="7">
         <f>IF((AD50+AD49)&gt;9,RIGHT(AD49+AD50),AD49+AD50)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE51" s="3"/>
       <c r="AF51" s="6"/>
@@ -5563,7 +5579,7 @@
       </c>
       <c r="AW51" s="8">
         <f>AW49</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX51" s="3"/>
       <c r="AY51" s="3"/>
@@ -5633,7 +5649,7 @@
       <c r="AR52" s="3"/>
       <c r="AS52" s="3">
         <f>IF(AS50&gt;AS49,10-AS50+AS49,AS49-AS50)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT52" s="3"/>
       <c r="AU52" s="3"/>
@@ -5726,12 +5742,12 @@
       <c r="Y54" s="3"/>
       <c r="Z54" s="3"/>
       <c r="AA54" s="3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AB54" s="3"/>
       <c r="AC54" s="3">
         <f>AD51*1 +AC51*10 + AB51*100 + AA51*1000 +Z51*10000 +Y51*100000</f>
-        <v>15571</v>
+        <v>15573</v>
       </c>
       <c r="AD54" s="3"/>
       <c r="AE54" s="3"/>
@@ -5748,7 +5764,7 @@
       <c r="AP54" s="3"/>
       <c r="AQ54" s="3"/>
       <c r="AR54" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AS54" s="3"/>
       <c r="AT54" s="3"/>
@@ -5811,7 +5827,7 @@
       </c>
       <c r="AS55" s="9">
         <f>AS52</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT55" s="3"/>
       <c r="AU55" s="3"/>
@@ -5961,7 +5977,7 @@
       <c r="AF58" s="6"/>
       <c r="AG58" s="6"/>
       <c r="AH58" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI58" s="6"/>
       <c r="AJ58" s="4"/>
@@ -6149,7 +6165,7 @@
       <c r="AO61" s="3"/>
       <c r="AP61" s="3"/>
       <c r="AQ61" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AR61" s="3"/>
       <c r="AS61" s="3"/>
@@ -6278,7 +6294,7 @@
       </c>
       <c r="AS63" s="3">
         <f t="shared" si="82"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AT63" s="3"/>
       <c r="AU63" s="3"/>
@@ -6399,7 +6415,7 @@
       </c>
       <c r="AS65" s="6" t="str">
         <f>IF((AS63+AS62)&gt;9,RIGHT(AS63+AS62),AS63+AS62)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT65" s="3"/>
       <c r="AU65" s="3"/>
@@ -6610,8 +6626,8 @@
       <c r="AE69" s="3"/>
       <c r="AF69" s="3"/>
       <c r="AG69" s="6"/>
-      <c r="AH69" s="23" t="s">
-        <v>71</v>
+      <c r="AH69" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="AI69" s="6"/>
       <c r="AJ69" s="4"/>
@@ -6749,7 +6765,7 @@
       </c>
       <c r="AS71" s="7" t="str">
         <f>AS65</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AT71" s="3"/>
       <c r="AU71" s="3"/>
@@ -6851,8 +6867,8 @@
       <c r="AE73" s="3"/>
       <c r="AF73" s="4"/>
       <c r="AG73" s="4"/>
-      <c r="AH73" s="24" t="s">
-        <v>72</v>
+      <c r="AH73" s="25" t="s">
+        <v>73</v>
       </c>
       <c r="AI73" s="4"/>
       <c r="AJ73" s="4"/>
@@ -6980,10 +6996,10 @@
         <f>AG60</f>
         <v>3</v>
       </c>
-      <c r="AH75" s="23">
+      <c r="AH75" s="24">
         <v>6.0</v>
       </c>
-      <c r="AI75" s="23">
+      <c r="AI75" s="24">
         <v>5.0</v>
       </c>
       <c r="AJ75" s="4"/>
@@ -7062,17 +7078,17 @@
     <row r="77">
       <c r="A77" s="3">
         <f>AC54</f>
-        <v>15571</v>
+        <v>15573</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -7087,17 +7103,17 @@
       <c r="P77" s="3"/>
       <c r="Q77" s="3">
         <f>A77</f>
-        <v>15571</v>
+        <v>15573</v>
       </c>
       <c r="R77" s="3" t="s">
         <v>5</v>
       </c>
       <c r="S77" s="3"/>
       <c r="T77" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U77" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V77" s="3"/>
       <c r="W77" s="3"/>
@@ -7255,7 +7271,7 @@
       <c r="AJ79" s="3"/>
       <c r="AK79" s="3"/>
       <c r="AL79" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AM79" s="3"/>
       <c r="AN79" s="3"/>
@@ -7274,10 +7290,10 @@
     <row r="80">
       <c r="A80" s="3">
         <f>A77*A78</f>
-        <v>15571</v>
+        <v>15573</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3">
@@ -7300,10 +7316,10 @@
       <c r="P80" s="3"/>
       <c r="Q80" s="3">
         <f>Q77*Q78</f>
-        <v>249136</v>
+        <v>249168</v>
       </c>
       <c r="R80" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="S80" s="3"/>
       <c r="T80" s="3">
@@ -7394,7 +7410,7 @@
       </c>
       <c r="AM81" s="6" t="str">
         <f t="shared" si="86"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN81" s="3"/>
       <c r="AO81" s="3"/>
@@ -7414,17 +7430,17 @@
         <v>24.0</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E82" s="3">
         <v>1.0</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G82" s="3">
         <v>20.0</v>
@@ -7442,17 +7458,17 @@
         <v>24.0</v>
       </c>
       <c r="R82" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S82" s="3"/>
       <c r="T82" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U82" s="3">
         <v>1.0</v>
       </c>
       <c r="V82" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W82" s="3">
         <v>20.0</v>
@@ -7491,17 +7507,17 @@
         <v>60.0</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E83" s="3">
         <v>1.0</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G83" s="3">
         <v>100.0</v>
@@ -7519,17 +7535,17 @@
         <v>60.0</v>
       </c>
       <c r="R83" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="S83" s="3"/>
       <c r="T83" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U83" s="3">
         <v>1.0</v>
       </c>
       <c r="V83" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="W83" s="3">
         <v>100.0</v>
@@ -7571,17 +7587,17 @@
         <v>60.0</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E84" s="3">
         <v>1.0</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G84" s="3">
         <v>100.0</v>
@@ -7599,17 +7615,17 @@
         <v>60.0</v>
       </c>
       <c r="R84" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S84" s="3"/>
       <c r="T84" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U84" s="3">
         <v>1.0</v>
       </c>
       <c r="V84" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W84" s="3">
         <v>100.0</v>
@@ -7624,8 +7640,8 @@
       <c r="AE84" s="3"/>
       <c r="AF84" s="3"/>
       <c r="AG84" s="6"/>
-      <c r="AH84" s="23" t="s">
-        <v>71</v>
+      <c r="AH84" s="24" t="s">
+        <v>72</v>
       </c>
       <c r="AI84" s="6"/>
       <c r="AJ84" s="3"/>
@@ -7646,8 +7662,8 @@
       <c r="AY84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="25" t="s">
-        <v>80</v>
+      <c r="A85" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -7666,8 +7682,8 @@
       <c r="P85" s="3"/>
       <c r="Q85" s="3"/>
       <c r="R85" s="3"/>
-      <c r="S85" s="26" t="s">
-        <v>81</v>
+      <c r="S85" s="27" t="s">
+        <v>82</v>
       </c>
       <c r="T85" s="3"/>
       <c r="U85" s="3"/>
@@ -7705,14 +7721,14 @@
     <row r="86">
       <c r="A86" s="3">
         <f>A77*A82</f>
-        <v>373704</v>
+        <v>373752</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E86" s="3">
         <v>1.0</v>
@@ -7721,7 +7737,7 @@
         <v>24.0</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
@@ -7734,17 +7750,17 @@
       <c r="P86" s="3"/>
       <c r="Q86" s="3">
         <f>Q80*Q82</f>
-        <v>5979264</v>
+        <v>5980032</v>
       </c>
       <c r="R86" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S86" s="3">
         <f t="shared" ref="S86:S88" si="87">Q86-A86</f>
-        <v>5605560</v>
+        <v>5606280</v>
       </c>
       <c r="T86" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U86" s="3">
         <v>1.0</v>
@@ -7753,7 +7769,7 @@
         <v>24.0</v>
       </c>
       <c r="W86" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="X86" s="3"/>
       <c r="Y86" s="3"/>
@@ -7796,20 +7812,20 @@
     <row r="87">
       <c r="A87" s="3">
         <f t="shared" ref="A87:A88" si="88">A86*A83</f>
-        <v>22422240</v>
+        <v>22425120</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E87" s="3">
         <v>1.0</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G87" s="3">
         <v>60.0</v>
@@ -7825,23 +7841,23 @@
       <c r="P87" s="3"/>
       <c r="Q87" s="3">
         <f t="shared" ref="Q87:Q88" si="89">Q86*Q83</f>
-        <v>358755840</v>
+        <v>358801920</v>
       </c>
       <c r="R87" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S87" s="3">
         <f t="shared" si="87"/>
-        <v>336333600</v>
+        <v>336376800</v>
       </c>
       <c r="T87" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="U87" s="3">
         <v>1.0</v>
       </c>
       <c r="V87" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W87" s="3">
         <v>60.0</v>
@@ -7878,20 +7894,20 @@
     <row r="88">
       <c r="A88" s="3">
         <f t="shared" si="88"/>
-        <v>1345334400</v>
+        <v>1345507200</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E88" s="3">
         <v>60.0</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G88" s="3">
         <v>60.0</v>
@@ -7907,23 +7923,23 @@
       <c r="P88" s="3"/>
       <c r="Q88" s="3">
         <f t="shared" si="89"/>
-        <v>21525350400</v>
+        <v>21528115200</v>
       </c>
       <c r="R88" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="S88" s="3">
         <f t="shared" si="87"/>
-        <v>20180016000</v>
+        <v>20182608000</v>
       </c>
       <c r="T88" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U88" s="3">
         <v>60.0</v>
       </c>
       <c r="V88" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W88" s="3">
         <v>60.0</v>
@@ -8013,20 +8029,20 @@
     <row r="90">
       <c r="A90" s="3">
         <f t="shared" ref="A90:A92" si="90">A91/G82</f>
-        <v>15571</v>
+        <v>15573</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E90" s="3">
         <v>1.0</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G90" s="3">
         <f>F86*G87*G88</f>
@@ -8043,23 +8059,23 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3">
         <f t="shared" ref="Q90:Q92" si="91">Q91/W82</f>
-        <v>249136</v>
+        <v>249168</v>
       </c>
       <c r="R90" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S90" s="3">
         <f t="shared" ref="S90:S94" si="92">Q90-A90</f>
-        <v>233565</v>
+        <v>233595</v>
       </c>
       <c r="T90" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U90" s="3">
         <v>1.0</v>
       </c>
       <c r="V90" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W90" s="3">
         <f>V86*W87*W88</f>
@@ -8097,20 +8113,20 @@
     <row r="91">
       <c r="A91" s="3">
         <f t="shared" si="90"/>
-        <v>311420</v>
+        <v>311460</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E91" s="3">
         <v>1.0</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G91" s="3">
         <f>G84*G83*G82</f>
@@ -8127,23 +8143,23 @@
       <c r="P91" s="3"/>
       <c r="Q91" s="3">
         <f t="shared" si="91"/>
-        <v>4982720</v>
+        <v>4983360</v>
       </c>
       <c r="R91" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S91" s="3">
         <f t="shared" si="92"/>
-        <v>4671300</v>
+        <v>4671900</v>
       </c>
       <c r="T91" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U91" s="3">
         <v>1.0</v>
       </c>
       <c r="V91" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W91" s="3">
         <f>W84*W83*W82</f>
@@ -8181,10 +8197,10 @@
     <row r="92">
       <c r="A92" s="3">
         <f t="shared" si="90"/>
-        <v>31142000</v>
+        <v>31146000</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -8202,14 +8218,14 @@
       <c r="P92" s="3"/>
       <c r="Q92" s="3">
         <f t="shared" si="91"/>
-        <v>498272000</v>
+        <v>498336000</v>
       </c>
       <c r="R92" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S92" s="3">
         <f t="shared" si="92"/>
-        <v>467130000</v>
+        <v>467190000</v>
       </c>
       <c r="T92" s="3"/>
       <c r="U92" s="3"/>
@@ -8247,21 +8263,21 @@
     <row r="93">
       <c r="A93" s="3">
         <f>E93*A88</f>
-        <v>3114200000</v>
+        <v>3114600000</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E93" s="3">
         <f>G91/G90</f>
         <v>2.314814815</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G93" s="3">
         <v>1.0</v>
@@ -8277,24 +8293,24 @@
       <c r="P93" s="3"/>
       <c r="Q93" s="3">
         <f>U93*Q88</f>
-        <v>49827200000</v>
+        <v>49833600000</v>
       </c>
       <c r="R93" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S93" s="3">
         <f t="shared" si="92"/>
-        <v>46713000000</v>
+        <v>46719000000</v>
       </c>
       <c r="T93" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U93" s="3">
         <f>W91/W90</f>
         <v>2.314814815</v>
       </c>
       <c r="V93" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W93" s="3">
         <v>1.0</v>
@@ -8331,21 +8347,21 @@
     <row r="94">
       <c r="A94" s="3">
         <f>A88*E94</f>
-        <v>791373176.5</v>
+        <v>791474823.5</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E94" s="3">
         <f>D80</f>
         <v>0.5882352941</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G94" s="3">
         <v>1.0</v>
@@ -8361,24 +8377,24 @@
       <c r="P94" s="3"/>
       <c r="Q94" s="3">
         <f>Q88*U94</f>
-        <v>12661970824</v>
+        <v>12663597176</v>
       </c>
       <c r="R94" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S94" s="3">
         <f t="shared" si="92"/>
-        <v>11870597647</v>
+        <v>11872122353</v>
       </c>
       <c r="T94" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U94" s="3">
         <f>T80</f>
         <v>0.5882352941</v>
       </c>
       <c r="V94" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="W94" s="3">
         <v>1.0</v>
@@ -8470,14 +8486,14 @@
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E96" s="3">
         <f>E94/E93</f>
         <v>0.2541176471</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G96" s="3">
         <v>1.0</v>
@@ -8490,21 +8506,21 @@
       <c r="M96" s="3"/>
       <c r="N96" s="3"/>
       <c r="O96" s="3"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="R96" s="27"/>
+      <c r="P96" s="28"/>
+      <c r="Q96" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="R96" s="28"/>
       <c r="S96" s="3"/>
       <c r="T96" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U96" s="3">
         <f>E96</f>
         <v>0.2541176471</v>
       </c>
       <c r="V96" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W96" s="3">
         <v>1.0</v>
@@ -8543,13 +8559,13 @@
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E97" s="3">
         <v>1.0</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G97" s="3">
         <f>E93/E94</f>
@@ -8568,13 +8584,13 @@
       <c r="R97" s="3"/>
       <c r="S97" s="3"/>
       <c r="T97" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="U97" s="3">
         <v>1.0</v>
       </c>
       <c r="V97" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W97" s="3">
         <f>U93/U94</f>
@@ -8667,13 +8683,13 @@
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E99" s="5">
         <v>1.0</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G99" s="3">
         <f>1/E93</f>
@@ -8727,7 +8743,7 @@
     <row r="100">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -8858,10 +8874,10 @@
     <row r="102">
       <c r="A102" s="3">
         <f>A90</f>
-        <v>15571</v>
+        <v>15573</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -8874,7 +8890,7 @@
       <c r="K102" s="3"/>
       <c r="L102" s="3"/>
       <c r="M102" s="3"/>
-      <c r="N102" s="29"/>
+      <c r="N102" s="30"/>
       <c r="O102" s="3"/>
       <c r="P102" s="3"/>
       <c r="Q102" s="3"/>
@@ -8926,7 +8942,7 @@
         <v>1</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="4"/>
@@ -8940,7 +8956,7 @@
       <c r="N103" s="3"/>
       <c r="O103" s="3"/>
       <c r="P103" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q103" s="3">
         <f>abs(A102-Q100)</f>
@@ -8952,7 +8968,7 @@
       <c r="U103" s="3"/>
       <c r="V103" s="3"/>
       <c r="W103" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X103" s="3"/>
       <c r="Y103" s="3"/>
@@ -8989,11 +9005,11 @@
         <v>250000</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C104" s="3">
         <f>abs(C103)*100/(A102)</f>
-        <v>0.006422195106</v>
+        <v>0.00642137032</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>12</v>
@@ -9008,24 +9024,24 @@
       <c r="L104" s="3"/>
       <c r="M104" s="3"/>
       <c r="N104" s="8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O104" s="3">
         <f>IF(P105="",0,1)</f>
         <v>0</v>
       </c>
       <c r="P104" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q104" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q104" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R104" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S104" s="3"/>
       <c r="T104" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U104" s="3"/>
       <c r="V104" s="3"/>
@@ -9065,10 +9081,10 @@
     <row r="105">
       <c r="A105" s="3">
         <f>A104-A102</f>
-        <v>234429</v>
+        <v>234427</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -9082,20 +9098,20 @@
       <c r="L105" s="3"/>
       <c r="M105" s="3"/>
       <c r="N105" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O105" s="29">
+        <v>92</v>
+      </c>
+      <c r="O105" s="30">
         <v>30291.0</v>
       </c>
-      <c r="P105" s="30" t="str">
+      <c r="P105" s="31" t="str">
         <f t="shared" ref="P105:R105" si="93">A5</f>
         <v/>
       </c>
-      <c r="Q105" s="30" t="str">
+      <c r="Q105" s="31" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
-      <c r="R105" s="30" t="str">
+      <c r="R105" s="31" t="str">
         <f t="shared" si="93"/>
         <v/>
       </c>
@@ -9106,7 +9122,7 @@
       </c>
       <c r="U105" s="3"/>
       <c r="V105" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W105" s="3"/>
       <c r="X105" s="3"/>
@@ -9141,10 +9157,10 @@
     <row r="106">
       <c r="A106" s="3">
         <f>A104/A102</f>
-        <v>16.05548777</v>
+        <v>16.0534258</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -9158,15 +9174,15 @@
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="3"/>
-      <c r="O106" s="29"/>
+      <c r="O106" s="30"/>
       <c r="P106" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q106" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q106" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R106" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S106" s="3"/>
       <c r="T106" s="3"/>
@@ -9220,10 +9236,10 @@
     <row r="107">
       <c r="A107" s="3">
         <f>A102*100/A104</f>
-        <v>6.2284</v>
+        <v>6.2292</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
@@ -9287,10 +9303,10 @@
     <row r="108">
       <c r="A108" s="3">
         <f>100-A107</f>
-        <v>93.7716</v>
+        <v>93.7708</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="str">
@@ -9351,7 +9367,7 @@
         <v>75</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -9365,7 +9381,7 @@
       <c r="L109" s="3"/>
       <c r="M109" s="3"/>
       <c r="N109" s="3"/>
-      <c r="O109" s="29"/>
+      <c r="O109" s="30"/>
       <c r="P109" s="3"/>
       <c r="Q109" s="3"/>
       <c r="R109" s="3"/>
@@ -9374,7 +9390,7 @@
       <c r="U109" s="3"/>
       <c r="V109" s="3"/>
       <c r="W109" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="X109" s="3"/>
       <c r="Y109" s="3"/>
@@ -9411,7 +9427,7 @@
         <v>750000</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -9425,24 +9441,24 @@
       <c r="L110" s="3"/>
       <c r="M110" s="3"/>
       <c r="N110" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O110" s="3">
         <f>IF(P111="",0,1)</f>
         <v>0</v>
       </c>
       <c r="P110" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q110" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q110" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R110" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S110" s="3"/>
       <c r="T110" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U110" s="3"/>
       <c r="V110" s="3"/>
@@ -9482,18 +9498,18 @@
     <row r="111">
       <c r="A111" s="3">
         <f>(A110 + A102 )*100/B101</f>
-        <v>76.5571</v>
+        <v>76.5573</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3">
         <f>A111+C104</f>
-        <v>76.5635222</v>
+        <v>76.56372137</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F111" s="4"/>
       <c r="G111" s="4"/>
@@ -9504,21 +9520,21 @@
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
       <c r="N111" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="O111" s="29">
+        <v>95</v>
+      </c>
+      <c r="O111" s="30">
         <f>TODAY()</f>
-        <v>45863</v>
-      </c>
-      <c r="P111" s="13" t="str">
+        <v>45865</v>
+      </c>
+      <c r="P111" s="14" t="str">
         <f t="shared" ref="P111:R111" si="94">A9</f>
         <v/>
       </c>
-      <c r="Q111" s="13" t="str">
+      <c r="Q111" s="14" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
-      <c r="R111" s="13" t="str">
+      <c r="R111" s="14" t="str">
         <f t="shared" si="94"/>
         <v/>
       </c>
@@ -9529,7 +9545,7 @@
       </c>
       <c r="U111" s="3"/>
       <c r="V111" s="3" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="W111" s="3"/>
       <c r="X111" s="3"/>
@@ -9576,17 +9592,17 @@
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
       <c r="N112" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="O112" s="29"/>
+        <v>96</v>
+      </c>
+      <c r="O112" s="30"/>
       <c r="P112" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q112" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="Q112" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="R112" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="S112" s="3"/>
       <c r="T112" s="3"/>
@@ -9655,7 +9671,7 @@
       <c r="O113" s="3"/>
       <c r="P113" s="6">
         <f>IF(O110=1,P111, DAY(O111))</f>
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="Q113" s="6">
         <f>IF(O110=1,Q111, MONTH(O111))</f>
